--- a/investing spreadsheets/FB.xlsx
+++ b/investing spreadsheets/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="-20" windowWidth="16800" windowHeight="20540"/>
+    <workbookView xWindow="16725" yWindow="-15" windowWidth="16800" windowHeight="20535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -852,7 +852,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -862,13 +862,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -879,7 +879,7 @@
         <v>42640</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>108</v>
       </c>
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>109</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -918,7 +918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -929,7 +929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>5</v>
       </c>
@@ -952,27 +952,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DZ80"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="38" width="8.83203125" style="3"/>
-    <col min="69" max="69" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="38" width="8.85546875" style="3"/>
+    <col min="69" max="69" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>165.25</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <f t="shared" ref="C5" si="2">C4/(318.9+35.16)</f>
         <v>9.8853301700276799E-2</v>
@@ -1477,7 +1477,7 @@
         <v>0.46672880302773551</v>
       </c>
     </row>
-    <row r="6" spans="1:66" s="14" customFormat="1">
+    <row r="6" spans="1:66" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>62</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>1174.1834316511802</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="8" customFormat="1">
+    <row r="7" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>75.152956811589334</v>
       </c>
     </row>
-    <row r="9" spans="1:66" s="6" customFormat="1">
+    <row r="9" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>88243.356727764898</v>
       </c>
     </row>
-    <row r="10" spans="1:66" s="2" customFormat="1">
+    <row r="10" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>13236.50350916473</v>
       </c>
     </row>
-    <row r="11" spans="1:66" s="2" customFormat="1">
+    <row r="11" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>75006.853218600168</v>
       </c>
     </row>
-    <row r="12" spans="1:66" s="2" customFormat="1">
+    <row r="12" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>4448.0278309787163</v>
       </c>
     </row>
-    <row r="13" spans="1:66" s="2" customFormat="1">
+    <row r="13" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>3701.199975445807</v>
       </c>
     </row>
-    <row r="14" spans="1:66" s="2" customFormat="1">
+    <row r="14" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>1682.9039448925687</v>
       </c>
     </row>
-    <row r="15" spans="1:66" s="2" customFormat="1">
+    <row r="15" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>9832.1317513170925</v>
       </c>
     </row>
-    <row r="16" spans="1:66" s="2" customFormat="1">
+    <row r="16" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>65174.721467283074</v>
       </c>
     </row>
-    <row r="17" spans="2:130" s="2" customFormat="1">
+    <row r="17" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>10262.532106105977</v>
       </c>
     </row>
-    <row r="18" spans="2:130" s="2" customFormat="1">
+    <row r="18" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>75437.253573389055</v>
       </c>
     </row>
-    <row r="19" spans="2:130" s="2" customFormat="1">
+    <row r="19" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>18859.313393347264</v>
       </c>
     </row>
-    <row r="20" spans="2:130" s="6" customFormat="1">
+    <row r="20" spans="2:130" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>29737.166630061332</v>
       </c>
     </row>
-    <row r="21" spans="2:130" s="2" customFormat="1">
+    <row r="21" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>1.2860147213459516</v>
       </c>
     </row>
-    <row r="22" spans="2:130" s="2" customFormat="1">
+    <row r="22" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="23" spans="2:130" s="2" customFormat="1">
+    <row r="23" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -4239,7 +4239,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="24" spans="2:130" s="2" customFormat="1">
+    <row r="24" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="2:130" s="2" customFormat="1">
+    <row r="25" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:130">
+    <row r="26" spans="2:130" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>499552.79584967485</v>
       </c>
     </row>
-    <row r="27" spans="2:130">
+    <row r="27" spans="2:130" x14ac:dyDescent="0.2">
       <c r="BP27" s="2" t="s">
         <v>38</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>174.91344392495617</v>
       </c>
     </row>
-    <row r="29" spans="2:130">
+    <row r="29" spans="2:130" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="2:130" s="8" customFormat="1">
+    <row r="30" spans="2:130" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>60</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:130">
+    <row r="31" spans="2:130" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>61</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="BM31" s="15"/>
       <c r="BN31" s="15"/>
     </row>
-    <row r="32" spans="2:130" s="8" customFormat="1">
+    <row r="32" spans="2:130" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>64</v>
       </c>
@@ -5217,7 +5217,7 @@
       <c r="BM32" s="12"/>
       <c r="BN32" s="12"/>
     </row>
-    <row r="33" spans="2:66">
+    <row r="33" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>65</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="BM33" s="15"/>
       <c r="BN33" s="15"/>
     </row>
-    <row r="34" spans="2:66" s="8" customFormat="1">
+    <row r="34" spans="2:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:66" s="2" customFormat="1">
+    <row r="37" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>569704.54548534064</v>
       </c>
     </row>
-    <row r="38" spans="2:66" s="2" customFormat="1">
+    <row r="38" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>68</v>
       </c>
@@ -5627,7 +5627,7 @@
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
     </row>
-    <row r="39" spans="2:66" s="2" customFormat="1">
+    <row r="39" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>69</v>
       </c>
@@ -5672,7 +5672,7 @@
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
     </row>
-    <row r="40" spans="2:66" s="2" customFormat="1">
+    <row r="40" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>70</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
     </row>
-    <row r="41" spans="2:66" s="2" customFormat="1">
+    <row r="41" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>71</v>
       </c>
@@ -5764,7 +5764,7 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42" spans="2:66" s="2" customFormat="1">
+    <row r="42" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -5809,7 +5809,7 @@
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
     </row>
-    <row r="43" spans="2:66" s="2" customFormat="1">
+    <row r="43" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>73</v>
       </c>
@@ -5856,7 +5856,7 @@
       <c r="AK43" s="5"/>
       <c r="AL43" s="5"/>
     </row>
-    <row r="44" spans="2:66" s="2" customFormat="1">
+    <row r="44" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -5894,7 +5894,7 @@
       <c r="AK44" s="5"/>
       <c r="AL44" s="5"/>
     </row>
-    <row r="45" spans="2:66" s="2" customFormat="1">
+    <row r="45" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>74</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="AK45" s="5"/>
       <c r="AL45" s="5"/>
     </row>
-    <row r="46" spans="2:66" s="2" customFormat="1">
+    <row r="46" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>75</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="AK46" s="5"/>
       <c r="AL46" s="5"/>
     </row>
-    <row r="47" spans="2:66" s="2" customFormat="1">
+    <row r="47" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>76</v>
       </c>
@@ -6029,7 +6029,7 @@
       <c r="AK47" s="5"/>
       <c r="AL47" s="5"/>
     </row>
-    <row r="48" spans="2:66" s="2" customFormat="1">
+    <row r="48" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>77</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="AK48" s="5"/>
       <c r="AL48" s="5"/>
     </row>
-    <row r="49" spans="2:38" s="2" customFormat="1">
+    <row r="49" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>78</v>
       </c>
@@ -6120,7 +6120,7 @@
       <c r="AK49" s="5"/>
       <c r="AL49" s="5"/>
     </row>
-    <row r="50" spans="2:38" s="2" customFormat="1">
+    <row r="50" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>79</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="AK50" s="5"/>
       <c r="AL50" s="5"/>
     </row>
-    <row r="51" spans="2:38" s="2" customFormat="1">
+    <row r="51" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>80</v>
       </c>
@@ -6210,7 +6210,7 @@
       <c r="AK51" s="5"/>
       <c r="AL51" s="5"/>
     </row>
-    <row r="52" spans="2:38" s="2" customFormat="1">
+    <row r="52" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>81</v>
       </c>
@@ -6257,7 +6257,7 @@
       <c r="AK52" s="5"/>
       <c r="AL52" s="5"/>
     </row>
-    <row r="55" spans="2:38">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>88</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="56" spans="2:38">
+    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>89</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="57" spans="2:38">
+    <row r="57" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>91</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="58" spans="2:38">
+    <row r="58" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>92</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="59" spans="2:38">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>93</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="60" spans="2:38">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>94</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="61" spans="2:38">
+    <row r="61" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>95</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>-494</v>
       </c>
     </row>
-    <row r="62" spans="2:38">
+    <row r="62" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>95</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:38">
+    <row r="63" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>96</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="2:38">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>97</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="66" spans="2:38" s="2" customFormat="1">
+    <row r="66" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>90</v>
       </c>
@@ -6384,7 +6384,7 @@
       <c r="AK66" s="5"/>
       <c r="AL66" s="5"/>
     </row>
-    <row r="67" spans="2:38" s="2" customFormat="1">
+    <row r="67" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>98</v>
       </c>
@@ -6428,7 +6428,7 @@
       <c r="AK67" s="5"/>
       <c r="AL67" s="5"/>
     </row>
-    <row r="68" spans="2:38" s="2" customFormat="1">
+    <row r="68" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>99</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="AK68" s="5"/>
       <c r="AL68" s="5"/>
     </row>
-    <row r="69" spans="2:38" s="2" customFormat="1">
+    <row r="69" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>100</v>
       </c>
@@ -6514,7 +6514,7 @@
       <c r="AK69" s="5"/>
       <c r="AL69" s="5"/>
     </row>
-    <row r="70" spans="2:38" s="2" customFormat="1">
+    <row r="70" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>101</v>
       </c>
@@ -6558,7 +6558,7 @@
       <c r="AK70" s="5"/>
       <c r="AL70" s="5"/>
     </row>
-    <row r="72" spans="2:38">
+    <row r="72" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>103</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>-312</v>
       </c>
     </row>
-    <row r="73" spans="2:38">
+    <row r="73" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="74" spans="2:38">
+    <row r="74" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>95</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:38">
+    <row r="75" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>102</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="2:38">
+    <row r="77" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>105</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="78" spans="2:38">
+    <row r="78" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>104</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="79" spans="2:38">
+    <row r="79" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>106</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="80" spans="2:38">
+    <row r="80" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>107</v>
       </c>

--- a/investing spreadsheets/FB.xlsx
+++ b/investing spreadsheets/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16725" yWindow="-15" windowWidth="16800" windowHeight="20535" activeTab="1"/>
+    <workbookView xWindow="16720" yWindow="-20" windowWidth="16800" windowHeight="20540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,8 +22,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Editor 1</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>daily active uers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Editor 1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+average revenue per user</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>Price</t>
   </si>
@@ -353,13 +401,19 @@
   </si>
   <si>
     <t>Livestreaming</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>Current</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -388,6 +442,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -406,11 +485,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -452,8 +553,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="24">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -474,16 +598,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>39370</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>39370</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -492,8 +616,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19078575" y="95250"/>
-          <a:ext cx="0" cy="13877925"/>
+          <a:off x="21741130" y="0"/>
+          <a:ext cx="0" cy="12459335"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -526,7 +650,7 @@
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -852,7 +976,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -862,13 +986,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14">
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -879,7 +1003,7 @@
         <v>42640</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>108</v>
       </c>
@@ -893,7 +1017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>109</v>
       </c>
@@ -906,7 +1030,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -918,7 +1042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -929,7 +1053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14">
       <c r="K7" t="s">
         <v>5</v>
       </c>
@@ -949,30 +1073,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT9" sqref="AT9"/>
+      <selection pane="bottomRight" activeCell="BQ23" sqref="BQ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="38" width="8.85546875" style="3"/>
-    <col min="69" max="69" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="38" width="8.83203125" style="3"/>
+    <col min="69" max="69" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" ht="13">
       <c r="A1" s="18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="W1" s="21">
+        <v>41729</v>
+      </c>
+      <c r="X1" s="21">
+        <v>41820</v>
+      </c>
+      <c r="Y1" s="21">
+        <v>41912</v>
+      </c>
+      <c r="Z1" s="21">
+        <v>42004</v>
+      </c>
+      <c r="AA1" s="21">
+        <v>42094</v>
+      </c>
+      <c r="AB1" s="21">
+        <v>42185</v>
+      </c>
+      <c r="AC1" s="21">
+        <v>42277</v>
+      </c>
+      <c r="AD1" s="21">
+        <v>42369</v>
+      </c>
+      <c r="AE1" s="21">
+        <v>42460</v>
+      </c>
+      <c r="AF1" s="21">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66">
       <c r="C2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1189,7 +1343,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -1218,7 +1372,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66">
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -1335,7 +1489,7 @@
         <v>165.25</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66">
       <c r="C5" s="4">
         <f t="shared" ref="C5" si="2">C4/(318.9+35.16)</f>
         <v>9.8853301700276799E-2</v>
@@ -1477,7 +1631,7 @@
         <v>0.46672880302773551</v>
       </c>
     </row>
-    <row r="6" spans="1:66" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" s="14" customFormat="1">
       <c r="B6" s="14" t="s">
         <v>62</v>
       </c>
@@ -1570,98 +1724,100 @@
         <v>1090</v>
       </c>
       <c r="AF6" s="11">
-        <f t="shared" ref="AF6:AH6" si="11">+AE6*1.01</f>
-        <v>1100.9000000000001</v>
+        <v>1130</v>
       </c>
       <c r="AG6" s="11">
-        <f t="shared" si="11"/>
-        <v>1111.9090000000001</v>
+        <f t="shared" ref="AG6:AH6" si="11">+AF6*1.01</f>
+        <v>1141.3</v>
       </c>
       <c r="AH6" s="11">
         <f t="shared" si="11"/>
-        <v>1123.02809</v>
+        <v>1152.713</v>
       </c>
       <c r="AI6" s="11">
         <f t="shared" ref="AI6" si="12">+AH6*1.01</f>
-        <v>1134.2583709</v>
+        <v>1164.2401299999999</v>
       </c>
       <c r="AJ6" s="11">
         <f t="shared" ref="AJ6" si="13">+AI6*1.01</f>
-        <v>1145.6009546090002</v>
+        <v>1175.8825313</v>
       </c>
       <c r="AK6" s="11">
         <f t="shared" ref="AK6" si="14">+AJ6*1.01</f>
-        <v>1157.0569641550901</v>
+        <v>1187.641356613</v>
       </c>
       <c r="AL6" s="11">
         <f t="shared" ref="AL6" si="15">+AK6*1.01</f>
-        <v>1168.627533796641</v>
+        <v>1199.5177701791299</v>
+      </c>
+      <c r="AX6" s="11">
+        <v>889</v>
       </c>
       <c r="AY6" s="14">
         <v>1040</v>
       </c>
       <c r="AZ6" s="14">
         <f>AVERAGE(AE6:AH6)</f>
-        <v>1106.4592725</v>
+        <v>1128.50325</v>
       </c>
       <c r="BA6" s="14">
         <f>+AZ6*1.02</f>
-        <v>1128.58845795</v>
+        <v>1151.0733150000001</v>
       </c>
       <c r="BB6" s="14">
         <f t="shared" ref="BB6:BC6" si="16">+BA6*1.02</f>
-        <v>1151.1602271090001</v>
+        <v>1174.0947813</v>
       </c>
       <c r="BC6" s="14">
         <f t="shared" si="16"/>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BD6" s="14">
         <f>+BC6</f>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BE6" s="14">
         <f t="shared" ref="BE6:BN6" si="17">+BD6</f>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BF6" s="14">
         <f t="shared" si="17"/>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BG6" s="14">
         <f t="shared" si="17"/>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BH6" s="14">
         <f t="shared" si="17"/>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BI6" s="14">
         <f t="shared" si="17"/>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BJ6" s="14">
         <f t="shared" si="17"/>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BK6" s="14">
         <f t="shared" si="17"/>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BL6" s="14">
         <f t="shared" si="17"/>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BM6" s="14">
         <f t="shared" si="17"/>
-        <v>1174.1834316511802</v>
+        <v>1197.5766769260001</v>
       </c>
       <c r="BN6" s="14">
         <f t="shared" si="17"/>
-        <v>1174.1834316511802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1197.5766769260001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" s="8" customFormat="1">
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
@@ -1722,8 +1878,8 @@
         <v>19.750458715596331</v>
       </c>
       <c r="AF7" s="13">
-        <f>+AB7*1.3</f>
-        <v>21.713223140495867</v>
+        <f>AF9/AF6*4</f>
+        <v>22.782300884955752</v>
       </c>
       <c r="AG7" s="13">
         <f t="shared" ref="AG7:AL7" si="19">+AC7*1.3</f>
@@ -1739,7 +1895,7 @@
       </c>
       <c r="AJ7" s="13">
         <f t="shared" si="19"/>
-        <v>28.227190082644629</v>
+        <v>29.61699115044248</v>
       </c>
       <c r="AK7" s="13">
         <f t="shared" si="19"/>
@@ -1749,6 +1905,10 @@
         <f t="shared" si="19"/>
         <v>37.966499999999996</v>
       </c>
+      <c r="AX7" s="13">
+        <f>Z7</f>
+        <v>17.329499999999999</v>
+      </c>
       <c r="AY7" s="16">
         <f>+AD7</f>
         <v>22.465384615384615</v>
@@ -1814,7 +1974,7 @@
         <v>75.152956811589334</v>
       </c>
     </row>
-    <row r="9" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" s="6" customFormat="1">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1866,32 +2026,31 @@
         <v>5382</v>
       </c>
       <c r="AF9" s="7">
-        <f t="shared" ref="AF9:AL9" si="21">+AF7*AF6/4</f>
-        <v>5976.0218388429757</v>
+        <v>6436</v>
       </c>
       <c r="AG9" s="7">
-        <f t="shared" si="21"/>
-        <v>6460.886923237339</v>
+        <f t="shared" ref="AG9:AL9" si="21">+AG7*AG6/4</f>
+        <v>6631.6670208540218</v>
       </c>
       <c r="AH9" s="7">
         <f t="shared" si="21"/>
-        <v>8199.5088421125001</v>
+        <v>8416.2457912499995</v>
       </c>
       <c r="AI9" s="7">
         <f t="shared" si="21"/>
-        <v>7280.6900163660002</v>
+        <v>7473.1399023467884</v>
       </c>
       <c r="AJ9" s="7">
         <f t="shared" si="21"/>
-        <v>8084.2739761518469</v>
+        <v>8706.525630868</v>
       </c>
       <c r="AK9" s="7">
         <f t="shared" si="21"/>
-        <v>8740.1922926205389</v>
+        <v>8971.2210833510835</v>
       </c>
       <c r="AL9" s="7">
         <f t="shared" si="21"/>
-        <v>11092.174315472543</v>
+        <v>11385.372855376483</v>
       </c>
       <c r="AT9" s="6">
         <v>1974</v>
@@ -1913,66 +2072,66 @@
       </c>
       <c r="AZ9" s="6">
         <f>SUM(AE9:AH9)</f>
-        <v>26018.417604192815</v>
+        <v>26865.912812104023</v>
       </c>
       <c r="BA9" s="6">
         <f t="shared" ref="BA9:BN9" si="22">+BA7*BA6</f>
-        <v>36256.468505872726</v>
+        <v>36978.805781032504</v>
       </c>
       <c r="BB9" s="6">
         <f t="shared" si="22"/>
-        <v>48076.077238787242</v>
+        <v>49033.896465649101</v>
       </c>
       <c r="BC9" s="6">
         <f t="shared" si="22"/>
-        <v>63748.878418631888</v>
+        <v>65018.946713450707</v>
       </c>
       <c r="BD9" s="6">
         <f t="shared" si="22"/>
-        <v>65661.344771190837</v>
+        <v>66969.515114854235</v>
       </c>
       <c r="BE9" s="6">
         <f t="shared" si="22"/>
-        <v>67631.185114326567</v>
+        <v>68978.600568299866</v>
       </c>
       <c r="BF9" s="6">
         <f t="shared" si="22"/>
-        <v>69660.120667756375</v>
+        <v>71047.958585348853</v>
       </c>
       <c r="BG9" s="6">
         <f t="shared" si="22"/>
-        <v>71749.924287789065</v>
+        <v>73179.397342909331</v>
       </c>
       <c r="BH9" s="6">
         <f t="shared" si="22"/>
-        <v>73902.42201642273</v>
+        <v>75374.7792631966</v>
       </c>
       <c r="BI9" s="6">
         <f t="shared" si="22"/>
-        <v>76119.494676915419</v>
+        <v>77636.02264109251</v>
       </c>
       <c r="BJ9" s="6">
         <f t="shared" si="22"/>
-        <v>78403.079517222868</v>
+        <v>79965.103320325274</v>
       </c>
       <c r="BK9" s="6">
         <f t="shared" si="22"/>
-        <v>80755.171902739559</v>
+        <v>82364.056419935034</v>
       </c>
       <c r="BL9" s="6">
         <f t="shared" si="22"/>
-        <v>83177.82705982175</v>
+        <v>84834.978112533092</v>
       </c>
       <c r="BM9" s="6">
         <f t="shared" si="22"/>
-        <v>85673.161871616408</v>
+        <v>87380.02745590909</v>
       </c>
       <c r="BN9" s="6">
         <f t="shared" si="22"/>
-        <v>88243.356727764898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>90001.428279586355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" s="2" customFormat="1">
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2029,32 +2188,31 @@
         <v>838</v>
       </c>
       <c r="AF10" s="5">
-        <f t="shared" ref="AF10" si="23">+AF9-AF11</f>
-        <v>836.64305743801651</v>
+        <v>916</v>
       </c>
       <c r="AG10" s="5">
-        <f t="shared" ref="AG10:AL10" si="24">+AG9-AG11</f>
-        <v>904.52416925322723</v>
+        <f t="shared" ref="AG10:AL10" si="23">+AG9-AG11</f>
+        <v>928.43338291956297</v>
       </c>
       <c r="AH10" s="5">
-        <f t="shared" si="24"/>
-        <v>1147.9312378957502</v>
+        <f t="shared" si="23"/>
+        <v>1178.2744107750004</v>
       </c>
       <c r="AI10" s="5">
-        <f t="shared" si="24"/>
-        <v>1019.2966022912406</v>
+        <f t="shared" si="23"/>
+        <v>1046.2395863285501</v>
       </c>
       <c r="AJ10" s="5">
-        <f t="shared" si="24"/>
-        <v>1131.7983566612584</v>
+        <f t="shared" si="23"/>
+        <v>1218.9135883215204</v>
       </c>
       <c r="AK10" s="5">
-        <f t="shared" si="24"/>
-        <v>1223.6269209668753</v>
+        <f t="shared" si="23"/>
+        <v>1255.9709516691519</v>
       </c>
       <c r="AL10" s="5">
-        <f t="shared" si="24"/>
-        <v>1552.9044041661564</v>
+        <f t="shared" si="23"/>
+        <v>1593.9521997527081</v>
       </c>
       <c r="AT10" s="2">
         <v>493</v>
@@ -2076,66 +2234,66 @@
       </c>
       <c r="AZ10" s="2">
         <f>SUM(AE10:AH10)</f>
-        <v>3727.0984645869939</v>
+        <v>3860.7077936945634</v>
       </c>
       <c r="BA10" s="2">
         <f>BA9-BA11</f>
-        <v>5438.4702758809108</v>
+        <v>5546.8208671548782</v>
       </c>
       <c r="BB10" s="2">
-        <f t="shared" ref="BB10:BC10" si="25">BB9-BB11</f>
-        <v>7211.4115858180885</v>
+        <f t="shared" ref="BB10:BC10" si="24">BB9-BB11</f>
+        <v>7355.0844698473666</v>
       </c>
       <c r="BC10" s="2">
-        <f t="shared" si="25"/>
-        <v>9562.3317627947836</v>
+        <f t="shared" si="24"/>
+        <v>9752.8420070176071</v>
       </c>
       <c r="BD10" s="2">
-        <f t="shared" ref="BD10" si="26">BD9-BD11</f>
-        <v>9849.2017156786242</v>
+        <f t="shared" ref="BD10" si="25">BD9-BD11</f>
+        <v>10045.427267228137</v>
       </c>
       <c r="BE10" s="2">
-        <f t="shared" ref="BE10" si="27">BE9-BE11</f>
-        <v>10144.677767148984</v>
+        <f t="shared" ref="BE10" si="26">BE9-BE11</f>
+        <v>10346.790085244982</v>
       </c>
       <c r="BF10" s="2">
-        <f t="shared" ref="BF10" si="28">BF9-BF11</f>
-        <v>10449.018100163456</v>
+        <f t="shared" ref="BF10" si="27">BF9-BF11</f>
+        <v>10657.193787802331</v>
       </c>
       <c r="BG10" s="2">
-        <f t="shared" ref="BG10" si="29">BG9-BG11</f>
-        <v>10762.488643168363</v>
+        <f t="shared" ref="BG10" si="28">BG9-BG11</f>
+        <v>10976.909601436404</v>
       </c>
       <c r="BH10" s="2">
-        <f t="shared" ref="BH10" si="30">BH9-BH11</f>
-        <v>11085.363302463411</v>
+        <f t="shared" ref="BH10" si="29">BH9-BH11</f>
+        <v>11306.216889479489</v>
       </c>
       <c r="BI10" s="2">
-        <f t="shared" ref="BI10" si="31">BI9-BI11</f>
-        <v>11417.924201537317</v>
+        <f t="shared" ref="BI10" si="30">BI9-BI11</f>
+        <v>11645.403396163878</v>
       </c>
       <c r="BJ10" s="2">
-        <f t="shared" ref="BJ10" si="32">BJ9-BJ11</f>
-        <v>11760.461927583427</v>
+        <f t="shared" ref="BJ10" si="31">BJ9-BJ11</f>
+        <v>11994.765498048786</v>
       </c>
       <c r="BK10" s="2">
-        <f t="shared" ref="BK10" si="33">BK9-BK11</f>
-        <v>12113.275785410937</v>
+        <f t="shared" ref="BK10" si="32">BK9-BK11</f>
+        <v>12354.608462990262</v>
       </c>
       <c r="BL10" s="2">
-        <f t="shared" ref="BL10" si="34">BL9-BL11</f>
-        <v>12476.674058973265</v>
+        <f t="shared" ref="BL10" si="33">BL9-BL11</f>
+        <v>12725.246716879963</v>
       </c>
       <c r="BM10" s="2">
-        <f t="shared" ref="BM10" si="35">BM9-BM11</f>
-        <v>12850.974280742463</v>
+        <f t="shared" ref="BM10" si="34">BM9-BM11</f>
+        <v>13107.004118386365</v>
       </c>
       <c r="BN10" s="2">
-        <f t="shared" ref="BN10" si="36">BN9-BN11</f>
-        <v>13236.50350916473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BN10" si="35">BN9-BN11</f>
+        <v>13500.214241937952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" s="2" customFormat="1">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2160,35 +2318,35 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5">
-        <f t="shared" ref="W11:AD11" si="37">+W9-W10</f>
+        <f t="shared" ref="W11:AD11" si="36">+W9-W10</f>
         <v>2040</v>
       </c>
       <c r="X11" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2453</v>
       </c>
       <c r="Y11" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2638</v>
       </c>
       <c r="Z11" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>3216</v>
       </c>
       <c r="AA11" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2889</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>3395</v>
       </c>
       <c r="AC11" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>3802</v>
       </c>
       <c r="AD11" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>5039</v>
       </c>
       <c r="AE11" s="5">
@@ -2196,119 +2354,119 @@
         <v>4544</v>
       </c>
       <c r="AF11" s="5">
-        <f t="shared" ref="AF11" si="38">+AF9*0.86</f>
-        <v>5139.3787814049592</v>
+        <f>+AF9-AF10</f>
+        <v>5520</v>
       </c>
       <c r="AG11" s="5">
-        <f t="shared" ref="AG11:AL11" si="39">+AG9*0.86</f>
-        <v>5556.3627539841118</v>
+        <f t="shared" ref="AG11:AL11" si="37">+AG9*0.86</f>
+        <v>5703.2336379344588</v>
       </c>
       <c r="AH11" s="5">
-        <f t="shared" si="39"/>
-        <v>7051.5776042167499</v>
+        <f t="shared" si="37"/>
+        <v>7237.971380474999</v>
       </c>
       <c r="AI11" s="5">
-        <f t="shared" si="39"/>
-        <v>6261.3934140747597</v>
+        <f t="shared" si="37"/>
+        <v>6426.9003160182383</v>
       </c>
       <c r="AJ11" s="5">
-        <f t="shared" si="39"/>
-        <v>6952.4756194905885</v>
+        <f t="shared" si="37"/>
+        <v>7487.6120425464796</v>
       </c>
       <c r="AK11" s="5">
-        <f t="shared" si="39"/>
-        <v>7516.5653716536635</v>
+        <f t="shared" si="37"/>
+        <v>7715.2501316819316</v>
       </c>
       <c r="AL11" s="5">
-        <f t="shared" si="39"/>
-        <v>9539.2699113063863</v>
+        <f t="shared" si="37"/>
+        <v>9791.420655623775</v>
       </c>
       <c r="AT11" s="2">
-        <f t="shared" ref="AT11:AY11" si="40">+AT9-AT10</f>
+        <f t="shared" ref="AT11:AY11" si="38">+AT9-AT10</f>
         <v>1481</v>
       </c>
       <c r="AU11" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>2851</v>
       </c>
       <c r="AV11" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>3725</v>
       </c>
       <c r="AW11" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>5997</v>
       </c>
       <c r="AX11" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>10313</v>
       </c>
       <c r="AY11" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>15061</v>
       </c>
       <c r="AZ11" s="2">
         <f>AZ9-AZ10</f>
-        <v>22291.319139605821</v>
+        <v>23005.205018409459</v>
       </c>
       <c r="BA11" s="2">
         <f>BA9*0.85</f>
-        <v>30817.998229991816</v>
+        <v>31431.984913877626</v>
       </c>
       <c r="BB11" s="2">
-        <f t="shared" ref="BB11:BC11" si="41">BB9*0.85</f>
-        <v>40864.665652969154</v>
+        <f t="shared" ref="BB11:BC11" si="39">BB9*0.85</f>
+        <v>41678.811995801734</v>
       </c>
       <c r="BC11" s="2">
-        <f t="shared" si="41"/>
-        <v>54186.546655837104</v>
+        <f t="shared" si="39"/>
+        <v>55266.1047064331</v>
       </c>
       <c r="BD11" s="2">
-        <f t="shared" ref="BD11:BN11" si="42">BD9*0.85</f>
-        <v>55812.143055512213</v>
+        <f t="shared" ref="BD11:BN11" si="40">BD9*0.85</f>
+        <v>56924.087847626099</v>
       </c>
       <c r="BE11" s="2">
-        <f t="shared" si="42"/>
-        <v>57486.507347177583</v>
+        <f t="shared" si="40"/>
+        <v>58631.810483054884</v>
       </c>
       <c r="BF11" s="2">
-        <f t="shared" si="42"/>
-        <v>59211.10256759292</v>
+        <f t="shared" si="40"/>
+        <v>60390.764797546522</v>
       </c>
       <c r="BG11" s="2">
-        <f t="shared" si="42"/>
-        <v>60987.435644620702</v>
+        <f t="shared" si="40"/>
+        <v>62202.487741472927</v>
       </c>
       <c r="BH11" s="2">
-        <f t="shared" si="42"/>
-        <v>62817.058713959319</v>
+        <f t="shared" si="40"/>
+        <v>64068.562373717112</v>
       </c>
       <c r="BI11" s="2">
-        <f t="shared" si="42"/>
-        <v>64701.570475378103</v>
+        <f t="shared" si="40"/>
+        <v>65990.619244928632</v>
       </c>
       <c r="BJ11" s="2">
-        <f t="shared" si="42"/>
-        <v>66642.617589639442</v>
+        <f t="shared" si="40"/>
+        <v>67970.337822276488</v>
       </c>
       <c r="BK11" s="2">
-        <f t="shared" si="42"/>
-        <v>68641.896117328622</v>
+        <f t="shared" si="40"/>
+        <v>70009.447956944772</v>
       </c>
       <c r="BL11" s="2">
-        <f t="shared" si="42"/>
-        <v>70701.153000848484</v>
+        <f t="shared" si="40"/>
+        <v>72109.731395653129</v>
       </c>
       <c r="BM11" s="2">
-        <f t="shared" si="42"/>
-        <v>72822.187590873946</v>
+        <f t="shared" si="40"/>
+        <v>74273.023337522725</v>
       </c>
       <c r="BN11" s="2">
-        <f t="shared" si="42"/>
-        <v>75006.853218600168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="40"/>
+        <v>76501.214037648402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" s="2" customFormat="1">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2366,31 +2524,30 @@
         <v>1343</v>
       </c>
       <c r="AF12" s="5">
-        <f t="shared" ref="AF12:AF14" si="43">+AB12*1.35</f>
-        <v>765.45</v>
+        <v>1463</v>
       </c>
       <c r="AG12" s="5">
-        <f t="shared" ref="AG12:AG14" si="44">+AC12*1.35</f>
+        <f t="shared" ref="AG12:AG14" si="41">+AC12*1.35</f>
         <v>908.55000000000007</v>
       </c>
       <c r="AH12" s="5">
-        <f t="shared" ref="AH12:AH14" si="45">+AD12*1.35</f>
+        <f t="shared" ref="AH12:AH14" si="42">+AD12*1.35</f>
         <v>986.85</v>
       </c>
       <c r="AI12" s="5">
-        <f t="shared" ref="AI12:AI14" si="46">+AE12*1.35</f>
+        <f t="shared" ref="AI12:AI14" si="43">+AE12*1.35</f>
         <v>1813.0500000000002</v>
       </c>
       <c r="AJ12" s="5">
-        <f t="shared" ref="AJ12:AJ14" si="47">+AF12*1.35</f>
-        <v>1033.3575000000001</v>
+        <f t="shared" ref="AJ12:AJ14" si="44">+AF12*1.35</f>
+        <v>1975.0500000000002</v>
       </c>
       <c r="AK12" s="5">
-        <f t="shared" ref="AK12:AK14" si="48">+AG12*1.35</f>
+        <f t="shared" ref="AK12:AK14" si="45">+AG12*1.35</f>
         <v>1226.5425000000002</v>
       </c>
       <c r="AL12" s="5">
-        <f t="shared" ref="AL12:AL14" si="49">+AH12*1.35</f>
+        <f t="shared" ref="AL12:AL14" si="46">+AH12*1.35</f>
         <v>1332.2475000000002</v>
       </c>
       <c r="AT12" s="2">
@@ -2413,66 +2570,66 @@
       </c>
       <c r="AZ12" s="2">
         <f>SUM(AE12:AH12)</f>
-        <v>4003.85</v>
+        <v>4701.4000000000005</v>
       </c>
       <c r="BA12" s="2">
         <f>+AZ12*1.25</f>
-        <v>5004.8125</v>
+        <v>5876.7500000000009</v>
       </c>
       <c r="BB12" s="2">
-        <f t="shared" ref="BB12:BC12" si="50">+BA12*1.25</f>
-        <v>6256.015625</v>
+        <f t="shared" ref="BB12:BC12" si="47">+BA12*1.25</f>
+        <v>7345.9375000000009</v>
       </c>
       <c r="BC12" s="2">
-        <f t="shared" si="50"/>
-        <v>7820.01953125</v>
+        <f t="shared" si="47"/>
+        <v>9182.4218750000018</v>
       </c>
       <c r="BD12" s="2">
         <f>BC12*0.95</f>
-        <v>7429.0185546875</v>
+        <v>8723.3007812500018</v>
       </c>
       <c r="BE12" s="2">
-        <f t="shared" ref="BE12:BN12" si="51">BD12*0.95</f>
-        <v>7057.567626953125</v>
+        <f t="shared" ref="BE12:BN12" si="48">BD12*0.95</f>
+        <v>8287.1357421875018</v>
       </c>
       <c r="BF12" s="2">
-        <f t="shared" si="51"/>
-        <v>6704.6892456054684</v>
+        <f t="shared" si="48"/>
+        <v>7872.7789550781263</v>
       </c>
       <c r="BG12" s="2">
-        <f t="shared" si="51"/>
-        <v>6369.4547833251945</v>
+        <f t="shared" si="48"/>
+        <v>7479.1400073242194</v>
       </c>
       <c r="BH12" s="2">
-        <f t="shared" si="51"/>
-        <v>6050.9820441589345</v>
+        <f t="shared" si="48"/>
+        <v>7105.1830069580083</v>
       </c>
       <c r="BI12" s="2">
-        <f t="shared" si="51"/>
-        <v>5748.4329419509877</v>
+        <f t="shared" si="48"/>
+        <v>6749.9238566101076</v>
       </c>
       <c r="BJ12" s="2">
-        <f t="shared" si="51"/>
-        <v>5461.0112948534379</v>
+        <f t="shared" si="48"/>
+        <v>6412.427663779602</v>
       </c>
       <c r="BK12" s="2">
-        <f t="shared" si="51"/>
-        <v>5187.9607301107653</v>
+        <f t="shared" si="48"/>
+        <v>6091.806280590622</v>
       </c>
       <c r="BL12" s="2">
-        <f t="shared" si="51"/>
-        <v>4928.5626936052267</v>
+        <f t="shared" si="48"/>
+        <v>5787.2159665610907</v>
       </c>
       <c r="BM12" s="2">
-        <f t="shared" si="51"/>
-        <v>4682.1345589249649</v>
+        <f t="shared" si="48"/>
+        <v>5497.8551682330362</v>
       </c>
       <c r="BN12" s="2">
-        <f t="shared" si="51"/>
-        <v>4448.0278309787163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="48"/>
+        <v>5222.9624098213844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" s="2" customFormat="1">
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
@@ -2529,31 +2686,30 @@
         <v>826</v>
       </c>
       <c r="AF13" s="5">
+        <v>899</v>
+      </c>
+      <c r="AG13" s="5">
+        <f t="shared" si="41"/>
+        <v>842.40000000000009</v>
+      </c>
+      <c r="AH13" s="5">
+        <f t="shared" si="42"/>
+        <v>928.80000000000007</v>
+      </c>
+      <c r="AI13" s="5">
         <f t="shared" si="43"/>
-        <v>734.40000000000009</v>
-      </c>
-      <c r="AG13" s="5">
+        <v>1115.1000000000001</v>
+      </c>
+      <c r="AJ13" s="5">
         <f t="shared" si="44"/>
-        <v>842.40000000000009</v>
-      </c>
-      <c r="AH13" s="5">
+        <v>1213.6500000000001</v>
+      </c>
+      <c r="AK13" s="5">
         <f t="shared" si="45"/>
-        <v>928.80000000000007</v>
-      </c>
-      <c r="AI13" s="5">
+        <v>1137.2400000000002</v>
+      </c>
+      <c r="AL13" s="5">
         <f t="shared" si="46"/>
-        <v>1115.1000000000001</v>
-      </c>
-      <c r="AJ13" s="5">
-        <f t="shared" si="47"/>
-        <v>991.44000000000017</v>
-      </c>
-      <c r="AK13" s="5">
-        <f t="shared" si="48"/>
-        <v>1137.2400000000002</v>
-      </c>
-      <c r="AL13" s="5">
-        <f t="shared" si="49"/>
         <v>1253.8800000000001</v>
       </c>
       <c r="AT13" s="2">
@@ -2576,66 +2732,66 @@
       </c>
       <c r="AZ13" s="2">
         <f>SUM(AE13:AH13)</f>
-        <v>3331.6000000000004</v>
+        <v>3496.2000000000003</v>
       </c>
       <c r="BA13" s="2">
-        <f t="shared" ref="BA13:BB13" si="52">+AZ13*1.25</f>
-        <v>4164.5</v>
+        <f t="shared" ref="BA13:BB13" si="49">+AZ13*1.25</f>
+        <v>4370.25</v>
       </c>
       <c r="BB13" s="2">
-        <f t="shared" si="52"/>
-        <v>5205.625</v>
+        <f t="shared" si="49"/>
+        <v>5462.8125</v>
       </c>
       <c r="BC13" s="2">
         <f>+BB13*1.25</f>
-        <v>6507.03125</v>
+        <v>6828.515625</v>
       </c>
       <c r="BD13" s="2">
         <f>BC13*0.95</f>
-        <v>6181.6796875</v>
+        <v>6487.08984375</v>
       </c>
       <c r="BE13" s="2">
-        <f t="shared" ref="BE13:BN13" si="53">BD13*0.95</f>
-        <v>5872.595703125</v>
+        <f t="shared" ref="BE13:BN13" si="50">BD13*0.95</f>
+        <v>6162.7353515625</v>
       </c>
       <c r="BF13" s="2">
-        <f t="shared" si="53"/>
-        <v>5578.9659179687496</v>
+        <f t="shared" si="50"/>
+        <v>5854.5985839843743</v>
       </c>
       <c r="BG13" s="2">
-        <f t="shared" si="53"/>
-        <v>5300.0176220703115</v>
+        <f t="shared" si="50"/>
+        <v>5561.8686547851557</v>
       </c>
       <c r="BH13" s="2">
-        <f t="shared" si="53"/>
-        <v>5035.0167409667956</v>
+        <f t="shared" si="50"/>
+        <v>5283.7752220458979</v>
       </c>
       <c r="BI13" s="2">
-        <f t="shared" si="53"/>
-        <v>4783.2659039184555</v>
+        <f t="shared" si="50"/>
+        <v>5019.586460943603</v>
       </c>
       <c r="BJ13" s="2">
-        <f t="shared" si="53"/>
-        <v>4544.1026087225328</v>
+        <f t="shared" si="50"/>
+        <v>4768.6071378964225</v>
       </c>
       <c r="BK13" s="2">
-        <f t="shared" si="53"/>
-        <v>4316.8974782864061</v>
+        <f t="shared" si="50"/>
+        <v>4530.1767810016008</v>
       </c>
       <c r="BL13" s="2">
-        <f t="shared" si="53"/>
-        <v>4101.0526043720856</v>
+        <f t="shared" si="50"/>
+        <v>4303.6679419515203</v>
       </c>
       <c r="BM13" s="2">
-        <f t="shared" si="53"/>
-        <v>3895.9999741534812</v>
+        <f t="shared" si="50"/>
+        <v>4088.484544853944</v>
       </c>
       <c r="BN13" s="2">
-        <f t="shared" si="53"/>
-        <v>3701.199975445807</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="50"/>
+        <v>3884.0603176112468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" s="2" customFormat="1">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2692,31 +2848,30 @@
         <v>366</v>
       </c>
       <c r="AF14" s="5">
+        <v>412</v>
+      </c>
+      <c r="AG14" s="5">
+        <f t="shared" si="41"/>
+        <v>390.15000000000003</v>
+      </c>
+      <c r="AH14" s="5">
+        <f t="shared" si="42"/>
+        <v>423.90000000000003</v>
+      </c>
+      <c r="AI14" s="5">
         <f t="shared" si="43"/>
-        <v>334.8</v>
-      </c>
-      <c r="AG14" s="5">
+        <v>494.1</v>
+      </c>
+      <c r="AJ14" s="5">
         <f t="shared" si="44"/>
-        <v>390.15000000000003</v>
-      </c>
-      <c r="AH14" s="5">
+        <v>556.20000000000005</v>
+      </c>
+      <c r="AK14" s="5">
         <f t="shared" si="45"/>
-        <v>423.90000000000003</v>
-      </c>
-      <c r="AI14" s="5">
+        <v>526.7025000000001</v>
+      </c>
+      <c r="AL14" s="5">
         <f t="shared" si="46"/>
-        <v>494.1</v>
-      </c>
-      <c r="AJ14" s="5">
-        <f t="shared" si="47"/>
-        <v>451.98</v>
-      </c>
-      <c r="AK14" s="5">
-        <f t="shared" si="48"/>
-        <v>526.7025000000001</v>
-      </c>
-      <c r="AL14" s="5">
-        <f t="shared" si="49"/>
         <v>572.2650000000001</v>
       </c>
       <c r="AT14" s="2">
@@ -2739,66 +2894,66 @@
       </c>
       <c r="AZ14" s="2">
         <f>SUM(AE14:AH14)</f>
-        <v>1514.8500000000001</v>
+        <v>1592.0500000000002</v>
       </c>
       <c r="BA14" s="2">
-        <f t="shared" ref="BA14:BC14" si="54">+AZ14*1.25</f>
-        <v>1893.5625000000002</v>
+        <f t="shared" ref="BA14:BC14" si="51">+AZ14*1.25</f>
+        <v>1990.0625000000002</v>
       </c>
       <c r="BB14" s="2">
-        <f t="shared" si="54"/>
-        <v>2366.9531250000005</v>
+        <f t="shared" si="51"/>
+        <v>2487.5781250000005</v>
       </c>
       <c r="BC14" s="2">
-        <f t="shared" si="54"/>
-        <v>2958.6914062500005</v>
+        <f t="shared" si="51"/>
+        <v>3109.4726562500005</v>
       </c>
       <c r="BD14" s="2">
         <f>BC14*0.95</f>
-        <v>2810.7568359375005</v>
+        <v>2953.9990234375005</v>
       </c>
       <c r="BE14" s="2">
-        <f t="shared" ref="BE14:BN14" si="55">BD14*0.95</f>
-        <v>2670.2189941406255</v>
+        <f t="shared" ref="BE14:BN14" si="52">BD14*0.95</f>
+        <v>2806.2990722656255</v>
       </c>
       <c r="BF14" s="2">
-        <f t="shared" si="55"/>
-        <v>2536.7080444335938</v>
+        <f t="shared" si="52"/>
+        <v>2665.984118652344</v>
       </c>
       <c r="BG14" s="2">
-        <f t="shared" si="55"/>
-        <v>2409.8726422119139</v>
+        <f t="shared" si="52"/>
+        <v>2532.6849127197265</v>
       </c>
       <c r="BH14" s="2">
-        <f t="shared" si="55"/>
-        <v>2289.3790101013183</v>
+        <f t="shared" si="52"/>
+        <v>2406.0506670837399</v>
       </c>
       <c r="BI14" s="2">
-        <f t="shared" si="55"/>
-        <v>2174.9100595962523</v>
+        <f t="shared" si="52"/>
+        <v>2285.7481337295526</v>
       </c>
       <c r="BJ14" s="2">
-        <f t="shared" si="55"/>
-        <v>2066.1645566164398</v>
+        <f t="shared" si="52"/>
+        <v>2171.4607270430747</v>
       </c>
       <c r="BK14" s="2">
-        <f t="shared" si="55"/>
-        <v>1962.8563287856177</v>
+        <f t="shared" si="52"/>
+        <v>2062.8876906909209</v>
       </c>
       <c r="BL14" s="2">
-        <f t="shared" si="55"/>
-        <v>1864.7135123463368</v>
+        <f t="shared" si="52"/>
+        <v>1959.7433061563747</v>
       </c>
       <c r="BM14" s="2">
-        <f t="shared" si="55"/>
-        <v>1771.4778367290198</v>
+        <f t="shared" si="52"/>
+        <v>1861.756140848556</v>
       </c>
       <c r="BN14" s="2">
-        <f t="shared" si="55"/>
-        <v>1682.9039448925687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>1768.6683338061282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" s="2" customFormat="1">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2823,35 +2978,35 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5">
-        <f t="shared" ref="W15:AD15" si="56">SUM(W12:W14)</f>
+        <f t="shared" ref="W15:AD15" si="53">SUM(W12:W14)</f>
         <v>965</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>749</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>1241</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>1380</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>1270</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>1359</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>1586</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>1733</v>
       </c>
       <c r="AE15" s="5">
@@ -2859,119 +3014,119 @@
         <v>2535</v>
       </c>
       <c r="AF15" s="5">
-        <f t="shared" ref="AF15:AH15" si="57">SUM(AF12:AF14)</f>
-        <v>1834.65</v>
+        <f>SUM(AF12:AF14)</f>
+        <v>2774</v>
       </c>
       <c r="AG15" s="5">
+        <f t="shared" ref="AG15:AH15" si="54">SUM(AG12:AG14)</f>
+        <v>2141.1000000000004</v>
+      </c>
+      <c r="AH15" s="5">
+        <f t="shared" si="54"/>
+        <v>2339.5500000000002</v>
+      </c>
+      <c r="AI15" s="5">
+        <f t="shared" ref="AI15:AL15" si="55">SUM(AI12:AI14)</f>
+        <v>3422.2500000000005</v>
+      </c>
+      <c r="AJ15" s="5">
+        <f t="shared" si="55"/>
+        <v>3744.9000000000005</v>
+      </c>
+      <c r="AK15" s="5">
+        <f t="shared" si="55"/>
+        <v>2890.4850000000006</v>
+      </c>
+      <c r="AL15" s="5">
+        <f t="shared" si="55"/>
+        <v>3158.3925000000008</v>
+      </c>
+      <c r="AT15" s="5">
+        <f t="shared" ref="AT15" si="56">SUM(AT12:AT14)</f>
+        <v>449</v>
+      </c>
+      <c r="AU15" s="5">
+        <f t="shared" ref="AU15:AV15" si="57">SUM(AU12:AU14)</f>
+        <v>1095</v>
+      </c>
+      <c r="AV15" s="5">
         <f t="shared" si="57"/>
-        <v>2141.1000000000004</v>
-      </c>
-      <c r="AH15" s="5">
-        <f t="shared" si="57"/>
-        <v>2339.5500000000002</v>
-      </c>
-      <c r="AI15" s="5">
-        <f t="shared" ref="AI15:AL15" si="58">SUM(AI12:AI14)</f>
-        <v>3422.2500000000005</v>
-      </c>
-      <c r="AJ15" s="5">
+        <v>3187</v>
+      </c>
+      <c r="AW15" s="5">
+        <f t="shared" ref="AW15:AX15" si="58">SUM(AW12:AW14)</f>
+        <v>3193</v>
+      </c>
+      <c r="AX15" s="5">
         <f t="shared" si="58"/>
-        <v>2476.7775000000001</v>
-      </c>
-      <c r="AK15" s="5">
-        <f t="shared" si="58"/>
-        <v>2890.4850000000006</v>
-      </c>
-      <c r="AL15" s="5">
-        <f t="shared" si="58"/>
-        <v>3158.3925000000008</v>
-      </c>
-      <c r="AT15" s="5">
-        <f t="shared" ref="AT15" si="59">SUM(AT12:AT14)</f>
-        <v>449</v>
-      </c>
-      <c r="AU15" s="5">
-        <f t="shared" ref="AU15:AV15" si="60">SUM(AU12:AU14)</f>
-        <v>1095</v>
-      </c>
-      <c r="AV15" s="5">
-        <f t="shared" si="60"/>
-        <v>3187</v>
-      </c>
-      <c r="AW15" s="5">
-        <f t="shared" ref="AW15:AX15" si="61">SUM(AW12:AW14)</f>
-        <v>3193</v>
-      </c>
-      <c r="AX15" s="5">
-        <f t="shared" si="61"/>
         <v>5319</v>
       </c>
       <c r="AY15" s="5">
-        <f t="shared" ref="AY15:AZ15" si="62">SUM(AY12:AY14)</f>
+        <f t="shared" ref="AY15:AZ15" si="59">SUM(AY12:AY14)</f>
         <v>8836</v>
       </c>
       <c r="AZ15" s="5">
-        <f t="shared" si="62"/>
-        <v>8850.3000000000011</v>
+        <f t="shared" si="59"/>
+        <v>9789.6500000000015</v>
       </c>
       <c r="BA15" s="5">
-        <f t="shared" ref="BA15" si="63">SUM(BA12:BA14)</f>
-        <v>11062.875</v>
+        <f t="shared" ref="BA15" si="60">SUM(BA12:BA14)</f>
+        <v>12237.0625</v>
       </c>
       <c r="BB15" s="5">
-        <f t="shared" ref="BB15" si="64">SUM(BB12:BB14)</f>
-        <v>13828.59375</v>
+        <f t="shared" ref="BB15" si="61">SUM(BB12:BB14)</f>
+        <v>15296.328125</v>
       </c>
       <c r="BC15" s="5">
-        <f t="shared" ref="BC15" si="65">SUM(BC12:BC14)</f>
-        <v>17285.7421875</v>
+        <f t="shared" ref="BC15" si="62">SUM(BC12:BC14)</f>
+        <v>19120.410156250004</v>
       </c>
       <c r="BD15" s="5">
-        <f t="shared" ref="BD15" si="66">SUM(BD12:BD14)</f>
-        <v>16421.455078125</v>
+        <f t="shared" ref="BD15" si="63">SUM(BD12:BD14)</f>
+        <v>18164.389648437504</v>
       </c>
       <c r="BE15" s="5">
-        <f t="shared" ref="BE15" si="67">SUM(BE12:BE14)</f>
-        <v>15600.38232421875</v>
+        <f t="shared" ref="BE15" si="64">SUM(BE12:BE14)</f>
+        <v>17256.170166015629</v>
       </c>
       <c r="BF15" s="5">
-        <f t="shared" ref="BF15" si="68">SUM(BF12:BF14)</f>
-        <v>14820.363208007811</v>
+        <f t="shared" ref="BF15" si="65">SUM(BF12:BF14)</f>
+        <v>16393.361657714846</v>
       </c>
       <c r="BG15" s="5">
-        <f t="shared" ref="BG15" si="69">SUM(BG12:BG14)</f>
-        <v>14079.345047607421</v>
+        <f t="shared" ref="BG15" si="66">SUM(BG12:BG14)</f>
+        <v>15573.693574829103</v>
       </c>
       <c r="BH15" s="5">
-        <f t="shared" ref="BH15" si="70">SUM(BH12:BH14)</f>
-        <v>13375.377795227048</v>
+        <f t="shared" ref="BH15" si="67">SUM(BH12:BH14)</f>
+        <v>14795.008896087647</v>
       </c>
       <c r="BI15" s="5">
-        <f t="shared" ref="BI15" si="71">SUM(BI12:BI14)</f>
-        <v>12706.608905465695</v>
+        <f t="shared" ref="BI15" si="68">SUM(BI12:BI14)</f>
+        <v>14055.258451283264</v>
       </c>
       <c r="BJ15" s="5">
-        <f t="shared" ref="BJ15" si="72">SUM(BJ12:BJ14)</f>
-        <v>12071.27846019241</v>
+        <f t="shared" ref="BJ15" si="69">SUM(BJ12:BJ14)</f>
+        <v>13352.495528719101</v>
       </c>
       <c r="BK15" s="5">
-        <f t="shared" ref="BK15" si="73">SUM(BK12:BK14)</f>
-        <v>11467.714537182788</v>
+        <f t="shared" ref="BK15" si="70">SUM(BK12:BK14)</f>
+        <v>12684.870752283143</v>
       </c>
       <c r="BL15" s="5">
-        <f t="shared" ref="BL15" si="74">SUM(BL12:BL14)</f>
-        <v>10894.328810323648</v>
+        <f t="shared" ref="BL15" si="71">SUM(BL12:BL14)</f>
+        <v>12050.627214668986</v>
       </c>
       <c r="BM15" s="5">
-        <f t="shared" ref="BM15" si="75">SUM(BM12:BM14)</f>
-        <v>10349.612369807466</v>
+        <f t="shared" ref="BM15" si="72">SUM(BM12:BM14)</f>
+        <v>11448.095853935536</v>
       </c>
       <c r="BN15" s="5">
-        <f t="shared" ref="BN15" si="76">SUM(BN12:BN14)</f>
-        <v>9832.1317513170925</v>
-      </c>
-    </row>
-    <row r="16" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BN15" si="73">SUM(BN12:BN14)</f>
+        <v>10875.69106123876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" s="2" customFormat="1">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2996,35 +3151,35 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5">
-        <f t="shared" ref="W16:AD16" si="77">W11-W15</f>
+        <f t="shared" ref="W16:AD16" si="74">W11-W15</f>
         <v>1075</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>1704</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>1397</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>1836</v>
       </c>
       <c r="AA16" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>1619</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>2036</v>
       </c>
       <c r="AC16" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>2216</v>
       </c>
       <c r="AD16" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>3306</v>
       </c>
       <c r="AE16" s="5">
@@ -3032,119 +3187,119 @@
         <v>2009</v>
       </c>
       <c r="AF16" s="5">
-        <f t="shared" ref="AF16:AH16" si="78">AF11-AF15</f>
-        <v>3304.7287814049591</v>
+        <f>AF11-AF15</f>
+        <v>2746</v>
       </c>
       <c r="AG16" s="5">
+        <f t="shared" ref="AG16:AH16" si="75">AG11-AG15</f>
+        <v>3562.1336379344584</v>
+      </c>
+      <c r="AH16" s="5">
+        <f t="shared" si="75"/>
+        <v>4898.4213804749988</v>
+      </c>
+      <c r="AI16" s="5">
+        <f t="shared" ref="AI16:AL16" si="76">AI11-AI15</f>
+        <v>3004.6503160182378</v>
+      </c>
+      <c r="AJ16" s="5">
+        <f t="shared" si="76"/>
+        <v>3742.7120425464791</v>
+      </c>
+      <c r="AK16" s="5">
+        <f t="shared" si="76"/>
+        <v>4824.7651316819311</v>
+      </c>
+      <c r="AL16" s="5">
+        <f t="shared" si="76"/>
+        <v>6633.0281556237742</v>
+      </c>
+      <c r="AT16" s="5">
+        <f t="shared" ref="AT16" si="77">AT11-AT15</f>
+        <v>1032</v>
+      </c>
+      <c r="AU16" s="5">
+        <f t="shared" ref="AU16:AV16" si="78">AU11-AU15</f>
+        <v>1756</v>
+      </c>
+      <c r="AV16" s="5">
         <f t="shared" si="78"/>
-        <v>3415.2627539841114</v>
-      </c>
-      <c r="AH16" s="5">
-        <f t="shared" si="78"/>
-        <v>4712.0276042167498</v>
-      </c>
-      <c r="AI16" s="5">
-        <f t="shared" ref="AI16:AL16" si="79">AI11-AI15</f>
-        <v>2839.1434140747592</v>
-      </c>
-      <c r="AJ16" s="5">
+        <v>538</v>
+      </c>
+      <c r="AW16" s="5">
+        <f t="shared" ref="AW16:AX16" si="79">AW11-AW15</f>
+        <v>2804</v>
+      </c>
+      <c r="AX16" s="5">
         <f t="shared" si="79"/>
-        <v>4475.6981194905884</v>
-      </c>
-      <c r="AK16" s="5">
-        <f t="shared" si="79"/>
-        <v>4626.080371653663</v>
-      </c>
-      <c r="AL16" s="5">
-        <f t="shared" si="79"/>
-        <v>6380.8774113063855</v>
-      </c>
-      <c r="AT16" s="5">
-        <f t="shared" ref="AT16" si="80">AT11-AT15</f>
-        <v>1032</v>
-      </c>
-      <c r="AU16" s="5">
-        <f t="shared" ref="AU16:AV16" si="81">AU11-AU15</f>
-        <v>1756</v>
-      </c>
-      <c r="AV16" s="5">
-        <f t="shared" si="81"/>
-        <v>538</v>
-      </c>
-      <c r="AW16" s="5">
-        <f t="shared" ref="AW16:AX16" si="82">AW11-AW15</f>
-        <v>2804</v>
-      </c>
-      <c r="AX16" s="5">
-        <f t="shared" si="82"/>
         <v>4994</v>
       </c>
       <c r="AY16" s="5">
-        <f t="shared" ref="AY16:AZ16" si="83">AY11-AY15</f>
+        <f t="shared" ref="AY16:AZ16" si="80">AY11-AY15</f>
         <v>6225</v>
       </c>
       <c r="AZ16" s="5">
-        <f t="shared" si="83"/>
-        <v>13441.01913960582</v>
+        <f t="shared" si="80"/>
+        <v>13215.555018409457</v>
       </c>
       <c r="BA16" s="5">
-        <f t="shared" ref="BA16" si="84">BA11-BA15</f>
-        <v>19755.123229991816</v>
+        <f t="shared" ref="BA16" si="81">BA11-BA15</f>
+        <v>19194.922413877626</v>
       </c>
       <c r="BB16" s="5">
-        <f t="shared" ref="BB16" si="85">BB11-BB15</f>
-        <v>27036.071902969154</v>
+        <f t="shared" ref="BB16" si="82">BB11-BB15</f>
+        <v>26382.483870801734</v>
       </c>
       <c r="BC16" s="5">
-        <f t="shared" ref="BC16" si="86">BC11-BC15</f>
-        <v>36900.804468337104</v>
+        <f t="shared" ref="BC16" si="83">BC11-BC15</f>
+        <v>36145.694550183092</v>
       </c>
       <c r="BD16" s="5">
-        <f t="shared" ref="BD16" si="87">BD11-BD15</f>
-        <v>39390.687977387213</v>
+        <f t="shared" ref="BD16" si="84">BD11-BD15</f>
+        <v>38759.698199188599</v>
       </c>
       <c r="BE16" s="5">
-        <f t="shared" ref="BE16" si="88">BE11-BE15</f>
-        <v>41886.125022958833</v>
+        <f t="shared" ref="BE16" si="85">BE11-BE15</f>
+        <v>41375.640317039259</v>
       </c>
       <c r="BF16" s="5">
-        <f t="shared" ref="BF16" si="89">BF11-BF15</f>
-        <v>44390.73935958511</v>
+        <f t="shared" ref="BF16" si="86">BF11-BF15</f>
+        <v>43997.403139831673</v>
       </c>
       <c r="BG16" s="5">
-        <f t="shared" ref="BG16" si="90">BG11-BG15</f>
-        <v>46908.090597013281</v>
+        <f t="shared" ref="BG16" si="87">BG11-BG15</f>
+        <v>46628.794166643827</v>
       </c>
       <c r="BH16" s="5">
-        <f t="shared" ref="BH16" si="91">BH11-BH15</f>
-        <v>49441.680918732272</v>
+        <f t="shared" ref="BH16" si="88">BH11-BH15</f>
+        <v>49273.553477629466</v>
       </c>
       <c r="BI16" s="5">
-        <f t="shared" ref="BI16" si="92">BI11-BI15</f>
-        <v>51994.961569912412</v>
+        <f t="shared" ref="BI16" si="89">BI11-BI15</f>
+        <v>51935.36079364537</v>
       </c>
       <c r="BJ16" s="5">
-        <f t="shared" ref="BJ16" si="93">BJ11-BJ15</f>
-        <v>54571.339129447035</v>
+        <f t="shared" ref="BJ16" si="90">BJ11-BJ15</f>
+        <v>54617.842293557391</v>
       </c>
       <c r="BK16" s="5">
-        <f t="shared" ref="BK16" si="94">BK11-BK15</f>
-        <v>57174.181580145836</v>
+        <f t="shared" ref="BK16" si="91">BK11-BK15</f>
+        <v>57324.577204661633</v>
       </c>
       <c r="BL16" s="5">
-        <f t="shared" ref="BL16" si="95">BL11-BL15</f>
-        <v>59806.824190524836</v>
+        <f t="shared" ref="BL16" si="92">BL11-BL15</f>
+        <v>60059.104180984141</v>
       </c>
       <c r="BM16" s="5">
-        <f t="shared" ref="BM16" si="96">BM11-BM15</f>
-        <v>62472.57522106648</v>
+        <f t="shared" ref="BM16" si="93">BM11-BM15</f>
+        <v>62824.927483587191</v>
       </c>
       <c r="BN16" s="5">
-        <f t="shared" ref="BN16" si="97">BN11-BN15</f>
-        <v>65174.721467283074</v>
-      </c>
-    </row>
-    <row r="17" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BN16" si="94">BN11-BN15</f>
+        <v>65625.522976409644</v>
+      </c>
+    </row>
+    <row r="17" spans="2:130" s="2" customFormat="1">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -3196,7 +3351,7 @@
         <v>56</v>
       </c>
       <c r="AF17" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG17" s="5">
         <v>0</v>
@@ -3237,66 +3392,66 @@
       </c>
       <c r="AZ17" s="2">
         <f>SUM(AE17:AH17)</f>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="BA17" s="2">
         <f>SUM(AF17:AM17)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BB17" s="2">
         <f>SUM(AG17:AQ17)</f>
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <f>+BB37*$BQ$25</f>
-        <v>1285.7682140885017</v>
+        <f>+BB38*$BQ$25</f>
+        <v>1276.7294195463323</v>
       </c>
       <c r="BD17" s="2">
-        <f t="shared" ref="BD17:BN17" si="98">+BC37*$BQ$25</f>
-        <v>1858.5668043248857</v>
+        <f t="shared" ref="BD17:BN17" si="95">+BC38*$BQ$25</f>
+        <v>1838.0657790922735</v>
       </c>
       <c r="BE17" s="2">
-        <f t="shared" si="98"/>
-        <v>2477.3056260505673</v>
+        <f t="shared" si="95"/>
+        <v>2447.0322387664864</v>
       </c>
       <c r="BF17" s="2">
-        <f t="shared" si="98"/>
-        <v>3142.7570857857081</v>
+        <f t="shared" si="95"/>
+        <v>3104.3723271035728</v>
       </c>
       <c r="BG17" s="2">
-        <f t="shared" si="98"/>
-        <v>3855.7595324662702</v>
+        <f t="shared" si="95"/>
+        <v>3810.8989591076015</v>
       </c>
       <c r="BH17" s="2">
-        <f t="shared" si="98"/>
-        <v>4617.2172844084635</v>
+        <f t="shared" si="95"/>
+        <v>4567.4943559938729</v>
       </c>
       <c r="BI17" s="2">
-        <f t="shared" si="98"/>
-        <v>5428.1007574555742</v>
+        <f t="shared" si="95"/>
+        <v>5375.1100734982238</v>
       </c>
       <c r="BJ17" s="2">
-        <f t="shared" si="98"/>
-        <v>6289.4466923660948</v>
+        <f t="shared" si="95"/>
+        <v>6234.7671365053766</v>
       </c>
       <c r="BK17" s="2">
-        <f t="shared" si="98"/>
-        <v>7202.3584796932919</v>
+        <f t="shared" si="95"/>
+        <v>7147.5562779563179</v>
       </c>
       <c r="BL17" s="2">
-        <f t="shared" si="98"/>
-        <v>8168.0065805908798</v>
+        <f t="shared" si="95"/>
+        <v>8114.638280195587</v>
       </c>
       <c r="BM17" s="2">
-        <f t="shared" si="98"/>
-        <v>9187.6290421576141</v>
+        <f t="shared" si="95"/>
+        <v>9137.2444171132829</v>
       </c>
       <c r="BN17" s="2">
-        <f t="shared" si="98"/>
-        <v>10262.532106105977</v>
-      </c>
-    </row>
-    <row r="18" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="95"/>
+        <v>10216.676995623789</v>
+      </c>
+    </row>
+    <row r="18" spans="2:130" s="2" customFormat="1">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -3321,155 +3476,155 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5">
-        <f t="shared" ref="W18:AD18" si="99">W16+W17</f>
+        <f t="shared" ref="W18:AD18" si="96">W16+W17</f>
         <v>1075</v>
       </c>
       <c r="X18" s="5">
+        <f t="shared" si="96"/>
+        <v>1700</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" si="96"/>
+        <v>1336</v>
+      </c>
+      <c r="Z18" s="5">
+        <f t="shared" si="96"/>
+        <v>1817</v>
+      </c>
+      <c r="AA18" s="5">
+        <f t="shared" si="96"/>
+        <v>1618</v>
+      </c>
+      <c r="AB18" s="5">
+        <f t="shared" si="96"/>
+        <v>2036</v>
+      </c>
+      <c r="AC18" s="5">
+        <f t="shared" si="96"/>
+        <v>2189</v>
+      </c>
+      <c r="AD18" s="5">
+        <f t="shared" si="96"/>
+        <v>3303</v>
+      </c>
+      <c r="AE18" s="5">
+        <f t="shared" ref="AE18:AH18" si="97">AE16+AE17</f>
+        <v>2065</v>
+      </c>
+      <c r="AF18" s="5">
+        <f t="shared" ref="AF18" si="98">AF16+AF17</f>
+        <v>2766</v>
+      </c>
+      <c r="AG18" s="5">
+        <f t="shared" si="97"/>
+        <v>3562.1336379344584</v>
+      </c>
+      <c r="AH18" s="5">
+        <f t="shared" si="97"/>
+        <v>4898.4213804749988</v>
+      </c>
+      <c r="AI18" s="5">
+        <f t="shared" ref="AI18:AL18" si="99">AI16+AI17</f>
+        <v>3004.6503160182378</v>
+      </c>
+      <c r="AJ18" s="5">
         <f t="shared" si="99"/>
-        <v>1700</v>
-      </c>
-      <c r="Y18" s="5">
+        <v>3742.7120425464791</v>
+      </c>
+      <c r="AK18" s="5">
         <f t="shared" si="99"/>
-        <v>1336</v>
-      </c>
-      <c r="Z18" s="5">
+        <v>4824.7651316819311</v>
+      </c>
+      <c r="AL18" s="5">
         <f t="shared" si="99"/>
-        <v>1817</v>
-      </c>
-      <c r="AA18" s="5">
-        <f t="shared" si="99"/>
-        <v>1618</v>
-      </c>
-      <c r="AB18" s="5">
-        <f t="shared" si="99"/>
-        <v>2036</v>
-      </c>
-      <c r="AC18" s="5">
-        <f t="shared" si="99"/>
-        <v>2189</v>
-      </c>
-      <c r="AD18" s="5">
-        <f t="shared" si="99"/>
-        <v>3303</v>
-      </c>
-      <c r="AE18" s="5">
-        <f t="shared" ref="AE18:AH18" si="100">AE16+AE17</f>
-        <v>2065</v>
-      </c>
-      <c r="AF18" s="5">
-        <f t="shared" si="100"/>
-        <v>3304.7287814049591</v>
-      </c>
-      <c r="AG18" s="5">
-        <f t="shared" si="100"/>
-        <v>3415.2627539841114</v>
-      </c>
-      <c r="AH18" s="5">
-        <f t="shared" si="100"/>
-        <v>4712.0276042167498</v>
-      </c>
-      <c r="AI18" s="5">
-        <f t="shared" ref="AI18:AL18" si="101">AI16+AI17</f>
-        <v>2839.1434140747592</v>
-      </c>
-      <c r="AJ18" s="5">
+        <v>6633.0281556237742</v>
+      </c>
+      <c r="AT18" s="5">
+        <f t="shared" ref="AT18" si="100">AT16+AT17</f>
+        <v>1008</v>
+      </c>
+      <c r="AU18" s="5">
+        <f t="shared" ref="AU18:AV18" si="101">AU16+AU17</f>
+        <v>1695</v>
+      </c>
+      <c r="AV18" s="5">
         <f t="shared" si="101"/>
-        <v>4475.6981194905884</v>
-      </c>
-      <c r="AK18" s="5">
-        <f t="shared" si="101"/>
-        <v>4626.080371653663</v>
-      </c>
-      <c r="AL18" s="5">
-        <f t="shared" si="101"/>
-        <v>6380.8774113063855</v>
-      </c>
-      <c r="AT18" s="5">
-        <f t="shared" ref="AT18" si="102">AT16+AT17</f>
-        <v>1008</v>
-      </c>
-      <c r="AU18" s="5">
-        <f t="shared" ref="AU18:AV18" si="103">AU16+AU17</f>
-        <v>1695</v>
-      </c>
-      <c r="AV18" s="5">
+        <v>494</v>
+      </c>
+      <c r="AW18" s="5">
+        <f t="shared" ref="AW18:AX18" si="102">AW16+AW17</f>
+        <v>2754</v>
+      </c>
+      <c r="AX18" s="5">
+        <f t="shared" si="102"/>
+        <v>4910</v>
+      </c>
+      <c r="AY18" s="5">
+        <f t="shared" ref="AY18:AZ18" si="103">AY16+AY17</f>
+        <v>6194</v>
+      </c>
+      <c r="AZ18" s="5">
         <f t="shared" si="103"/>
-        <v>494</v>
-      </c>
-      <c r="AW18" s="5">
-        <f t="shared" ref="AW18:AX18" si="104">AW16+AW17</f>
-        <v>2754</v>
-      </c>
-      <c r="AX18" s="5">
-        <f t="shared" si="104"/>
-        <v>4910</v>
-      </c>
-      <c r="AY18" s="5">
-        <f t="shared" ref="AY18:AZ18" si="105">AY16+AY17</f>
-        <v>6194</v>
-      </c>
-      <c r="AZ18" s="5">
-        <f t="shared" si="105"/>
-        <v>13497.01913960582</v>
+        <v>13291.555018409457</v>
       </c>
       <c r="BA18" s="5">
-        <f t="shared" ref="BA18" si="106">BA16+BA17</f>
-        <v>19755.123229991816</v>
+        <f t="shared" ref="BA18" si="104">BA16+BA17</f>
+        <v>19214.922413877626</v>
       </c>
       <c r="BB18" s="5">
-        <f t="shared" ref="BB18" si="107">BB16+BB17</f>
-        <v>27036.071902969154</v>
+        <f t="shared" ref="BB18" si="105">BB16+BB17</f>
+        <v>26382.483870801734</v>
       </c>
       <c r="BC18" s="5">
-        <f t="shared" ref="BC18" si="108">BC16+BC17</f>
-        <v>38186.572682425605</v>
+        <f t="shared" ref="BC18" si="106">BC16+BC17</f>
+        <v>37422.423969729425</v>
       </c>
       <c r="BD18" s="5">
-        <f t="shared" ref="BD18" si="109">BD16+BD17</f>
-        <v>41249.254781712101</v>
+        <f t="shared" ref="BD18" si="107">BD16+BD17</f>
+        <v>40597.763978280869</v>
       </c>
       <c r="BE18" s="5">
-        <f t="shared" ref="BE18" si="110">BE16+BE17</f>
-        <v>44363.430649009402</v>
+        <f t="shared" ref="BE18" si="108">BE16+BE17</f>
+        <v>43822.672555805744</v>
       </c>
       <c r="BF18" s="5">
-        <f t="shared" ref="BF18" si="111">BF16+BF17</f>
-        <v>47533.496445370816</v>
+        <f t="shared" ref="BF18" si="109">BF16+BF17</f>
+        <v>47101.775466935243</v>
       </c>
       <c r="BG18" s="5">
-        <f t="shared" ref="BG18" si="112">BG16+BG17</f>
-        <v>50763.85012947955</v>
+        <f t="shared" ref="BG18" si="110">BG16+BG17</f>
+        <v>50439.69312575143</v>
       </c>
       <c r="BH18" s="5">
-        <f t="shared" ref="BH18" si="113">BH16+BH17</f>
-        <v>54058.898203140736</v>
+        <f t="shared" ref="BH18" si="111">BH16+BH17</f>
+        <v>53841.047833623335</v>
       </c>
       <c r="BI18" s="5">
-        <f t="shared" ref="BI18" si="114">BI16+BI17</f>
-        <v>57423.062327367988</v>
+        <f t="shared" ref="BI18" si="112">BI16+BI17</f>
+        <v>57310.470867143595</v>
       </c>
       <c r="BJ18" s="5">
-        <f t="shared" ref="BJ18" si="115">BJ16+BJ17</f>
-        <v>60860.78582181313</v>
+        <f t="shared" ref="BJ18" si="113">BJ16+BJ17</f>
+        <v>60852.609430062766</v>
       </c>
       <c r="BK18" s="5">
-        <f t="shared" ref="BK18" si="116">BK16+BK17</f>
-        <v>64376.540059839128</v>
+        <f t="shared" ref="BK18" si="114">BK16+BK17</f>
+        <v>64472.133482617952</v>
       </c>
       <c r="BL18" s="5">
-        <f t="shared" ref="BL18" si="117">BL16+BL17</f>
-        <v>67974.83077111571</v>
+        <f t="shared" ref="BL18" si="115">BL16+BL17</f>
+        <v>68173.742461179732</v>
       </c>
       <c r="BM18" s="5">
-        <f t="shared" ref="BM18" si="118">BM16+BM17</f>
-        <v>71660.204263224092</v>
+        <f t="shared" ref="BM18" si="116">BM16+BM17</f>
+        <v>71962.171900700472</v>
       </c>
       <c r="BN18" s="5">
-        <f t="shared" ref="BN18" si="119">BN16+BN17</f>
-        <v>75437.253573389055</v>
-      </c>
-    </row>
-    <row r="19" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BN18" si="117">BN16+BN17</f>
+        <v>75842.199972033428</v>
+      </c>
+    </row>
+    <row r="19" spans="2:130" s="2" customFormat="1">
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
@@ -3521,32 +3676,31 @@
         <v>555</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" ref="AF19:AH19" si="120">+AF18*0.25</f>
-        <v>826.18219535123978</v>
+        <v>711</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="120"/>
-        <v>853.81568849602786</v>
+        <f t="shared" ref="AG19:AH19" si="118">+AG18*0.25</f>
+        <v>890.53340948361461</v>
       </c>
       <c r="AH19" s="5">
-        <f t="shared" si="120"/>
-        <v>1178.0069010541874</v>
+        <f t="shared" si="118"/>
+        <v>1224.6053451187497</v>
       </c>
       <c r="AI19" s="5">
-        <f t="shared" ref="AI19:AL19" si="121">+AI18*0.25</f>
-        <v>709.78585351868981</v>
+        <f t="shared" ref="AI19:AL19" si="119">+AI18*0.25</f>
+        <v>751.16257900455946</v>
       </c>
       <c r="AJ19" s="5">
-        <f t="shared" si="121"/>
-        <v>1118.9245298726471</v>
+        <f t="shared" si="119"/>
+        <v>935.67801063661977</v>
       </c>
       <c r="AK19" s="5">
-        <f t="shared" si="121"/>
-        <v>1156.5200929134157</v>
+        <f t="shared" si="119"/>
+        <v>1206.1912829204828</v>
       </c>
       <c r="AL19" s="5">
-        <f t="shared" si="121"/>
-        <v>1595.2193528265964</v>
+        <f t="shared" si="119"/>
+        <v>1658.2570389059435</v>
       </c>
       <c r="AT19" s="2">
         <f>402+234</f>
@@ -3574,66 +3728,66 @@
       </c>
       <c r="AZ19" s="5">
         <f>AZ18*0.25</f>
-        <v>3374.254784901455</v>
+        <v>3322.8887546023643</v>
       </c>
       <c r="BA19" s="5">
-        <f t="shared" ref="BA19:BC19" si="122">BA18*0.25</f>
-        <v>4938.7808074979539</v>
+        <f t="shared" ref="BA19:BC19" si="120">BA18*0.25</f>
+        <v>4803.7306034694066</v>
       </c>
       <c r="BB19" s="5">
-        <f t="shared" si="122"/>
-        <v>6759.0179757422884</v>
+        <f t="shared" si="120"/>
+        <v>6595.6209677004335</v>
       </c>
       <c r="BC19" s="5">
-        <f t="shared" si="122"/>
-        <v>9546.6431706064013</v>
+        <f t="shared" si="120"/>
+        <v>9355.6059924323563</v>
       </c>
       <c r="BD19" s="5">
-        <f t="shared" ref="BD19" si="123">BD18*0.25</f>
-        <v>10312.313695428025</v>
+        <f t="shared" ref="BD19" si="121">BD18*0.25</f>
+        <v>10149.440994570217</v>
       </c>
       <c r="BE19" s="5">
-        <f t="shared" ref="BE19" si="124">BE18*0.25</f>
-        <v>11090.857662252351</v>
+        <f t="shared" ref="BE19" si="122">BE18*0.25</f>
+        <v>10955.668138951436</v>
       </c>
       <c r="BF19" s="5">
-        <f t="shared" ref="BF19" si="125">BF18*0.25</f>
-        <v>11883.374111342704</v>
+        <f t="shared" ref="BF19" si="123">BF18*0.25</f>
+        <v>11775.443866733811</v>
       </c>
       <c r="BG19" s="5">
-        <f t="shared" ref="BG19" si="126">BG18*0.25</f>
-        <v>12690.962532369887</v>
+        <f t="shared" ref="BG19" si="124">BG18*0.25</f>
+        <v>12609.923281437857</v>
       </c>
       <c r="BH19" s="5">
-        <f t="shared" ref="BH19" si="127">BH18*0.25</f>
-        <v>13514.724550785184</v>
+        <f t="shared" ref="BH19" si="125">BH18*0.25</f>
+        <v>13460.261958405834</v>
       </c>
       <c r="BI19" s="5">
-        <f t="shared" ref="BI19" si="128">BI18*0.25</f>
-        <v>14355.765581841997</v>
+        <f t="shared" ref="BI19" si="126">BI18*0.25</f>
+        <v>14327.617716785899</v>
       </c>
       <c r="BJ19" s="5">
-        <f t="shared" ref="BJ19" si="129">BJ18*0.25</f>
-        <v>15215.196455453282</v>
+        <f t="shared" ref="BJ19" si="127">BJ18*0.25</f>
+        <v>15213.152357515692</v>
       </c>
       <c r="BK19" s="5">
-        <f t="shared" ref="BK19" si="130">BK18*0.25</f>
-        <v>16094.135014959782</v>
+        <f t="shared" ref="BK19" si="128">BK18*0.25</f>
+        <v>16118.033370654488</v>
       </c>
       <c r="BL19" s="5">
-        <f t="shared" ref="BL19" si="131">BL18*0.25</f>
-        <v>16993.707692778928</v>
+        <f t="shared" ref="BL19" si="129">BL18*0.25</f>
+        <v>17043.435615294933</v>
       </c>
       <c r="BM19" s="5">
-        <f t="shared" ref="BM19" si="132">BM18*0.25</f>
-        <v>17915.051065806023</v>
+        <f t="shared" ref="BM19" si="130">BM18*0.25</f>
+        <v>17990.542975175118</v>
       </c>
       <c r="BN19" s="5">
-        <f t="shared" ref="BN19" si="133">BN18*0.25</f>
-        <v>18859.313393347264</v>
-      </c>
-    </row>
-    <row r="20" spans="2:130" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BN19" si="131">BN18*0.25</f>
+        <v>18960.549993008357</v>
+      </c>
+    </row>
+    <row r="20" spans="2:130" s="6" customFormat="1">
       <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
@@ -3658,35 +3812,35 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7">
-        <f t="shared" ref="W20:AD20" si="134">+W18-W19</f>
+        <f t="shared" ref="W20:AD20" si="132">+W18-W19</f>
         <v>642</v>
       </c>
       <c r="X20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>1105</v>
       </c>
       <c r="Y20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>806</v>
       </c>
       <c r="Z20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>1404</v>
       </c>
       <c r="AA20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>1198</v>
       </c>
       <c r="AB20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>1482</v>
       </c>
       <c r="AC20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>1653</v>
       </c>
       <c r="AD20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>2308</v>
       </c>
       <c r="AE20" s="7">
@@ -3694,381 +3848,381 @@
         <v>1510</v>
       </c>
       <c r="AF20" s="7">
-        <f t="shared" ref="AF20:AG20" si="135">+AF18-AF19</f>
-        <v>2478.5465860537192</v>
+        <f>+AF18-AF19</f>
+        <v>2055</v>
       </c>
       <c r="AG20" s="7">
-        <f t="shared" si="135"/>
-        <v>2561.4470654880834</v>
+        <f t="shared" ref="AG20" si="133">+AG18-AG19</f>
+        <v>2671.600228450844</v>
       </c>
       <c r="AH20" s="7">
-        <f t="shared" ref="AH20:AL20" si="136">+AH18-AH19</f>
-        <v>3534.0207031625623</v>
+        <f t="shared" ref="AH20:AL20" si="134">+AH18-AH19</f>
+        <v>3673.8160353562489</v>
       </c>
       <c r="AI20" s="7">
-        <f t="shared" si="136"/>
-        <v>2129.3575605560695</v>
+        <f t="shared" si="134"/>
+        <v>2253.4877370136783</v>
       </c>
       <c r="AJ20" s="7">
-        <f t="shared" si="136"/>
-        <v>3356.7735896179411</v>
+        <f t="shared" si="134"/>
+        <v>2807.0340319098596</v>
       </c>
       <c r="AK20" s="7">
-        <f t="shared" si="136"/>
-        <v>3469.5602787402472</v>
+        <f t="shared" si="134"/>
+        <v>3618.5738487614481</v>
       </c>
       <c r="AL20" s="7">
-        <f t="shared" si="136"/>
-        <v>4785.6580584797894</v>
+        <f t="shared" si="134"/>
+        <v>4974.7711167178304</v>
       </c>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AT20" s="6">
-        <f t="shared" ref="AT20:AY20" si="137">+AT18-AT19</f>
+        <f t="shared" ref="AT20:AY20" si="135">+AT18-AT19</f>
         <v>372</v>
       </c>
       <c r="AU20" s="6">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>668</v>
       </c>
       <c r="AV20" s="6">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>32</v>
       </c>
       <c r="AW20" s="6">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>1491</v>
       </c>
       <c r="AX20" s="6">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>2925</v>
       </c>
       <c r="AY20" s="6">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>3669</v>
       </c>
       <c r="AZ20" s="7">
-        <f t="shared" ref="AZ20" si="138">+AZ18-AZ19</f>
-        <v>10122.764354704364</v>
+        <f t="shared" ref="AZ20" si="136">+AZ18-AZ19</f>
+        <v>9968.666263807092</v>
       </c>
       <c r="BA20" s="7">
-        <f t="shared" ref="BA20" si="139">+BA18-BA19</f>
-        <v>14816.342422493861</v>
+        <f t="shared" ref="BA20" si="137">+BA18-BA19</f>
+        <v>14411.19181040822</v>
       </c>
       <c r="BB20" s="7">
-        <f t="shared" ref="BB20" si="140">+BB18-BB19</f>
-        <v>20277.053927226865</v>
+        <f t="shared" ref="BB20" si="138">+BB18-BB19</f>
+        <v>19786.862903101301</v>
       </c>
       <c r="BC20" s="7">
         <f>+BC18-BC19</f>
-        <v>28639.929511819202</v>
+        <v>28066.817977297069</v>
       </c>
       <c r="BD20" s="7">
-        <f t="shared" ref="BD20:BN20" si="141">+BD18-BD19</f>
-        <v>30936.941086284074</v>
+        <f t="shared" ref="BD20:BN20" si="139">+BD18-BD19</f>
+        <v>30448.322983710652</v>
       </c>
       <c r="BE20" s="7">
-        <f t="shared" si="141"/>
-        <v>33272.572986757048</v>
+        <f t="shared" si="139"/>
+        <v>32867.00441685431</v>
       </c>
       <c r="BF20" s="7">
-        <f t="shared" si="141"/>
-        <v>35650.122334028114</v>
+        <f t="shared" si="139"/>
+        <v>35326.331600201433</v>
       </c>
       <c r="BG20" s="7">
-        <f t="shared" si="141"/>
-        <v>38072.887597109664</v>
+        <f t="shared" si="139"/>
+        <v>37829.769844313574</v>
       </c>
       <c r="BH20" s="7">
-        <f t="shared" si="141"/>
-        <v>40544.173652355552</v>
+        <f t="shared" si="139"/>
+        <v>40380.785875217502</v>
       </c>
       <c r="BI20" s="7">
-        <f t="shared" si="141"/>
-        <v>43067.296745525993</v>
+        <f t="shared" si="139"/>
+        <v>42982.853150357696</v>
       </c>
       <c r="BJ20" s="7">
-        <f t="shared" si="141"/>
-        <v>45645.589366359847</v>
+        <f t="shared" si="139"/>
+        <v>45639.457072547077</v>
       </c>
       <c r="BK20" s="7">
-        <f t="shared" si="141"/>
-        <v>48282.405044879342</v>
+        <f t="shared" si="139"/>
+        <v>48354.10011196346</v>
       </c>
       <c r="BL20" s="7">
-        <f t="shared" si="141"/>
-        <v>50981.123078336779</v>
+        <f t="shared" si="139"/>
+        <v>51130.306845884799</v>
       </c>
       <c r="BM20" s="7">
-        <f t="shared" si="141"/>
-        <v>53745.153197418069</v>
+        <f t="shared" si="139"/>
+        <v>53971.62892552535</v>
       </c>
       <c r="BN20" s="7">
-        <f t="shared" si="141"/>
-        <v>56577.940180041791</v>
+        <f t="shared" si="139"/>
+        <v>56881.649979025067</v>
       </c>
       <c r="BO20" s="6">
         <f>+BN20*(1+$BQ$23)</f>
-        <v>56012.16077824137</v>
+        <v>56312.833479234818</v>
       </c>
       <c r="BP20" s="6">
-        <f t="shared" ref="BP20:DZ20" si="142">+BO20*(1+$BQ$23)</f>
-        <v>55452.039170458957</v>
+        <f t="shared" ref="BP20:DZ20" si="140">+BO20*(1+$BQ$23)</f>
+        <v>55749.705144442472</v>
       </c>
       <c r="BQ20" s="6">
-        <f t="shared" si="142"/>
-        <v>54897.518778754369</v>
+        <f t="shared" si="140"/>
+        <v>55192.208092998044</v>
       </c>
       <c r="BR20" s="6">
-        <f t="shared" si="142"/>
-        <v>54348.543590966823</v>
+        <f t="shared" si="140"/>
+        <v>54640.286012068063</v>
       </c>
       <c r="BS20" s="6">
-        <f t="shared" si="142"/>
-        <v>53805.058155057151</v>
+        <f t="shared" si="140"/>
+        <v>54093.883151947382</v>
       </c>
       <c r="BT20" s="6">
-        <f t="shared" si="142"/>
-        <v>53267.007573506577</v>
+        <f t="shared" si="140"/>
+        <v>53552.944320427909</v>
       </c>
       <c r="BU20" s="6">
-        <f t="shared" si="142"/>
-        <v>52734.337497771514</v>
+        <f t="shared" si="140"/>
+        <v>53017.414877223629</v>
       </c>
       <c r="BV20" s="6">
-        <f t="shared" si="142"/>
-        <v>52206.994122793796</v>
+        <f t="shared" si="140"/>
+        <v>52487.24072845139</v>
       </c>
       <c r="BW20" s="6">
-        <f t="shared" si="142"/>
-        <v>51684.924181565861</v>
+        <f t="shared" si="140"/>
+        <v>51962.368321166876</v>
       </c>
       <c r="BX20" s="6">
-        <f t="shared" si="142"/>
-        <v>51168.0749397502</v>
+        <f t="shared" si="140"/>
+        <v>51442.744637955206</v>
       </c>
       <c r="BY20" s="6">
-        <f t="shared" si="142"/>
-        <v>50656.394190352701</v>
+        <f t="shared" si="140"/>
+        <v>50928.317191575654</v>
       </c>
       <c r="BZ20" s="6">
-        <f t="shared" si="142"/>
-        <v>50149.830248449172</v>
+        <f t="shared" si="140"/>
+        <v>50419.034019659899</v>
       </c>
       <c r="CA20" s="6">
-        <f t="shared" si="142"/>
-        <v>49648.331945964681</v>
+        <f t="shared" si="140"/>
+        <v>49914.843679463302</v>
       </c>
       <c r="CB20" s="6">
-        <f t="shared" si="142"/>
-        <v>49151.848626505031</v>
+        <f t="shared" si="140"/>
+        <v>49415.695242668669</v>
       </c>
       <c r="CC20" s="6">
-        <f t="shared" si="142"/>
-        <v>48660.330140239981</v>
+        <f t="shared" si="140"/>
+        <v>48921.538290241981</v>
       </c>
       <c r="CD20" s="6">
-        <f t="shared" si="142"/>
-        <v>48173.726838837581</v>
+        <f t="shared" si="140"/>
+        <v>48432.322907339563</v>
       </c>
       <c r="CE20" s="6">
-        <f t="shared" si="142"/>
-        <v>47691.989570449208</v>
+        <f t="shared" si="140"/>
+        <v>47947.999678266169</v>
       </c>
       <c r="CF20" s="6">
-        <f t="shared" si="142"/>
-        <v>47215.069674744715</v>
+        <f t="shared" si="140"/>
+        <v>47468.519681483507</v>
       </c>
       <c r="CG20" s="6">
-        <f t="shared" si="142"/>
-        <v>46742.918977997266</v>
+        <f t="shared" si="140"/>
+        <v>46993.834484668674</v>
       </c>
       <c r="CH20" s="6">
-        <f t="shared" si="142"/>
-        <v>46275.489788217295</v>
+        <f t="shared" si="140"/>
+        <v>46523.896139821984</v>
       </c>
       <c r="CI20" s="6">
-        <f t="shared" si="142"/>
-        <v>45812.734890335123</v>
+        <f t="shared" si="140"/>
+        <v>46058.65717842376</v>
       </c>
       <c r="CJ20" s="6">
-        <f t="shared" si="142"/>
-        <v>45354.607541431775</v>
+        <f t="shared" si="140"/>
+        <v>45598.070606639521</v>
       </c>
       <c r="CK20" s="6">
-        <f t="shared" si="142"/>
-        <v>44901.061466017454</v>
+        <f t="shared" si="140"/>
+        <v>45142.089900573126</v>
       </c>
       <c r="CL20" s="6">
-        <f t="shared" si="142"/>
-        <v>44452.050851357279</v>
+        <f t="shared" si="140"/>
+        <v>44690.669001567396</v>
       </c>
       <c r="CM20" s="6">
-        <f t="shared" si="142"/>
-        <v>44007.530342843704</v>
+        <f t="shared" si="140"/>
+        <v>44243.76231155172</v>
       </c>
       <c r="CN20" s="6">
-        <f t="shared" si="142"/>
-        <v>43567.455039415268</v>
+        <f t="shared" si="140"/>
+        <v>43801.324688436202</v>
       </c>
       <c r="CO20" s="6">
-        <f t="shared" si="142"/>
-        <v>43131.780489021112</v>
+        <f t="shared" si="140"/>
+        <v>43363.311441551836</v>
       </c>
       <c r="CP20" s="6">
-        <f t="shared" si="142"/>
-        <v>42700.4626841309</v>
+        <f t="shared" si="140"/>
+        <v>42929.678327136317</v>
       </c>
       <c r="CQ20" s="6">
-        <f t="shared" si="142"/>
-        <v>42273.458057289594</v>
+        <f t="shared" si="140"/>
+        <v>42500.381543864954</v>
       </c>
       <c r="CR20" s="6">
-        <f t="shared" si="142"/>
-        <v>41850.723476716696</v>
+        <f t="shared" si="140"/>
+        <v>42075.377728426305</v>
       </c>
       <c r="CS20" s="6">
-        <f t="shared" si="142"/>
-        <v>41432.216241949529</v>
+        <f t="shared" si="140"/>
+        <v>41654.623951142043</v>
       </c>
       <c r="CT20" s="6">
-        <f t="shared" si="142"/>
-        <v>41017.894079530037</v>
+        <f t="shared" si="140"/>
+        <v>41238.07771163062</v>
       </c>
       <c r="CU20" s="6">
-        <f t="shared" si="142"/>
-        <v>40607.715138734733</v>
+        <f t="shared" si="140"/>
+        <v>40825.696934514315</v>
       </c>
       <c r="CV20" s="6">
-        <f t="shared" si="142"/>
-        <v>40201.637987347385</v>
+        <f t="shared" si="140"/>
+        <v>40417.439965169171</v>
       </c>
       <c r="CW20" s="6">
-        <f t="shared" si="142"/>
-        <v>39799.621607473913</v>
+        <f t="shared" si="140"/>
+        <v>40013.265565517482</v>
       </c>
       <c r="CX20" s="6">
-        <f t="shared" si="142"/>
-        <v>39401.625391399175</v>
+        <f t="shared" si="140"/>
+        <v>39613.13290986231</v>
       </c>
       <c r="CY20" s="6">
-        <f t="shared" si="142"/>
-        <v>39007.609137485182</v>
+        <f t="shared" si="140"/>
+        <v>39217.001580763688</v>
       </c>
       <c r="CZ20" s="6">
-        <f t="shared" si="142"/>
-        <v>38617.533046110329</v>
+        <f t="shared" si="140"/>
+        <v>38824.831564956054</v>
       </c>
       <c r="DA20" s="6">
-        <f t="shared" si="142"/>
-        <v>38231.357715649225</v>
+        <f t="shared" si="140"/>
+        <v>38436.583249306495</v>
       </c>
       <c r="DB20" s="6">
-        <f t="shared" si="142"/>
-        <v>37849.044138492733</v>
+        <f t="shared" si="140"/>
+        <v>38052.21741681343</v>
       </c>
       <c r="DC20" s="6">
-        <f t="shared" si="142"/>
-        <v>37470.553697107804</v>
+        <f t="shared" si="140"/>
+        <v>37671.695242645292</v>
       </c>
       <c r="DD20" s="6">
-        <f t="shared" si="142"/>
-        <v>37095.848160136724</v>
+        <f t="shared" si="140"/>
+        <v>37294.978290218838</v>
       </c>
       <c r="DE20" s="6">
-        <f t="shared" si="142"/>
-        <v>36724.889678535357</v>
+        <f t="shared" si="140"/>
+        <v>36922.028507316652</v>
       </c>
       <c r="DF20" s="6">
-        <f t="shared" si="142"/>
-        <v>36357.64078175</v>
+        <f t="shared" si="140"/>
+        <v>36552.808222243482</v>
       </c>
       <c r="DG20" s="6">
-        <f t="shared" si="142"/>
-        <v>35994.064373932502</v>
+        <f t="shared" si="140"/>
+        <v>36187.280140021045</v>
       </c>
       <c r="DH20" s="6">
-        <f t="shared" si="142"/>
-        <v>35634.123730193176</v>
+        <f t="shared" si="140"/>
+        <v>35825.407338620833</v>
       </c>
       <c r="DI20" s="6">
-        <f t="shared" si="142"/>
-        <v>35277.782492891245</v>
+        <f t="shared" si="140"/>
+        <v>35467.153265234621</v>
       </c>
       <c r="DJ20" s="6">
-        <f t="shared" si="142"/>
-        <v>34925.004667962334</v>
+        <f t="shared" si="140"/>
+        <v>35112.481732582273</v>
       </c>
       <c r="DK20" s="6">
-        <f t="shared" si="142"/>
-        <v>34575.754621282707</v>
+        <f t="shared" si="140"/>
+        <v>34761.356915256452</v>
       </c>
       <c r="DL20" s="6">
-        <f t="shared" si="142"/>
-        <v>34229.997075069878</v>
+        <f t="shared" si="140"/>
+        <v>34413.743346103889</v>
       </c>
       <c r="DM20" s="6">
-        <f t="shared" si="142"/>
-        <v>33887.697104319181</v>
+        <f t="shared" si="140"/>
+        <v>34069.605912642852</v>
       </c>
       <c r="DN20" s="6">
-        <f t="shared" si="142"/>
-        <v>33548.820133275985</v>
+        <f t="shared" si="140"/>
+        <v>33728.909853516423</v>
       </c>
       <c r="DO20" s="6">
-        <f t="shared" si="142"/>
-        <v>33213.331931943227</v>
+        <f t="shared" si="140"/>
+        <v>33391.620754981261</v>
       </c>
       <c r="DP20" s="6">
-        <f t="shared" si="142"/>
-        <v>32881.198612623797</v>
+        <f t="shared" si="140"/>
+        <v>33057.704547431451</v>
       </c>
       <c r="DQ20" s="6">
-        <f t="shared" si="142"/>
-        <v>32552.386626497559</v>
+        <f t="shared" si="140"/>
+        <v>32727.127501957137</v>
       </c>
       <c r="DR20" s="6">
-        <f t="shared" si="142"/>
-        <v>32226.862760232583</v>
+        <f t="shared" si="140"/>
+        <v>32399.856226937565</v>
       </c>
       <c r="DS20" s="6">
-        <f t="shared" si="142"/>
-        <v>31904.594132630256</v>
+        <f t="shared" si="140"/>
+        <v>32075.85766466819</v>
       </c>
       <c r="DT20" s="6">
-        <f t="shared" si="142"/>
-        <v>31585.548191303955</v>
+        <f t="shared" si="140"/>
+        <v>31755.099088021507</v>
       </c>
       <c r="DU20" s="6">
-        <f t="shared" si="142"/>
-        <v>31269.692709390914</v>
+        <f t="shared" si="140"/>
+        <v>31437.548097141291</v>
       </c>
       <c r="DV20" s="6">
-        <f t="shared" si="142"/>
-        <v>30956.995782297006</v>
+        <f t="shared" si="140"/>
+        <v>31123.172616169879</v>
       </c>
       <c r="DW20" s="6">
-        <f t="shared" si="142"/>
-        <v>30647.425824474038</v>
+        <f t="shared" si="140"/>
+        <v>30811.94089000818</v>
       </c>
       <c r="DX20" s="6">
-        <f t="shared" si="142"/>
-        <v>30340.951566229298</v>
+        <f t="shared" si="140"/>
+        <v>30503.821481108098</v>
       </c>
       <c r="DY20" s="6">
-        <f t="shared" si="142"/>
-        <v>30037.542050567004</v>
+        <f t="shared" si="140"/>
+        <v>30198.783266297018</v>
       </c>
       <c r="DZ20" s="6">
-        <f t="shared" si="142"/>
-        <v>29737.166630061332</v>
-      </c>
-    </row>
-    <row r="21" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="140"/>
+        <v>29896.795433634048</v>
+      </c>
+    </row>
+    <row r="21" spans="2:130" s="2" customFormat="1">
       <c r="B21" s="2" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -4102,7 +4256,10 @@
         <f>AE20/AE22</f>
         <v>0.52285318559556782</v>
       </c>
-      <c r="AF21" s="5"/>
+      <c r="AF21" s="19">
+        <f>AF20/AF22</f>
+        <v>0.7076446280991735</v>
+      </c>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
@@ -4110,33 +4267,33 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AT21" s="1">
-        <f t="shared" ref="AT21:AY21" si="143">AT20/AT22</f>
+        <f t="shared" ref="AT21:AY21" si="141">AT20/AT22</f>
         <v>0.26308345120226306</v>
       </c>
       <c r="AU21" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.44297082228116713</v>
       </c>
       <c r="AV21" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>1.4773776546629732E-2</v>
       </c>
       <c r="AW21" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.59237187127532775</v>
       </c>
       <c r="AX21" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>1.097972972972973</v>
       </c>
       <c r="AY21" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>1.2860147213459516</v>
       </c>
     </row>
-    <row r="22" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:130" s="2" customFormat="1">
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -4169,7 +4326,9 @@
       <c r="AE22" s="5">
         <v>2888</v>
       </c>
-      <c r="AF22" s="5"/>
+      <c r="AF22" s="5">
+        <v>2904</v>
+      </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
@@ -4195,7 +4354,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="23" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:130" s="2" customFormat="1">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -4239,7 +4398,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="24" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:130" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -4264,152 +4423,152 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4">
-        <f t="shared" ref="W24:AD24" si="144">W11/W9</f>
+        <f t="shared" ref="W24:AD24" si="142">W11/W9</f>
         <v>0.815347721822542</v>
       </c>
       <c r="X24" s="4">
+        <f t="shared" si="142"/>
+        <v>0.8429553264604811</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" si="142"/>
+        <v>0.82360287230721196</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" si="142"/>
+        <v>0.83510776421708643</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="142"/>
+        <v>0.81541066892464009</v>
+      </c>
+      <c r="AB24" s="4">
+        <f t="shared" si="142"/>
+        <v>0.8399307273626917</v>
+      </c>
+      <c r="AC24" s="4">
+        <f t="shared" si="142"/>
+        <v>0.84470117751610752</v>
+      </c>
+      <c r="AD24" s="4">
+        <f t="shared" si="142"/>
+        <v>0.86269474405067625</v>
+      </c>
+      <c r="AE24" s="4">
+        <f t="shared" ref="AE24:AH24" si="143">AE11/AE9</f>
+        <v>0.84429580081753997</v>
+      </c>
+      <c r="AF24" s="4">
+        <f t="shared" si="143"/>
+        <v>0.8576755748912368</v>
+      </c>
+      <c r="AG24" s="4">
+        <f t="shared" si="143"/>
+        <v>0.86</v>
+      </c>
+      <c r="AH24" s="4">
+        <f t="shared" si="143"/>
+        <v>0.86</v>
+      </c>
+      <c r="AI24" s="4">
+        <f t="shared" ref="AI24:AL24" si="144">AI11/AI9</f>
+        <v>0.86</v>
+      </c>
+      <c r="AJ24" s="4">
         <f t="shared" si="144"/>
-        <v>0.8429553264604811</v>
-      </c>
-      <c r="Y24" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="AK24" s="4">
         <f t="shared" si="144"/>
-        <v>0.82360287230721196</v>
-      </c>
-      <c r="Z24" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="AL24" s="4">
         <f t="shared" si="144"/>
-        <v>0.83510776421708643</v>
-      </c>
-      <c r="AA24" s="4">
-        <f t="shared" si="144"/>
-        <v>0.81541066892464009</v>
-      </c>
-      <c r="AB24" s="4">
-        <f t="shared" si="144"/>
-        <v>0.8399307273626917</v>
-      </c>
-      <c r="AC24" s="4">
-        <f t="shared" si="144"/>
-        <v>0.84470117751610752</v>
-      </c>
-      <c r="AD24" s="4">
-        <f t="shared" si="144"/>
-        <v>0.86269474405067625</v>
-      </c>
-      <c r="AE24" s="4">
-        <f t="shared" ref="AE24:AH24" si="145">AE11/AE9</f>
-        <v>0.84429580081753997</v>
-      </c>
-      <c r="AF24" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="AT24" s="4">
+        <f t="shared" ref="AT24:AU24" si="145">AT11/AT9</f>
+        <v>0.75025329280648434</v>
+      </c>
+      <c r="AU24" s="4">
         <f t="shared" si="145"/>
-        <v>0.86</v>
-      </c>
-      <c r="AG24" s="4">
-        <f t="shared" si="145"/>
-        <v>0.86</v>
-      </c>
-      <c r="AH24" s="4">
-        <f t="shared" si="145"/>
-        <v>0.86</v>
-      </c>
-      <c r="AI24" s="4">
-        <f t="shared" ref="AI24:AL24" si="146">AI11/AI9</f>
-        <v>0.85999999999999988</v>
-      </c>
-      <c r="AJ24" s="4">
+        <v>0.76825653462678523</v>
+      </c>
+      <c r="AV24" s="4">
+        <f t="shared" ref="AV24:AW24" si="146">AV11/AV9</f>
+        <v>0.73197091766555311</v>
+      </c>
+      <c r="AW24" s="4">
         <f t="shared" si="146"/>
-        <v>0.86</v>
-      </c>
-      <c r="AK24" s="4">
-        <f t="shared" si="146"/>
-        <v>0.86</v>
-      </c>
-      <c r="AL24" s="4">
-        <f t="shared" si="146"/>
-        <v>0.86</v>
-      </c>
-      <c r="AT24" s="4">
-        <f t="shared" ref="AT24:AU24" si="147">AT11/AT9</f>
-        <v>0.75025329280648434</v>
-      </c>
-      <c r="AU24" s="4">
+        <v>0.76181402439024393</v>
+      </c>
+      <c r="AX24" s="4">
+        <f t="shared" ref="AX24:AY24" si="147">AX11/AX9</f>
+        <v>0.82729022942403341</v>
+      </c>
+      <c r="AY24" s="4">
         <f t="shared" si="147"/>
-        <v>0.76825653462678523</v>
-      </c>
-      <c r="AV24" s="4">
-        <f t="shared" ref="AV24:AW24" si="148">AV11/AV9</f>
-        <v>0.73197091766555311</v>
-      </c>
-      <c r="AW24" s="4">
+        <v>0.84008255243195007</v>
+      </c>
+      <c r="AZ24" s="4">
+        <f t="shared" ref="AZ24:BC24" si="148">AZ11/AZ9</f>
+        <v>0.85629716657328014</v>
+      </c>
+      <c r="BA24" s="4">
         <f t="shared" si="148"/>
-        <v>0.76181402439024393</v>
-      </c>
-      <c r="AX24" s="4">
-        <f t="shared" ref="AX24:AY24" si="149">AX11/AX9</f>
-        <v>0.82729022942403341</v>
-      </c>
-      <c r="AY24" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="BB24" s="4">
+        <f t="shared" si="148"/>
+        <v>0.85</v>
+      </c>
+      <c r="BC24" s="4">
+        <f t="shared" si="148"/>
+        <v>0.85</v>
+      </c>
+      <c r="BD24" s="4">
+        <f t="shared" ref="BD24:BN24" si="149">BD11/BD9</f>
+        <v>0.85</v>
+      </c>
+      <c r="BE24" s="4">
         <f t="shared" si="149"/>
-        <v>0.84008255243195007</v>
-      </c>
-      <c r="AZ24" s="4">
-        <f t="shared" ref="AZ24:BC24" si="150">AZ11/AZ9</f>
-        <v>0.85675153188461473</v>
-      </c>
-      <c r="BA24" s="4">
-        <f t="shared" si="150"/>
         <v>0.85</v>
       </c>
-      <c r="BB24" s="4">
-        <f t="shared" si="150"/>
+      <c r="BF24" s="4">
+        <f t="shared" si="149"/>
         <v>0.85</v>
       </c>
-      <c r="BC24" s="4">
-        <f t="shared" si="150"/>
+      <c r="BG24" s="4">
+        <f t="shared" si="149"/>
         <v>0.85</v>
       </c>
-      <c r="BD24" s="4">
-        <f t="shared" ref="BD24:BN24" si="151">BD11/BD9</f>
+      <c r="BH24" s="4">
+        <f t="shared" si="149"/>
         <v>0.85</v>
       </c>
-      <c r="BE24" s="4">
-        <f t="shared" si="151"/>
+      <c r="BI24" s="4">
+        <f t="shared" si="149"/>
         <v>0.85</v>
       </c>
-      <c r="BF24" s="4">
-        <f t="shared" si="151"/>
+      <c r="BJ24" s="4">
+        <f t="shared" si="149"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BK24" s="4">
+        <f t="shared" si="149"/>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="BL24" s="4">
+        <f t="shared" si="149"/>
         <v>0.85</v>
       </c>
-      <c r="BG24" s="4">
-        <f t="shared" si="151"/>
+      <c r="BM24" s="4">
+        <f t="shared" si="149"/>
         <v>0.85</v>
       </c>
-      <c r="BH24" s="4">
-        <f t="shared" si="151"/>
+      <c r="BN24" s="4">
+        <f t="shared" si="149"/>
         <v>0.85</v>
-      </c>
-      <c r="BI24" s="4">
-        <f t="shared" si="151"/>
-        <v>0.85</v>
-      </c>
-      <c r="BJ24" s="4">
-        <f t="shared" si="151"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="BK24" s="4">
-        <f t="shared" si="151"/>
-        <v>0.85</v>
-      </c>
-      <c r="BL24" s="4">
-        <f t="shared" si="151"/>
-        <v>0.85</v>
-      </c>
-      <c r="BM24" s="4">
-        <f t="shared" si="151"/>
-        <v>0.85</v>
-      </c>
-      <c r="BN24" s="4">
-        <f t="shared" si="151"/>
-        <v>0.85000000000000009</v>
       </c>
       <c r="BP24" s="2" t="s">
         <v>36</v>
@@ -4418,7 +4577,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:130" s="2" customFormat="1">
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
@@ -4447,128 +4606,128 @@
         <v>0.42965627498001596</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" ref="X25:AH25" si="152">X16/X9</f>
+        <f t="shared" ref="X25:AH25" si="150">X16/X9</f>
         <v>0.58556701030927838</v>
       </c>
       <c r="Y25" s="4">
+        <f t="shared" si="150"/>
+        <v>0.43615360599438024</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" si="150"/>
+        <v>0.47675928330303818</v>
+      </c>
+      <c r="AA25" s="4">
+        <f t="shared" si="150"/>
+        <v>0.45695738075077619</v>
+      </c>
+      <c r="AB25" s="4">
+        <f t="shared" si="150"/>
+        <v>0.50371103414151408</v>
+      </c>
+      <c r="AC25" s="4">
+        <f t="shared" si="150"/>
+        <v>0.49233503665852035</v>
+      </c>
+      <c r="AD25" s="4">
+        <f t="shared" si="150"/>
+        <v>0.56599897277863376</v>
+      </c>
+      <c r="AE25" s="4">
+        <f t="shared" si="150"/>
+        <v>0.37328130806391674</v>
+      </c>
+      <c r="AF25" s="4">
+        <f t="shared" si="150"/>
+        <v>0.42666252330640148</v>
+      </c>
+      <c r="AG25" s="4">
+        <f t="shared" si="150"/>
+        <v>0.5371400021643018</v>
+      </c>
+      <c r="AH25" s="4">
+        <f t="shared" si="150"/>
+        <v>0.58201976296458358</v>
+      </c>
+      <c r="AI25" s="4">
+        <f t="shared" ref="AI25:AL25" si="151">AI16/AI9</f>
+        <v>0.4020599581007025</v>
+      </c>
+      <c r="AJ25" s="4">
+        <f t="shared" si="151"/>
+        <v>0.4298743495657002</v>
+      </c>
+      <c r="AK25" s="4">
+        <f t="shared" si="151"/>
+        <v>0.53780472990859596</v>
+      </c>
+      <c r="AL25" s="4">
+        <f t="shared" si="151"/>
+        <v>0.58259208897945558</v>
+      </c>
+      <c r="AT25" s="4">
+        <f t="shared" ref="AT25:AU25" si="152">AT16/AT9</f>
+        <v>0.52279635258358659</v>
+      </c>
+      <c r="AU25" s="4">
         <f t="shared" si="152"/>
-        <v>0.43615360599438024</v>
-      </c>
-      <c r="Z25" s="4">
-        <f t="shared" si="152"/>
-        <v>0.47675928330303818</v>
-      </c>
-      <c r="AA25" s="4">
-        <f t="shared" si="152"/>
-        <v>0.45695738075077619</v>
-      </c>
-      <c r="AB25" s="4">
-        <f t="shared" si="152"/>
-        <v>0.50371103414151408</v>
-      </c>
-      <c r="AC25" s="4">
-        <f t="shared" si="152"/>
-        <v>0.49233503665852035</v>
-      </c>
-      <c r="AD25" s="4">
-        <f t="shared" si="152"/>
-        <v>0.56599897277863376</v>
-      </c>
-      <c r="AE25" s="4">
-        <f t="shared" si="152"/>
-        <v>0.37328130806391674</v>
-      </c>
-      <c r="AF25" s="4">
-        <f t="shared" si="152"/>
-        <v>0.55299810986714726</v>
-      </c>
-      <c r="AG25" s="4">
-        <f t="shared" si="152"/>
-        <v>0.52860587014775284</v>
-      </c>
-      <c r="AH25" s="4">
-        <f t="shared" si="152"/>
-        <v>0.5746719340085199</v>
-      </c>
-      <c r="AI25" s="4">
-        <f t="shared" ref="AI25:AL25" si="153">AI16/AI9</f>
-        <v>0.38995526628557886</v>
-      </c>
-      <c r="AJ25" s="4">
+        <v>0.47318781999461063</v>
+      </c>
+      <c r="AV25" s="4">
+        <f t="shared" ref="AV25:AW25" si="153">AV16/AV9</f>
+        <v>0.10571821575948123</v>
+      </c>
+      <c r="AW25" s="4">
         <f t="shared" si="153"/>
-        <v>0.55363018778107298</v>
-      </c>
-      <c r="AK25" s="4">
-        <f t="shared" si="153"/>
-        <v>0.52928816858635075</v>
-      </c>
-      <c r="AL25" s="4">
-        <f t="shared" si="153"/>
-        <v>0.57525938827031053</v>
-      </c>
-      <c r="AT25" s="4">
-        <f t="shared" ref="AT25:AU25" si="154">AT16/AT9</f>
-        <v>0.52279635258358659</v>
-      </c>
-      <c r="AU25" s="4">
+        <v>0.35619918699186992</v>
+      </c>
+      <c r="AX25" s="4">
+        <f t="shared" ref="AX25:AY25" si="154">AX16/AX9</f>
+        <v>0.40060965827049577</v>
+      </c>
+      <c r="AY25" s="4">
         <f t="shared" si="154"/>
-        <v>0.47318781999461063</v>
-      </c>
-      <c r="AV25" s="4">
-        <f t="shared" ref="AV25:AW25" si="155">AV16/AV9</f>
-        <v>0.10571821575948123</v>
-      </c>
-      <c r="AW25" s="4">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="AZ25" s="4">
+        <f t="shared" ref="AZ25:BI25" si="155">AZ16/AZ9</f>
+        <v>0.4919079098795926</v>
+      </c>
+      <c r="BA25" s="4">
         <f t="shared" si="155"/>
-        <v>0.35619918699186992</v>
-      </c>
-      <c r="AX25" s="4">
-        <f t="shared" ref="AX25:AY25" si="156">AX16/AX9</f>
-        <v>0.40060965827049577</v>
-      </c>
-      <c r="AY25" s="4">
-        <f t="shared" si="156"/>
-        <v>0.34722222222222221</v>
-      </c>
-      <c r="AZ25" s="4">
-        <f t="shared" ref="AZ25:BI25" si="157">AZ16/AZ9</f>
-        <v>0.51659633356948764</v>
-      </c>
-      <c r="BA25" s="4">
-        <f t="shared" si="157"/>
-        <v>0.54487168894543425</v>
+        <v>0.51907902401010619</v>
       </c>
       <c r="BB25" s="4">
-        <f t="shared" si="157"/>
-        <v>0.56236018942819965</v>
+        <f t="shared" si="155"/>
+        <v>0.53804583711359943</v>
       </c>
       <c r="BC25" s="4">
-        <f t="shared" si="157"/>
-        <v>0.57884633241723205</v>
+        <f t="shared" si="155"/>
+        <v>0.55592556288989381</v>
       </c>
       <c r="BD25" s="4">
-        <f t="shared" si="157"/>
-        <v>0.5999068114527869</v>
+        <f t="shared" si="155"/>
+        <v>0.5787662958693196</v>
       </c>
       <c r="BE25" s="4">
-        <f t="shared" si="157"/>
-        <v>0.61933152512635681</v>
+        <f t="shared" si="155"/>
+        <v>0.59983299133578027</v>
       </c>
       <c r="BF25" s="4">
-        <f t="shared" si="157"/>
-        <v>0.63724752317479516</v>
+        <f t="shared" si="155"/>
+        <v>0.61926343861067101</v>
       </c>
       <c r="BG25" s="4">
-        <f t="shared" si="157"/>
-        <v>0.65377198739422848</v>
+        <f t="shared" si="155"/>
+        <v>0.63718472493217237</v>
       </c>
       <c r="BH25" s="4">
-        <f t="shared" si="157"/>
-        <v>0.6690129980820555</v>
+        <f t="shared" si="155"/>
+        <v>0.65371406668501342</v>
       </c>
       <c r="BI25" s="4">
-        <f t="shared" si="157"/>
-        <v>0.68307024094946867</v>
+        <f t="shared" si="155"/>
+        <v>0.66895957606870171</v>
       </c>
       <c r="BJ25" s="4"/>
       <c r="BK25" s="4"/>
@@ -4582,9 +4741,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:130" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>29</v>
+    <row r="26" spans="2:130" s="2" customFormat="1">
+      <c r="B26" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4607,984 +4766,1064 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4">
-        <f t="shared" ref="W26:AD26" si="158">W19/W18</f>
+        <f>W20/W9</f>
+        <v>0.25659472422062352</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" ref="X26:AL26" si="156">X20/X9</f>
+        <v>0.3797250859106529</v>
+      </c>
+      <c r="Y26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.25163908835466747</v>
+      </c>
+      <c r="Z26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.36458062840820565</v>
+      </c>
+      <c r="AA26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.33813152695455828</v>
+      </c>
+      <c r="AB26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.36665017318159326</v>
+      </c>
+      <c r="AC26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.36725172183959121</v>
+      </c>
+      <c r="AD26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.39513781886663241</v>
+      </c>
+      <c r="AE26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.28056484578223706</v>
+      </c>
+      <c r="AF26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.31929770043505284</v>
+      </c>
+      <c r="AG26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.40285500162322641</v>
+      </c>
+      <c r="AH26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.43651482222343768</v>
+      </c>
+      <c r="AI26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.30154496857552687</v>
+      </c>
+      <c r="AJ26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.32240576217427519</v>
+      </c>
+      <c r="AK26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.40335354743144691</v>
+      </c>
+      <c r="AL26" s="4">
+        <f t="shared" si="156"/>
+        <v>0.43694406673459163</v>
+      </c>
+      <c r="AT26" s="4">
+        <f t="shared" ref="AT26:BN26" si="157">AT20/AT9</f>
+        <v>0.18844984802431611</v>
+      </c>
+      <c r="AU26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.18000538938291566</v>
+      </c>
+      <c r="AV26" s="4">
+        <f t="shared" si="157"/>
+        <v>6.2880723128315979E-3</v>
+      </c>
+      <c r="AW26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.18940548780487804</v>
+      </c>
+      <c r="AX26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.23463821594737685</v>
+      </c>
+      <c r="AY26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.20465194109772422</v>
+      </c>
+      <c r="AZ26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.37105258003055319</v>
+      </c>
+      <c r="BA26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.38971490576908069</v>
+      </c>
+      <c r="BB26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.40353437783519958</v>
+      </c>
+      <c r="BC26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.43167137266914207</v>
+      </c>
+      <c r="BD26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.45465945111728956</v>
+      </c>
+      <c r="BE26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.47648117163975673</v>
+      </c>
+      <c r="BF26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.49721810877598177</v>
+      </c>
+      <c r="BG26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.51694563248516645</v>
+      </c>
+      <c r="BH26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.53573338814319171</v>
+      </c>
+      <c r="BI26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.55364573928606953</v>
+      </c>
+      <c r="BJ26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.57074217599299448</v>
+      </c>
+      <c r="BK26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.58707769157736678</v>
+      </c>
+      <c r="BL26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.60270313004691001</v>
+      </c>
+      <c r="BM26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.61766550660285369</v>
+      </c>
+      <c r="BN26" s="4">
+        <f t="shared" si="157"/>
+        <v>0.63200830327185664</v>
+      </c>
+      <c r="BQ26" s="15"/>
+    </row>
+    <row r="27" spans="2:130">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4">
+        <f t="shared" ref="W27:AD27" si="158">W19/W18</f>
         <v>0.40279069767441861</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X27" s="4">
         <f t="shared" si="158"/>
         <v>0.35</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y27" s="4">
         <f t="shared" si="158"/>
         <v>0.3967065868263473</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="Z27" s="4">
         <f t="shared" si="158"/>
         <v>0.22729774353329665</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AA27" s="4">
         <f t="shared" si="158"/>
         <v>0.25957972805933249</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AB27" s="4">
         <f t="shared" si="158"/>
         <v>0.27210216110019647</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AC27" s="4">
         <f t="shared" si="158"/>
         <v>0.24486066697121975</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AD27" s="4">
         <f t="shared" si="158"/>
         <v>0.3012412957917045</v>
       </c>
-      <c r="AE26" s="4">
-        <f t="shared" ref="AE26:AH26" si="159">AE19/AE18</f>
+      <c r="AE27" s="4">
+        <f t="shared" ref="AE27:AH27" si="159">AE19/AE18</f>
         <v>0.26876513317191281</v>
       </c>
-      <c r="AF26" s="4">
+      <c r="AF27" s="4">
+        <f t="shared" si="159"/>
+        <v>0.25704989154013014</v>
+      </c>
+      <c r="AG27" s="4">
         <f t="shared" si="159"/>
         <v>0.25</v>
       </c>
-      <c r="AG26" s="4">
+      <c r="AH27" s="4">
         <f t="shared" si="159"/>
         <v>0.25</v>
       </c>
-      <c r="AH26" s="4">
-        <f t="shared" si="159"/>
+      <c r="AI27" s="4">
+        <f t="shared" ref="AI27:AL27" si="160">AI19/AI18</f>
         <v>0.25</v>
       </c>
-      <c r="AI26" s="4">
-        <f t="shared" ref="AI26:AL26" si="160">AI19/AI18</f>
-        <v>0.25</v>
-      </c>
-      <c r="AJ26" s="4">
+      <c r="AJ27" s="4">
         <f t="shared" si="160"/>
         <v>0.25</v>
       </c>
-      <c r="AK26" s="4">
+      <c r="AK27" s="4">
         <f t="shared" si="160"/>
         <v>0.25</v>
       </c>
-      <c r="AL26" s="4">
+      <c r="AL27" s="4">
         <f t="shared" si="160"/>
         <v>0.25</v>
       </c>
-      <c r="AT26" s="4">
-        <f t="shared" ref="AT26:AU26" si="161">AT19/AT18</f>
+      <c r="AT27" s="4">
+        <f t="shared" ref="AT27:AU27" si="161">AT19/AT18</f>
         <v>0.63095238095238093</v>
       </c>
-      <c r="AU26" s="4">
+      <c r="AU27" s="4">
         <f t="shared" si="161"/>
         <v>0.60589970501474921</v>
       </c>
-      <c r="AV26" s="4">
-        <f t="shared" ref="AV26:AW26" si="162">AV19/AV18</f>
+      <c r="AV27" s="4">
+        <f t="shared" ref="AV27:AW27" si="162">AV19/AV18</f>
         <v>0.93522267206477738</v>
       </c>
-      <c r="AW26" s="4">
+      <c r="AW27" s="4">
         <f t="shared" si="162"/>
         <v>0.45860566448801743</v>
       </c>
-      <c r="AX26" s="4">
-        <f t="shared" ref="AX26:AY26" si="163">AX19/AX18</f>
+      <c r="AX27" s="4">
+        <f t="shared" ref="AX27:AY27" si="163">AX19/AX18</f>
         <v>0.40427698574338083</v>
       </c>
-      <c r="AY26" s="4">
+      <c r="AY27" s="4">
         <f t="shared" si="163"/>
         <v>0.40765256700032287</v>
       </c>
-      <c r="AZ26" s="4">
-        <f t="shared" ref="AZ26:BC26" si="164">AZ19/AZ18</f>
+      <c r="AZ27" s="4">
+        <f t="shared" ref="AZ27:BC27" si="164">AZ19/AZ18</f>
         <v>0.25</v>
       </c>
-      <c r="BA26" s="4">
+      <c r="BA27" s="4">
         <f t="shared" si="164"/>
         <v>0.25</v>
       </c>
-      <c r="BB26" s="4">
+      <c r="BB27" s="4">
         <f t="shared" si="164"/>
         <v>0.25</v>
       </c>
-      <c r="BC26" s="4">
+      <c r="BC27" s="4">
         <f t="shared" si="164"/>
         <v>0.25</v>
       </c>
-      <c r="BD26" s="4">
-        <f t="shared" ref="BD26:BN26" si="165">BD19/BD18</f>
+      <c r="BD27" s="4">
+        <f t="shared" ref="BD27:BN27" si="165">BD19/BD18</f>
         <v>0.25</v>
       </c>
-      <c r="BE26" s="4">
+      <c r="BE27" s="4">
         <f t="shared" si="165"/>
         <v>0.25</v>
       </c>
-      <c r="BF26" s="4">
+      <c r="BF27" s="4">
         <f t="shared" si="165"/>
         <v>0.25</v>
       </c>
-      <c r="BG26" s="4">
+      <c r="BG27" s="4">
         <f t="shared" si="165"/>
         <v>0.25</v>
       </c>
-      <c r="BH26" s="4">
+      <c r="BH27" s="4">
         <f t="shared" si="165"/>
         <v>0.25</v>
       </c>
-      <c r="BI26" s="4">
+      <c r="BI27" s="4">
         <f t="shared" si="165"/>
         <v>0.25</v>
       </c>
-      <c r="BJ26" s="4">
+      <c r="BJ27" s="4">
         <f t="shared" si="165"/>
         <v>0.25</v>
       </c>
-      <c r="BK26" s="4">
+      <c r="BK27" s="4">
         <f t="shared" si="165"/>
         <v>0.25</v>
       </c>
-      <c r="BL26" s="4">
+      <c r="BL27" s="4">
         <f t="shared" si="165"/>
         <v>0.25</v>
       </c>
-      <c r="BM26" s="4">
+      <c r="BM27" s="4">
         <f t="shared" si="165"/>
         <v>0.25</v>
       </c>
-      <c r="BN26" s="4">
+      <c r="BN27" s="4">
         <f t="shared" si="165"/>
         <v>0.25</v>
       </c>
-      <c r="BP26" t="s">
+      <c r="BP27" t="s">
         <v>37</v>
       </c>
-      <c r="BQ26" s="2">
+      <c r="BQ27" s="2">
         <f>NPV(BQ24,BA20:FC20)</f>
-        <v>499552.79584967485</v>
-      </c>
-    </row>
-    <row r="27" spans="2:130" x14ac:dyDescent="0.2">
-      <c r="BP27" s="2" t="s">
+        <v>498597.75659575296</v>
+      </c>
+    </row>
+    <row r="28" spans="2:130">
+      <c r="BP28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ28" s="1">
+        <f>Main!L2</f>
+        <v>128.69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:130">
+      <c r="BP29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BQ27" s="1">
-        <f>BQ26/Main!L3</f>
-        <v>174.91344392495617</v>
-      </c>
-    </row>
-    <row r="29" spans="2:130" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="BQ29" s="1">
+        <f>BQ27/Main!L3</f>
+        <v>174.57904642708436</v>
+      </c>
+    </row>
+    <row r="30" spans="2:130">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4">
-        <f t="shared" ref="AA29:AL29" si="166">AA7/W7-1</f>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4">
+        <f t="shared" ref="AA30:AL30" si="166">AA7/W7-1</f>
         <v>0.2133395847424624</v>
       </c>
-      <c r="AB29" s="4">
+      <c r="AB30" s="4">
         <f t="shared" si="166"/>
         <v>0.1895494305756722</v>
       </c>
-      <c r="AC29" s="4">
+      <c r="AC30" s="4">
         <f t="shared" si="166"/>
         <v>0.20569190812610194</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AD30" s="4">
         <f t="shared" si="166"/>
         <v>0.2963665781115794</v>
       </c>
-      <c r="AE29" s="4">
+      <c r="AE30" s="4">
         <f t="shared" si="166"/>
         <v>0.30443334446783554</v>
       </c>
-      <c r="AF29" s="4">
+      <c r="AF30" s="4">
+        <f t="shared" si="166"/>
+        <v>0.36400712868859286</v>
+      </c>
+      <c r="AG30" s="4">
         <f t="shared" si="166"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AG29" s="4">
+      <c r="AH30" s="4">
         <f t="shared" si="166"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AH29" s="4">
+      <c r="AI30" s="4">
         <f t="shared" si="166"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AI29" s="4">
+      <c r="AJ30" s="4">
         <f t="shared" si="166"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AK30" s="4">
         <f t="shared" si="166"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AK29" s="4">
+      <c r="AL30" s="4">
         <f t="shared" si="166"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL29" s="4">
-        <f t="shared" si="166"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="2:130" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
+      <c r="BQ30" s="15">
+        <f>BQ29/BQ28-1</f>
+        <v>0.3565859540530294</v>
+      </c>
+    </row>
+    <row r="31" spans="2:130" s="8" customFormat="1">
+      <c r="B31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10">
-        <f t="shared" ref="P30:AL30" si="167">P6/L6-1</f>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="10">
+        <f t="shared" ref="P31:AL31" si="167">P6/L6-1</f>
         <v>0.32374100719424459</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q31" s="10">
         <f t="shared" si="167"/>
         <v>0.27789934354485779</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R31" s="10">
         <f t="shared" si="167"/>
         <v>0.27950310559006208</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S31" s="10">
         <f t="shared" si="167"/>
         <v>0.26425855513307983</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T31" s="10">
         <f t="shared" si="167"/>
         <v>0.26630434782608692</v>
       </c>
-      <c r="U30" s="10">
+      <c r="U31" s="10">
         <f t="shared" si="167"/>
         <v>0.24657534246575352</v>
       </c>
-      <c r="V30" s="10">
+      <c r="V31" s="10">
         <f t="shared" si="167"/>
         <v>0.22491909385113273</v>
       </c>
-      <c r="W30" s="10">
+      <c r="W31" s="10">
         <f t="shared" si="167"/>
         <v>0.20601503759398487</v>
       </c>
-      <c r="X30" s="10">
+      <c r="X31" s="10">
         <f t="shared" si="167"/>
         <v>0.18597997138769662</v>
       </c>
-      <c r="Y30" s="10">
+      <c r="Y31" s="10">
         <f t="shared" si="167"/>
         <v>0.18681318681318682</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z31" s="10">
         <f t="shared" si="167"/>
         <v>0.17422574489945686</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AA31" s="10">
         <f t="shared" si="167"/>
         <v>0.16708229426433907</v>
       </c>
-      <c r="AB30" s="10">
+      <c r="AB31" s="10">
         <f t="shared" si="167"/>
         <v>0.16767189384800973</v>
       </c>
-      <c r="AC30" s="10">
+      <c r="AC31" s="10">
         <f t="shared" si="167"/>
         <v>0.1655092592592593</v>
       </c>
-      <c r="AD30" s="10">
+      <c r="AD31" s="10">
         <f t="shared" si="167"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="AE30" s="10">
+      <c r="AE31" s="10">
         <f t="shared" si="167"/>
         <v>0.16452991452991461</v>
       </c>
-      <c r="AF30" s="10">
+      <c r="AF31" s="10">
         <f t="shared" si="167"/>
-        <v>0.13729338842975225</v>
-      </c>
-      <c r="AG30" s="10">
+        <v>0.1673553719008265</v>
+      </c>
+      <c r="AG31" s="10">
         <f t="shared" si="167"/>
-        <v>0.10417974180734868</v>
-      </c>
-      <c r="AH30" s="10">
+        <v>0.13336643495531275</v>
+      </c>
+      <c r="AH31" s="10">
         <f t="shared" si="167"/>
-        <v>7.9834701923076956E-2</v>
-      </c>
-      <c r="AI30" s="10">
+        <v>0.10837788461538467</v>
+      </c>
+      <c r="AI31" s="10">
+        <f t="shared" si="167"/>
+        <v>6.8110211009174249E-2</v>
+      </c>
+      <c r="AJ31" s="10">
         <f t="shared" si="167"/>
         <v>4.0604010000000024E-2</v>
       </c>
-      <c r="AJ30" s="10">
+      <c r="AK31" s="10">
         <f t="shared" si="167"/>
         <v>4.0604010000000024E-2</v>
       </c>
-      <c r="AK30" s="10">
+      <c r="AL31" s="10">
         <f t="shared" si="167"/>
         <v>4.0604010000000024E-2</v>
       </c>
-      <c r="AL30" s="10">
-        <f t="shared" si="167"/>
-        <v>4.0604010000000024E-2</v>
-      </c>
-      <c r="AZ30" s="12">
-        <f t="shared" ref="AZ30:BN30" si="168">AZ6/AY6-1</f>
-        <v>6.3903146634615382E-2</v>
-      </c>
-      <c r="BA30" s="12">
+      <c r="AY31" s="12">
+        <f t="shared" ref="AX31:BN31" si="168">AY6/AX6-1</f>
+        <v>0.16985376827896514</v>
+      </c>
+      <c r="AZ31" s="12">
+        <f t="shared" si="168"/>
+        <v>8.5099278846153759E-2</v>
+      </c>
+      <c r="BA31" s="12">
         <f t="shared" si="168"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="BB30" s="12">
+      <c r="BB31" s="12">
         <f t="shared" si="168"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="BC30" s="12">
+      <c r="BC31" s="12">
         <f t="shared" si="168"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="BD30" s="12">
+      <c r="BD31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="BE30" s="12">
+      <c r="BE31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="BF30" s="12">
+      <c r="BF31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="BG30" s="12">
+      <c r="BG31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="BH30" s="12">
+      <c r="BH31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="BI30" s="12">
+      <c r="BI31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="BJ30" s="12">
+      <c r="BJ31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="BK30" s="12">
+      <c r="BK31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="BL30" s="12">
+      <c r="BL31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="BM30" s="12">
+      <c r="BM31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="BN30" s="12">
+      <c r="BN31" s="12">
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:130" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="2:130">
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="M31" s="4">
-        <f t="shared" ref="M31:AE31" si="169">M6/L6-1</f>
+      <c r="M32" s="4">
+        <f t="shared" ref="M32:AF32" si="169">M6/L6-1</f>
         <v>9.592326139088736E-2</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N32" s="4">
         <f t="shared" si="169"/>
         <v>5.6892778993435478E-2</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O32" s="4">
         <f t="shared" si="169"/>
         <v>8.9026915113871619E-2</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P32" s="4">
         <f t="shared" si="169"/>
         <v>4.9429657794676896E-2</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q32" s="4">
         <f t="shared" si="169"/>
         <v>5.7971014492753659E-2</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R32" s="4">
         <f t="shared" si="169"/>
         <v>5.821917808219168E-2</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S32" s="4">
         <f t="shared" si="169"/>
         <v>7.6051779935275121E-2</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T32" s="4">
         <f t="shared" si="169"/>
         <v>5.1127819548872244E-2</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U32" s="4">
         <f t="shared" si="169"/>
         <v>4.1487839771101598E-2</v>
       </c>
-      <c r="V31" s="4">
+      <c r="V32" s="4">
         <f t="shared" si="169"/>
         <v>3.9835164835164916E-2</v>
       </c>
-      <c r="W31" s="4">
+      <c r="W32" s="4">
         <f t="shared" si="169"/>
         <v>5.9445178335534976E-2</v>
       </c>
-      <c r="X31" s="4">
+      <c r="X32" s="4">
         <f t="shared" si="169"/>
         <v>3.366583541147139E-2</v>
       </c>
-      <c r="Y31" s="4">
+      <c r="Y32" s="4">
         <f t="shared" si="169"/>
         <v>4.2219541616405287E-2</v>
       </c>
-      <c r="Z31" s="4">
+      <c r="Z32" s="4">
         <f t="shared" si="169"/>
         <v>2.8806584362139898E-2</v>
       </c>
-      <c r="AA31" s="4">
+      <c r="AA32" s="4">
         <f t="shared" si="169"/>
         <v>5.2999999999999936E-2</v>
       </c>
-      <c r="AB31" s="4">
+      <c r="AB32" s="4">
         <f t="shared" si="169"/>
         <v>3.4188034188034289E-2</v>
       </c>
-      <c r="AC31" s="4">
+      <c r="AC32" s="4">
         <f t="shared" si="169"/>
         <v>4.0289256198347001E-2</v>
       </c>
-      <c r="AD31" s="4">
+      <c r="AD32" s="4">
         <f t="shared" si="169"/>
         <v>3.2770605759682159E-2</v>
       </c>
-      <c r="AE31" s="4">
+      <c r="AE32" s="4">
         <f t="shared" si="169"/>
         <v>4.8076923076923128E-2</v>
       </c>
-      <c r="AZ31" s="15"/>
-      <c r="BA31" s="15"/>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="15"/>
-      <c r="BD31" s="15"/>
-      <c r="BE31" s="15"/>
-      <c r="BF31" s="15"/>
-      <c r="BG31" s="15"/>
-      <c r="BH31" s="15"/>
-      <c r="BI31" s="15"/>
-      <c r="BJ31" s="15"/>
-      <c r="BK31" s="15"/>
-      <c r="BL31" s="15"/>
-      <c r="BM31" s="15"/>
-      <c r="BN31" s="15"/>
-    </row>
-    <row r="32" spans="2:130" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
+      <c r="AF32" s="4">
+        <f t="shared" si="169"/>
+        <v>3.669724770642202E-2</v>
+      </c>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="15"/>
+    </row>
+    <row r="33" spans="2:66" s="8" customFormat="1">
+      <c r="B33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="10">
-        <f t="shared" ref="P32:AD32" si="170">P4/L4-1</f>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="10">
+        <f>P4/L4-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q33" s="10">
+        <f>Q4/M4-1</f>
+        <v>6.4516129032258007E-2</v>
+      </c>
+      <c r="R33" s="10">
+        <f>R4/N4-1</f>
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="S33" s="10">
+        <f>S4/O4-1</f>
+        <v>7.7519379844961156E-2</v>
+      </c>
+      <c r="T33" s="10">
+        <f>T4/P4-1</f>
+        <v>9.2307692307692202E-2</v>
+      </c>
+      <c r="U33" s="10">
+        <f>U4/Q4-1</f>
+        <v>9.0909090909090828E-2</v>
+      </c>
+      <c r="V33" s="10">
+        <f>V4/R4-1</f>
+        <v>8.8888888888888795E-2</v>
+      </c>
+      <c r="W33" s="10">
+        <f>W4/S4-1</f>
+        <v>7.9136690647481966E-2</v>
+      </c>
+      <c r="X33" s="10">
+        <f>X4/T4-1</f>
+        <v>7.0422535211267512E-2</v>
+      </c>
+      <c r="Y33" s="10">
+        <f>Y4/U4-1</f>
+        <v>7.638888888888884E-2</v>
+      </c>
+      <c r="Z33" s="10">
+        <f>Z4/V4-1</f>
+        <v>6.8027210884353817E-2</v>
+      </c>
+      <c r="AA33" s="10">
+        <f>AA4/W4-1</f>
+        <v>7.333333333333325E-2</v>
+      </c>
+      <c r="AB33" s="10">
+        <f>AB4/X4-1</f>
+        <v>7.8947368421052655E-2</v>
+      </c>
+      <c r="AC33" s="10">
+        <f>AC4/Y4-1</f>
+        <v>7.7419354838709653E-2</v>
+      </c>
+      <c r="AD33" s="10">
+        <f>AD4/Z4-1</f>
+        <v>7.6433121019108263E-2</v>
+      </c>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AT33" s="12">
+        <f t="shared" ref="AT33:AY33" si="170">AT4/AS4-1</f>
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="AU33" s="12">
         <f t="shared" si="170"/>
-        <v>6.4516129032258007E-2</v>
-      </c>
-      <c r="R32" s="10">
+        <v>0.31843575418994408</v>
+      </c>
+      <c r="AV33" s="12">
         <f t="shared" si="170"/>
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="S32" s="10">
+        <v>0.11440677966101687</v>
+      </c>
+      <c r="AW33" s="12">
         <f t="shared" si="170"/>
-        <v>7.7519379844961156E-2</v>
-      </c>
-      <c r="T32" s="10">
+        <v>8.7452471482889704E-2</v>
+      </c>
+      <c r="AX33" s="12">
         <f t="shared" si="170"/>
-        <v>9.2307692307692202E-2</v>
-      </c>
-      <c r="U32" s="10">
+        <v>7.3426573426573327E-2</v>
+      </c>
+      <c r="AY33" s="12">
         <f t="shared" si="170"/>
-        <v>9.0909090909090828E-2</v>
-      </c>
-      <c r="V32" s="10">
-        <f t="shared" si="170"/>
-        <v>8.8888888888888795E-2</v>
-      </c>
-      <c r="W32" s="10">
-        <f t="shared" si="170"/>
-        <v>7.9136690647481966E-2</v>
-      </c>
-      <c r="X32" s="10">
-        <f t="shared" si="170"/>
-        <v>7.0422535211267512E-2</v>
-      </c>
-      <c r="Y32" s="10">
-        <f t="shared" si="170"/>
-        <v>7.638888888888884E-2</v>
-      </c>
-      <c r="Z32" s="10">
-        <f t="shared" si="170"/>
-        <v>6.8027210884353817E-2</v>
-      </c>
-      <c r="AA32" s="10">
-        <f t="shared" si="170"/>
-        <v>7.333333333333325E-2</v>
-      </c>
-      <c r="AB32" s="10">
-        <f t="shared" si="170"/>
-        <v>7.8947368421052655E-2</v>
-      </c>
-      <c r="AC32" s="10">
-        <f t="shared" si="170"/>
-        <v>7.7419354838709653E-2</v>
-      </c>
-      <c r="AD32" s="10">
-        <f t="shared" si="170"/>
-        <v>7.6433121019108263E-2</v>
-      </c>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
-      <c r="AL32" s="9"/>
-      <c r="AT32" s="12">
-        <f t="shared" ref="AT32:AY32" si="171">AT4/AS4-1</f>
-        <v>0.86458333333333326</v>
-      </c>
-      <c r="AU32" s="12">
-        <f t="shared" si="171"/>
-        <v>0.31843575418994408</v>
-      </c>
-      <c r="AV32" s="12">
-        <f t="shared" si="171"/>
-        <v>0.11440677966101687</v>
-      </c>
-      <c r="AW32" s="12">
-        <f t="shared" si="171"/>
-        <v>8.7452471482889704E-2</v>
-      </c>
-      <c r="AX32" s="12">
-        <f t="shared" si="171"/>
-        <v>7.3426573426573327E-2</v>
-      </c>
-      <c r="AY32" s="12">
-        <f t="shared" si="171"/>
         <v>7.654723127035834E-2</v>
       </c>
-      <c r="AZ32" s="12"/>
-      <c r="BA32" s="12"/>
-      <c r="BB32" s="12"/>
-      <c r="BC32" s="12"/>
-      <c r="BD32" s="12"/>
-      <c r="BE32" s="12"/>
-      <c r="BF32" s="12"/>
-      <c r="BG32" s="12"/>
-      <c r="BH32" s="12"/>
-      <c r="BI32" s="12"/>
-      <c r="BJ32" s="12"/>
-      <c r="BK32" s="12"/>
-      <c r="BL32" s="12"/>
-      <c r="BM32" s="12"/>
-      <c r="BN32" s="12"/>
-    </row>
-    <row r="33" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="12"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="12"/>
+      <c r="BG33" s="12"/>
+      <c r="BH33" s="12"/>
+      <c r="BI33" s="12"/>
+      <c r="BJ33" s="12"/>
+      <c r="BK33" s="12"/>
+      <c r="BL33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="12"/>
+    </row>
+    <row r="34" spans="2:66">
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="M33" s="4">
-        <f t="shared" ref="M33:AD33" si="172">M4/L4-1</f>
+      <c r="M34" s="4">
+        <f>M4/L4-1</f>
         <v>5.9829059829059839E-2</v>
       </c>
-      <c r="N33" s="4">
-        <f t="shared" si="172"/>
+      <c r="N34" s="4">
+        <f>N4/M4-1</f>
         <v>1.6129032258064502E-2</v>
       </c>
-      <c r="O33" s="4">
-        <f t="shared" si="172"/>
+      <c r="O34" s="4">
+        <f>O4/N4-1</f>
         <v>2.3809523809523725E-2</v>
       </c>
-      <c r="P33" s="4">
-        <f t="shared" si="172"/>
+      <c r="P34" s="4">
+        <f>P4/O4-1</f>
         <v>7.7519379844961378E-3</v>
       </c>
-      <c r="Q33" s="4">
-        <f t="shared" si="172"/>
+      <c r="Q34" s="4">
+        <f>Q4/P4-1</f>
         <v>1.538461538461533E-2</v>
       </c>
-      <c r="R33" s="4">
-        <f t="shared" si="172"/>
+      <c r="R34" s="4">
+        <f>R4/Q4-1</f>
         <v>2.2727272727272707E-2</v>
       </c>
-      <c r="S33" s="4">
-        <f t="shared" si="172"/>
+      <c r="S34" s="4">
+        <f>S4/R4-1</f>
         <v>2.9629629629629672E-2</v>
       </c>
-      <c r="T33" s="4">
-        <f t="shared" si="172"/>
+      <c r="T34" s="4">
+        <f>T4/S4-1</f>
         <v>2.1582733812949728E-2</v>
       </c>
-      <c r="U33" s="4">
-        <f t="shared" si="172"/>
+      <c r="U34" s="4">
+        <f>U4/T4-1</f>
         <v>1.4084507042253502E-2</v>
       </c>
-      <c r="V33" s="4">
-        <f t="shared" si="172"/>
+      <c r="V34" s="4">
+        <f>V4/U4-1</f>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="W33" s="4">
-        <f t="shared" si="172"/>
+      <c r="W34" s="4">
+        <f>W4/V4-1</f>
         <v>2.0408163265306145E-2</v>
       </c>
-      <c r="X33" s="4">
-        <f t="shared" si="172"/>
+      <c r="X34" s="4">
+        <f>X4/W4-1</f>
         <v>1.3333333333333419E-2</v>
       </c>
-      <c r="Y33" s="4">
-        <f t="shared" si="172"/>
+      <c r="Y34" s="4">
+        <f>Y4/X4-1</f>
         <v>1.9736842105263053E-2</v>
       </c>
-      <c r="Z33" s="4">
-        <f t="shared" si="172"/>
+      <c r="Z34" s="4">
+        <f>Z4/Y4-1</f>
         <v>1.2903225806451646E-2</v>
       </c>
-      <c r="AA33" s="4">
-        <f t="shared" si="172"/>
+      <c r="AA34" s="4">
+        <f>AA4/Z4-1</f>
         <v>2.5477707006369421E-2</v>
       </c>
-      <c r="AB33" s="4">
-        <f t="shared" si="172"/>
+      <c r="AB34" s="4">
+        <f>AB4/AA4-1</f>
         <v>1.8633540372670732E-2</v>
       </c>
-      <c r="AC33" s="4">
-        <f t="shared" si="172"/>
+      <c r="AC34" s="4">
+        <f>AC4/AB4-1</f>
         <v>1.8292682926829285E-2</v>
       </c>
-      <c r="AD33" s="4">
-        <f t="shared" si="172"/>
+      <c r="AD34" s="4">
+        <f>AD4/AC4-1</f>
         <v>1.1976047904191711E-2</v>
       </c>
-      <c r="AZ33" s="15"/>
-      <c r="BA33" s="15"/>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="15"/>
-      <c r="BD33" s="15"/>
-      <c r="BE33" s="15"/>
-      <c r="BF33" s="15"/>
-      <c r="BG33" s="15"/>
-      <c r="BH33" s="15"/>
-      <c r="BI33" s="15"/>
-      <c r="BJ33" s="15"/>
-      <c r="BK33" s="15"/>
-      <c r="BL33" s="15"/>
-      <c r="BM33" s="15"/>
-      <c r="BN33" s="15"/>
-    </row>
-    <row r="34" spans="2:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
+      <c r="AF34" s="4"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="15"/>
+      <c r="BL34" s="15"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="15"/>
+    </row>
+    <row r="35" spans="2:66" s="8" customFormat="1">
+      <c r="B35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="10">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="10">
         <f>AA9/W9-1</f>
         <v>0.4160671462829737</v>
       </c>
-      <c r="AB34" s="10">
+      <c r="AB35" s="10">
         <f>AB9/X9-1</f>
         <v>0.38900343642611679</v>
       </c>
-      <c r="AC34" s="10">
+      <c r="AC35" s="10">
         <f>AC9/Y9-1</f>
         <v>0.40524508273493609</v>
       </c>
-      <c r="AD34" s="10">
+      <c r="AD35" s="10">
         <f>AD9/Z9-1</f>
         <v>0.516748896390548</v>
       </c>
-      <c r="AE34" s="10">
+      <c r="AE35" s="10">
         <f>AE9/AA9-1</f>
         <v>0.51905165114309915</v>
       </c>
-      <c r="AF34" s="10">
-        <f t="shared" ref="AF34:AL34" si="173">AF9/AB9-1</f>
-        <v>0.47848140495867786</v>
-      </c>
-      <c r="AG34" s="10">
-        <f t="shared" si="173"/>
-        <v>0.43543366434955333</v>
-      </c>
-      <c r="AH34" s="10">
-        <f t="shared" si="173"/>
-        <v>0.40378511250000004</v>
-      </c>
-      <c r="AI34" s="10">
-        <f t="shared" si="173"/>
+      <c r="AF35" s="10">
+        <f t="shared" ref="AF35:AL35" si="171">AF9/AB9-1</f>
+        <v>0.5922810489856507</v>
+      </c>
+      <c r="AG35" s="10">
+        <f t="shared" si="171"/>
+        <v>0.47337636544190653</v>
+      </c>
+      <c r="AH35" s="10">
+        <f t="shared" si="171"/>
+        <v>0.44089124999999996</v>
+      </c>
+      <c r="AI35" s="10">
+        <f t="shared" si="171"/>
+        <v>0.38854327431192659</v>
+      </c>
+      <c r="AJ35" s="10">
+        <f t="shared" si="171"/>
         <v>0.35278521299999999</v>
       </c>
-      <c r="AJ34" s="10">
-        <f t="shared" si="173"/>
+      <c r="AK35" s="10">
+        <f t="shared" si="171"/>
         <v>0.35278521299999999</v>
       </c>
-      <c r="AK34" s="10">
-        <f t="shared" si="173"/>
+      <c r="AL35" s="10">
+        <f t="shared" si="171"/>
         <v>0.35278521299999999</v>
       </c>
-      <c r="AL34" s="10">
-        <f t="shared" si="173"/>
-        <v>0.35278521300000021</v>
-      </c>
-      <c r="AU34" s="12">
-        <f t="shared" ref="AU34:BB34" si="174">AU9/AT9-1</f>
+      <c r="AU35" s="12">
+        <f t="shared" ref="AU35:BB35" si="172">AU9/AT9-1</f>
         <v>0.87993920972644379</v>
       </c>
-      <c r="AV34" s="12">
+      <c r="AV35" s="12">
+        <f t="shared" si="172"/>
+        <v>0.37132848288870934</v>
+      </c>
+      <c r="AW35" s="12">
+        <f t="shared" si="172"/>
+        <v>0.5468657889565729</v>
+      </c>
+      <c r="AX35" s="12">
+        <f t="shared" si="172"/>
+        <v>0.58358739837398366</v>
+      </c>
+      <c r="AY35" s="12">
+        <f t="shared" si="172"/>
+        <v>0.43815177282207607</v>
+      </c>
+      <c r="AZ35" s="12">
+        <f t="shared" si="172"/>
+        <v>0.49854489134895275</v>
+      </c>
+      <c r="BA35" s="12">
+        <f t="shared" si="172"/>
+        <v>0.37642097030748478</v>
+      </c>
+      <c r="BB35" s="12">
+        <f t="shared" si="172"/>
+        <v>0.32600000000000007</v>
+      </c>
+      <c r="BC35" s="12">
+        <f t="shared" ref="BC35" si="173">BC9/BB9-1</f>
+        <v>0.32600000000000007</v>
+      </c>
+      <c r="BD35" s="12">
+        <f t="shared" ref="BD35:BN35" si="174">BD9/BC9-1</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="BE35" s="12">
         <f t="shared" si="174"/>
-        <v>0.37132848288870934</v>
-      </c>
-      <c r="AW34" s="12">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="BF35" s="12">
         <f t="shared" si="174"/>
-        <v>0.5468657889565729</v>
-      </c>
-      <c r="AX34" s="12">
+        <v>2.9999999999999805E-2</v>
+      </c>
+      <c r="BG35" s="12">
         <f t="shared" si="174"/>
-        <v>0.58358739837398366</v>
-      </c>
-      <c r="AY34" s="12">
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="BH35" s="12">
         <f t="shared" si="174"/>
-        <v>0.43815177282207607</v>
-      </c>
-      <c r="AZ34" s="12">
+        <v>2.9999999999999805E-2</v>
+      </c>
+      <c r="BI35" s="12">
         <f t="shared" si="174"/>
-        <v>0.45127273561985803</v>
-      </c>
-      <c r="BA34" s="12">
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="BJ35" s="12">
         <f t="shared" si="174"/>
-        <v>0.39349245051820803</v>
-      </c>
-      <c r="BB34" s="12">
+        <v>2.9999999999999805E-2</v>
+      </c>
+      <c r="BK35" s="12">
         <f t="shared" si="174"/>
-        <v>0.32600000000000029</v>
-      </c>
-      <c r="BC34" s="12">
-        <f t="shared" ref="BC34" si="175">BC9/BB9-1</f>
-        <v>0.32600000000000007</v>
-      </c>
-      <c r="BD34" s="12">
-        <f t="shared" ref="BD34:BN34" si="176">BD9/BC9-1</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="BL35" s="12">
+        <f t="shared" si="174"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="BM35" s="12">
+        <f t="shared" si="174"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="BN35" s="12">
+        <f t="shared" si="174"/>
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="BE34" s="12">
-        <f t="shared" si="176"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="BF34" s="12">
-        <f t="shared" si="176"/>
-        <v>3.0000000000000249E-2</v>
-      </c>
-      <c r="BG34" s="12">
-        <f t="shared" si="176"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="BH34" s="12">
-        <f t="shared" si="176"/>
-        <v>2.9999999999999805E-2</v>
-      </c>
-      <c r="BI34" s="12">
-        <f t="shared" si="176"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="BJ34" s="12">
-        <f t="shared" si="176"/>
-        <v>2.9999999999999805E-2</v>
-      </c>
-      <c r="BK34" s="12">
-        <f t="shared" si="176"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="BL34" s="12">
-        <f t="shared" si="176"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="BM34" s="12">
-        <f t="shared" si="176"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="BN34" s="12">
-        <f t="shared" si="176"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+    </row>
+    <row r="38" spans="2:66" s="2" customFormat="1">
+      <c r="B38" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5">
-        <f>4907+13527</f>
-        <v>18434</v>
-      </c>
-      <c r="AE37" s="5">
-        <f>6456+14165</f>
-        <v>20621</v>
-      </c>
-      <c r="AF37" s="5">
-        <f>+AE37+AF20</f>
-        <v>23099.546586053719</v>
-      </c>
-      <c r="AG37" s="5">
-        <f t="shared" ref="AG37:AH37" si="177">+AF37+AG20</f>
-        <v>25660.993651541801</v>
-      </c>
-      <c r="AH37" s="5">
-        <f t="shared" si="177"/>
-        <v>29195.014354704363</v>
-      </c>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
-      <c r="AZ37" s="2">
-        <f>+AH37</f>
-        <v>29195.014354704363</v>
-      </c>
-      <c r="BA37" s="2">
-        <f>+AZ37+BA20</f>
-        <v>44011.35677719822</v>
-      </c>
-      <c r="BB37" s="2">
-        <f t="shared" ref="BB37:BN37" si="178">+BA37+BB20</f>
-        <v>64288.410704425085</v>
-      </c>
-      <c r="BC37" s="2">
-        <f t="shared" si="178"/>
-        <v>92928.34021624428</v>
-      </c>
-      <c r="BD37" s="2">
-        <f t="shared" si="178"/>
-        <v>123865.28130252835</v>
-      </c>
-      <c r="BE37" s="2">
-        <f t="shared" si="178"/>
-        <v>157137.8542892854</v>
-      </c>
-      <c r="BF37" s="2">
-        <f t="shared" si="178"/>
-        <v>192787.9766233135</v>
-      </c>
-      <c r="BG37" s="2">
-        <f t="shared" si="178"/>
-        <v>230860.86422042316</v>
-      </c>
-      <c r="BH37" s="2">
-        <f t="shared" si="178"/>
-        <v>271405.03787277872</v>
-      </c>
-      <c r="BI37" s="2">
-        <f t="shared" si="178"/>
-        <v>314472.33461830474</v>
-      </c>
-      <c r="BJ37" s="2">
-        <f t="shared" si="178"/>
-        <v>360117.92398466461</v>
-      </c>
-      <c r="BK37" s="2">
-        <f t="shared" si="178"/>
-        <v>408400.32902954397</v>
-      </c>
-      <c r="BL37" s="2">
-        <f t="shared" si="178"/>
-        <v>459381.45210788073</v>
-      </c>
-      <c r="BM37" s="2">
-        <f t="shared" si="178"/>
-        <v>513126.60530529881</v>
-      </c>
-      <c r="BN37" s="2">
-        <f t="shared" si="178"/>
-        <v>569704.54548534064</v>
-      </c>
-    </row>
-    <row r="38" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -5614,22 +5853,93 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5">
-        <v>2559</v>
+        <f>4907+13527</f>
+        <v>18434</v>
       </c>
       <c r="AE38" s="5">
-        <v>2348</v>
-      </c>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
+        <f>6456+14165</f>
+        <v>20621</v>
+      </c>
+      <c r="AF38" s="5">
+        <f>5108+18185</f>
+        <v>23293</v>
+      </c>
+      <c r="AG38" s="5">
+        <f t="shared" ref="AG38:AH38" si="175">+AF38+AG20</f>
+        <v>25964.600228450843</v>
+      </c>
+      <c r="AH38" s="5">
+        <f t="shared" si="175"/>
+        <v>29638.416263807092</v>
+      </c>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
-    </row>
-    <row r="39" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AZ38" s="2">
+        <f>+AH38</f>
+        <v>29638.416263807092</v>
+      </c>
+      <c r="BA38" s="2">
+        <f>+AZ38+BA20</f>
+        <v>44049.608074215314</v>
+      </c>
+      <c r="BB38" s="2">
+        <f t="shared" ref="BB38:BN38" si="176">+BA38+BB20</f>
+        <v>63836.470977316611</v>
+      </c>
+      <c r="BC38" s="2">
+        <f t="shared" si="176"/>
+        <v>91903.288954613672</v>
+      </c>
+      <c r="BD38" s="2">
+        <f t="shared" si="176"/>
+        <v>122351.61193832432</v>
+      </c>
+      <c r="BE38" s="2">
+        <f t="shared" si="176"/>
+        <v>155218.61635517864</v>
+      </c>
+      <c r="BF38" s="2">
+        <f t="shared" si="176"/>
+        <v>190544.94795538008</v>
+      </c>
+      <c r="BG38" s="2">
+        <f t="shared" si="176"/>
+        <v>228374.71779969364</v>
+      </c>
+      <c r="BH38" s="2">
+        <f t="shared" si="176"/>
+        <v>268755.50367491116</v>
+      </c>
+      <c r="BI38" s="2">
+        <f t="shared" si="176"/>
+        <v>311738.35682526883</v>
+      </c>
+      <c r="BJ38" s="2">
+        <f t="shared" si="176"/>
+        <v>357377.81389781588</v>
+      </c>
+      <c r="BK38" s="2">
+        <f t="shared" si="176"/>
+        <v>405731.91400977934</v>
+      </c>
+      <c r="BL38" s="2">
+        <f t="shared" si="176"/>
+        <v>456862.22085566411</v>
+      </c>
+      <c r="BM38" s="2">
+        <f t="shared" si="176"/>
+        <v>510833.84978118946</v>
+      </c>
+      <c r="BN38" s="2">
+        <f t="shared" si="176"/>
+        <v>567715.49976021447</v>
+      </c>
+    </row>
+    <row r="39" spans="2:66" s="2" customFormat="1">
       <c r="B39" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -5659,12 +5969,14 @@
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5">
-        <v>659</v>
+        <v>2559</v>
       </c>
       <c r="AE39" s="5">
-        <v>843</v>
-      </c>
-      <c r="AF39" s="5"/>
+        <v>2348</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>2801</v>
+      </c>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
@@ -5672,9 +5984,9 @@
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
     </row>
-    <row r="40" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:66" s="2" customFormat="1">
       <c r="B40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -5704,12 +6016,14 @@
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5">
-        <v>5687</v>
+        <v>659</v>
       </c>
       <c r="AE40" s="5">
-        <v>6467</v>
-      </c>
-      <c r="AF40" s="5"/>
+        <v>843</v>
+      </c>
+      <c r="AF40" s="5">
+        <v>916</v>
+      </c>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
@@ -5717,9 +6031,9 @@
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
     </row>
-    <row r="41" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:66" s="2" customFormat="1">
       <c r="B41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -5743,20 +6057,20 @@
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="17"/>
+      <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5">
-        <f>3246+18026</f>
-        <v>21272</v>
+        <v>5687</v>
       </c>
       <c r="AE41" s="5">
-        <f>3067+18029</f>
-        <v>21096</v>
-      </c>
-      <c r="AF41" s="5"/>
+        <v>6467</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>7104</v>
+      </c>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
@@ -5764,9 +6078,9 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:66" s="2" customFormat="1">
       <c r="B42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -5790,18 +6104,23 @@
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
+      <c r="Y42" s="17"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5">
-        <v>796</v>
+        <f>3246+18026</f>
+        <v>21272</v>
       </c>
       <c r="AE42" s="5">
-        <v>700</v>
-      </c>
-      <c r="AF42" s="5"/>
+        <f>3067+18029</f>
+        <v>21096</v>
+      </c>
+      <c r="AF42" s="5">
+        <f>2879+18043</f>
+        <v>20922</v>
+      </c>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
@@ -5809,9 +6128,9 @@
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
     </row>
-    <row r="43" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:66" s="2" customFormat="1">
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -5841,14 +6160,14 @@
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5">
-        <f>SUM(AD37:AD42)</f>
-        <v>49407</v>
+        <v>796</v>
       </c>
       <c r="AE43" s="5">
-        <f>SUM(AE37:AE42)</f>
-        <v>52075</v>
-      </c>
-      <c r="AF43" s="5"/>
+        <v>700</v>
+      </c>
+      <c r="AF43" s="5">
+        <v>703</v>
+      </c>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
@@ -5856,7 +6175,10 @@
       <c r="AK43" s="5"/>
       <c r="AL43" s="5"/>
     </row>
-    <row r="44" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:66" s="2" customFormat="1">
+      <c r="B44" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -5884,9 +6206,18 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
+      <c r="AD44" s="5">
+        <f>SUM(AD38:AD43)</f>
+        <v>49407</v>
+      </c>
+      <c r="AE44" s="5">
+        <f>SUM(AE38:AE43)</f>
+        <v>52075</v>
+      </c>
+      <c r="AF44" s="5">
+        <f>SUM(AF38:AF43)</f>
+        <v>55739</v>
+      </c>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
@@ -5894,10 +6225,7 @@
       <c r="AK44" s="5"/>
       <c r="AL44" s="5"/>
     </row>
-    <row r="45" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>74</v>
-      </c>
+    <row r="45" spans="2:66" s="2" customFormat="1">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -5925,12 +6253,8 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
-      <c r="AD45" s="5">
-        <v>196</v>
-      </c>
-      <c r="AE45" s="5">
-        <v>149</v>
-      </c>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
@@ -5939,9 +6263,9 @@
       <c r="AK45" s="5"/>
       <c r="AL45" s="5"/>
     </row>
-    <row r="46" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:66" s="2" customFormat="1">
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -5971,12 +6295,14 @@
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="AE46" s="5">
-        <v>216</v>
-      </c>
-      <c r="AF46" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="AF46" s="5">
+        <v>130</v>
+      </c>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
@@ -5984,9 +6310,9 @@
       <c r="AK46" s="5"/>
       <c r="AL46" s="5"/>
     </row>
-    <row r="47" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:66" s="2" customFormat="1">
       <c r="B47" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -6016,12 +6342,14 @@
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5">
-        <v>1449</v>
+        <v>217</v>
       </c>
       <c r="AE47" s="5">
-        <v>1389</v>
-      </c>
-      <c r="AF47" s="5"/>
+        <v>216</v>
+      </c>
+      <c r="AF47" s="5">
+        <v>232</v>
+      </c>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
@@ -6029,9 +6357,9 @@
       <c r="AK47" s="5"/>
       <c r="AL47" s="5"/>
     </row>
-    <row r="48" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:66" s="2" customFormat="1">
       <c r="B48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -6061,12 +6389,14 @@
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5">
-        <v>56</v>
+        <v>1449</v>
       </c>
       <c r="AE48" s="5">
-        <v>55</v>
-      </c>
-      <c r="AF48" s="5"/>
+        <v>1389</v>
+      </c>
+      <c r="AF48" s="5">
+        <v>1770</v>
+      </c>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
@@ -6074,9 +6404,9 @@
       <c r="AK48" s="5"/>
       <c r="AL48" s="5"/>
     </row>
-    <row r="49" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:38" s="2" customFormat="1">
       <c r="B49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -6106,13 +6436,14 @@
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5">
-        <f>7+107</f>
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="AE49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="AF49" s="5">
+        <v>79</v>
+      </c>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
@@ -6120,9 +6451,9 @@
       <c r="AK49" s="5"/>
       <c r="AL49" s="5"/>
     </row>
-    <row r="50" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:38" s="2" customFormat="1">
       <c r="B50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -6152,12 +6483,15 @@
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5">
-        <v>3157</v>
+        <f>7+107</f>
+        <v>114</v>
       </c>
       <c r="AE50" s="5">
-        <v>3116</v>
-      </c>
-      <c r="AF50" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="5">
+        <v>0</v>
+      </c>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
@@ -6165,9 +6499,9 @@
       <c r="AK50" s="5"/>
       <c r="AL50" s="5"/>
     </row>
-    <row r="51" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:38" s="2" customFormat="1">
       <c r="B51" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -6197,12 +6531,14 @@
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5">
-        <v>44218</v>
+        <v>3157</v>
       </c>
       <c r="AE51" s="5">
-        <v>47150</v>
-      </c>
-      <c r="AF51" s="5"/>
+        <v>3116</v>
+      </c>
+      <c r="AF51" s="5">
+        <v>3145</v>
+      </c>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
@@ -6210,9 +6546,9 @@
       <c r="AK51" s="5"/>
       <c r="AL51" s="5"/>
     </row>
-    <row r="52" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:38" s="2" customFormat="1">
       <c r="B52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -6242,14 +6578,14 @@
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5">
-        <f>SUM(AD45:AD51)</f>
-        <v>49407</v>
+        <v>44218</v>
       </c>
       <c r="AE52" s="5">
-        <f>SUM(AE45:AE51)</f>
-        <v>52075</v>
-      </c>
-      <c r="AF52" s="5"/>
+        <v>47150</v>
+      </c>
+      <c r="AF52" s="5">
+        <v>50383</v>
+      </c>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
@@ -6257,136 +6593,175 @@
       <c r="AK52" s="5"/>
       <c r="AL52" s="5"/>
     </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
+    <row r="53" spans="2:38" s="2" customFormat="1">
+      <c r="B53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5">
+        <f>SUM(AD46:AD52)</f>
+        <v>49407</v>
+      </c>
+      <c r="AE53" s="5">
+        <f>SUM(AE46:AE52)</f>
+        <v>52075</v>
+      </c>
+      <c r="AF53" s="5">
+        <f>SUM(AF46:AF52)</f>
+        <v>55739</v>
+      </c>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+    </row>
+    <row r="56" spans="2:38">
+      <c r="B56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AE55" s="5">
+      <c r="AE56" s="5">
         <f>AE20</f>
         <v>1510</v>
       </c>
-    </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
+      <c r="AF56" s="5">
+        <f>AF20</f>
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="57" spans="2:38">
+      <c r="B57" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AE56" s="5">
+      <c r="AE57" s="5">
         <f>+AE20</f>
         <v>1510</v>
       </c>
-    </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+      <c r="AF57" s="5">
+        <f>+AF20</f>
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="58" spans="2:38">
+      <c r="B58" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AE58" s="3">
         <v>552</v>
       </c>
-    </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
+      <c r="AF58" s="3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="59" spans="2:38">
+      <c r="B59" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AE59" s="3">
         <v>747</v>
       </c>
-    </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
+      <c r="AF59" s="3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="60" spans="2:38">
+      <c r="B60" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AE60" s="3">
         <v>-65</v>
       </c>
-    </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+      <c r="AF60" s="3">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:38">
+      <c r="B61" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AE61" s="3">
         <v>494</v>
       </c>
-    </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE61" s="3">
-        <v>-494</v>
-      </c>
-    </row>
-    <row r="62" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62" spans="2:38">
       <c r="B62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="AE62" s="3">
+        <v>-494</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>-467</v>
+      </c>
+    </row>
+    <row r="63" spans="2:38">
+      <c r="B63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE63" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
+      <c r="AF63" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:38">
+      <c r="B64" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE63" s="3">
-        <f>267-106+15+2-3-16-2+69</f>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
+      <c r="AE64" s="3">
+        <v>267</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>-492</v>
+      </c>
+    </row>
+    <row r="65" spans="2:38">
+      <c r="B65" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AE64" s="5">
-        <f>SUM(AE56:AE63)</f>
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="66" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
+      <c r="AE65" s="5">
+        <f>SUM(AE57:AE64)</f>
+        <v>3024</v>
+      </c>
+      <c r="AF65" s="5">
+        <f>SUM(AF57:AF64)</f>
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="67" spans="2:38" s="2" customFormat="1">
+      <c r="B67" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5">
-        <v>-1132</v>
-      </c>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="5"/>
-      <c r="AH66" s="5"/>
-      <c r="AI66" s="5"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="5"/>
-      <c r="AL66" s="5"/>
-    </row>
-    <row r="67" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -6417,10 +6792,11 @@
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5">
-        <f>-3126+2013+537</f>
-        <v>-576</v>
-      </c>
-      <c r="AF67" s="5"/>
+        <v>-1132</v>
+      </c>
+      <c r="AF67" s="5">
+        <v>-995</v>
+      </c>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
       <c r="AI67" s="5"/>
@@ -6428,9 +6804,9 @@
       <c r="AK67" s="5"/>
       <c r="AL67" s="5"/>
     </row>
-    <row r="68" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:38" s="2" customFormat="1">
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -6461,9 +6837,13 @@
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AF68" s="5"/>
+        <f>-3126+2013+537</f>
+        <v>-576</v>
+      </c>
+      <c r="AF68" s="5">
+        <f>-6509+2145+366</f>
+        <v>-3998</v>
+      </c>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
       <c r="AI68" s="5"/>
@@ -6471,9 +6851,9 @@
       <c r="AK68" s="5"/>
       <c r="AL68" s="5"/>
     </row>
-    <row r="69" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:38" s="2" customFormat="1">
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -6504,9 +6884,11 @@
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5">
-        <v>33</v>
-      </c>
-      <c r="AF69" s="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AF69" s="5">
+        <v>-19</v>
+      </c>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
       <c r="AI69" s="5"/>
@@ -6514,9 +6896,9 @@
       <c r="AK69" s="5"/>
       <c r="AL69" s="5"/>
     </row>
-    <row r="70" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:38" s="2" customFormat="1">
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -6547,10 +6929,11 @@
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5">
-        <f>SUM(AE66:AE69)</f>
-        <v>-1676</v>
-      </c>
-      <c r="AF70" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="AF70" s="5">
+        <v>41</v>
+      </c>
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
@@ -6558,73 +6941,149 @@
       <c r="AK70" s="5"/>
       <c r="AL70" s="5"/>
     </row>
-    <row r="72" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
+    <row r="71" spans="2:38" s="2" customFormat="1">
+      <c r="B71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5">
+        <f>SUM(AE67:AE70)</f>
+        <v>-1676</v>
+      </c>
+      <c r="AF71" s="5">
+        <f>SUM(AF67:AF70)</f>
+        <v>-4971</v>
+      </c>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+    </row>
+    <row r="73" spans="2:38">
+      <c r="B73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AE73" s="3">
         <v>-312</v>
       </c>
-    </row>
-    <row r="73" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
+      <c r="AF73" s="3">
+        <v>-312</v>
+      </c>
+    </row>
+    <row r="74" spans="2:38">
+      <c r="B74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AE73" s="3">
+      <c r="AE74" s="3">
         <v>494</v>
       </c>
-    </row>
-    <row r="74" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+      <c r="AF74" s="3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75" spans="2:38">
+      <c r="B75" t="s">
         <v>95</v>
       </c>
-      <c r="AE74" s="3">
+      <c r="AE75" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+      <c r="AF75" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:38">
+      <c r="B76" t="s">
         <v>102</v>
       </c>
-      <c r="AE75" s="3">
-        <f>SUM(AE72:AE74)</f>
+      <c r="AE76" s="3">
+        <f>SUM(AE73:AE75)</f>
         <v>184</v>
       </c>
-    </row>
-    <row r="77" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+      <c r="AF76" s="3">
+        <f>SUM(AF73:AF75)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="2:38">
+      <c r="B78" t="s">
         <v>105</v>
       </c>
-      <c r="AE77" s="5">
-        <f>AE75+AE70+AE64</f>
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="78" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+      <c r="AE78" s="5">
+        <f>AE76+AE71+AE65</f>
+        <v>1532</v>
+      </c>
+      <c r="AF78" s="5">
+        <f>AF76+AF71+AF65</f>
+        <v>-1905</v>
+      </c>
+    </row>
+    <row r="79" spans="2:38">
+      <c r="B79" t="s">
         <v>104</v>
       </c>
-      <c r="AE78" s="5">
-        <f>AE37-AD37</f>
+      <c r="AE79" s="5">
+        <f>AE38-AD38</f>
         <v>2187</v>
       </c>
-    </row>
-    <row r="79" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+      <c r="AF79" s="5">
+        <f>AF38-AE38</f>
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="80" spans="2:38">
+      <c r="B80" t="s">
         <v>106</v>
       </c>
-      <c r="AE79" s="5">
-        <f>AE64+AE66</f>
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="80" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+      <c r="AE80" s="5">
+        <f>AE65+AE67</f>
+        <v>1892</v>
+      </c>
+      <c r="AF80" s="5">
+        <f>AF65+AF67</f>
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="81" spans="2:32">
+      <c r="B81" t="s">
         <v>107</v>
       </c>
-      <c r="AE80" s="5">
-        <f>AE79-AE58</f>
-        <v>1104</v>
+      <c r="AE81" s="5">
+        <f>AE80-AE59</f>
+        <v>1145</v>
+      </c>
+      <c r="AF81" s="5">
+        <f>AF80-AF59</f>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -6632,7 +7091,9 @@
     <hyperlink ref="A1" location="Main!A1" display="Main"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/investing spreadsheets/FB.xlsx
+++ b/investing spreadsheets/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="-20" windowWidth="16800" windowHeight="20540" activeTab="1"/>
+    <workbookView xWindow="16725" yWindow="-15" windowWidth="16800" windowHeight="20535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,6 +26,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Editor 1</author>
+    <author>LOOK</author>
   </authors>
   <commentList>
     <comment ref="B6" authorId="0">
@@ -66,12 +67,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>LOOK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+For 2015, 2014, and 2013, advertising accounted for 95%, 92% and 89%, respectively, of our revenue. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>Price</t>
   </si>
@@ -148,9 +173,6 @@
     <t>G&amp;A</t>
   </si>
   <si>
-    <t>Operating Profit</t>
-  </si>
-  <si>
     <t>Operating Income</t>
   </si>
   <si>
@@ -397,23 +419,50 @@
     <t>FCF-SBC</t>
   </si>
   <si>
-    <t>China?</t>
-  </si>
-  <si>
-    <t>Livestreaming</t>
-  </si>
-  <si>
     <t>Net Margin</t>
   </si>
   <si>
     <t>Current</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Messaging</t>
+  </si>
+  <si>
+    <t>Google Plus, SnapChat, LinkedIn</t>
+  </si>
+  <si>
+    <t>HTC Vive, Samsung Gear, Google DayDream</t>
+  </si>
+  <si>
+    <t>WeChat, LINE, Skype, QQ</t>
+  </si>
+  <si>
+    <t>Advertising</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -467,6 +516,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -511,7 +573,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -554,6 +616,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -645,13 +710,13 @@
       <xdr:col>51</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>16566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -660,8 +725,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10839450" y="0"/>
-          <a:ext cx="0" cy="7772400"/>
+          <a:off x="30393861" y="16566"/>
+          <a:ext cx="0" cy="8961783"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -976,7 +1041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -986,13 +1051,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -1003,9 +1074,12 @@
         <v>42640</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
@@ -1017,9 +1091,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -1030,7 +1107,13 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -1042,7 +1125,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>5</v>
       </c>
@@ -1074,26 +1160,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ81"/>
+  <dimension ref="A1:GF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BD3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BQ23" sqref="BQ23"/>
+      <selection pane="bottomRight" activeCell="AL64" sqref="AL64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="38" width="8.83203125" style="3"/>
-    <col min="69" max="69" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="38" width="8.85546875" style="3"/>
+    <col min="69" max="69" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="13">
+    <row r="1" spans="1:66" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W1" s="21">
         <v>41729</v>
@@ -1126,66 +1212,66 @@
         <v>42551</v>
       </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="O2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="S2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>8</v>
@@ -1224,16 +1310,16 @@
         <v>18</v>
       </c>
       <c r="AI2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AN2">
         <f t="shared" ref="AN2:AW2" si="0">+AO2-1</f>
@@ -1343,9 +1429,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -1372,9 +1458,9 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3">
         <v>35</v>
@@ -1489,7 +1575,7 @@
         <v>165.25</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <f t="shared" ref="C5" si="2">C4/(318.9+35.16)</f>
         <v>9.8853301700276799E-2</v>
@@ -1631,9 +1717,9 @@
         <v>0.46672880302773551</v>
       </c>
     </row>
-    <row r="6" spans="1:66" s="14" customFormat="1">
+    <row r="6" spans="1:66" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11">
         <v>92</v>
@@ -1727,27 +1813,27 @@
         <v>1130</v>
       </c>
       <c r="AG6" s="11">
-        <f t="shared" ref="AG6:AH6" si="11">+AF6*1.01</f>
+        <f>+AF6*1.01</f>
         <v>1141.3</v>
       </c>
       <c r="AH6" s="11">
-        <f t="shared" si="11"/>
+        <f>+AG6*1.01</f>
         <v>1152.713</v>
       </c>
       <c r="AI6" s="11">
-        <f t="shared" ref="AI6" si="12">+AH6*1.01</f>
+        <f t="shared" ref="AI6" si="11">+AH6*1.01</f>
         <v>1164.2401299999999</v>
       </c>
       <c r="AJ6" s="11">
-        <f t="shared" ref="AJ6" si="13">+AI6*1.01</f>
+        <f t="shared" ref="AJ6" si="12">+AI6*1.01</f>
         <v>1175.8825313</v>
       </c>
       <c r="AK6" s="11">
-        <f t="shared" ref="AK6" si="14">+AJ6*1.01</f>
+        <f t="shared" ref="AK6" si="13">+AJ6*1.01</f>
         <v>1187.641356613</v>
       </c>
       <c r="AL6" s="11">
-        <f t="shared" ref="AL6" si="15">+AK6*1.01</f>
+        <f t="shared" ref="AL6" si="14">+AK6*1.01</f>
         <v>1199.5177701791299</v>
       </c>
       <c r="AX6" s="11">
@@ -1765,11 +1851,11 @@
         <v>1151.0733150000001</v>
       </c>
       <c r="BB6" s="14">
-        <f t="shared" ref="BB6:BC6" si="16">+BA6*1.02</f>
+        <f t="shared" ref="BB6:BC6" si="15">+BA6*1.02</f>
         <v>1174.0947813</v>
       </c>
       <c r="BC6" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1197.5766769260001</v>
       </c>
       <c r="BD6" s="14">
@@ -1777,49 +1863,49 @@
         <v>1197.5766769260001</v>
       </c>
       <c r="BE6" s="14">
-        <f t="shared" ref="BE6:BN6" si="17">+BD6</f>
+        <f t="shared" ref="BE6:BN6" si="16">+BD6</f>
         <v>1197.5766769260001</v>
       </c>
       <c r="BF6" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1197.5766769260001</v>
       </c>
       <c r="BG6" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1197.5766769260001</v>
       </c>
       <c r="BH6" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1197.5766769260001</v>
       </c>
       <c r="BI6" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1197.5766769260001</v>
       </c>
       <c r="BJ6" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1197.5766769260001</v>
       </c>
       <c r="BK6" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1197.5766769260001</v>
       </c>
       <c r="BL6" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1197.5766769260001</v>
       </c>
       <c r="BM6" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1197.5766769260001</v>
       </c>
       <c r="BN6" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1197.5766769260001</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="8" customFormat="1">
+    <row r="7" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1842,39 +1928,39 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="13">
-        <f t="shared" ref="W7:AE7" si="18">W9/W6*4</f>
+        <f t="shared" ref="W7:AE7" si="17">W9/W6*4</f>
         <v>12.478802992518704</v>
       </c>
       <c r="X7" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>14.041013268998794</v>
       </c>
       <c r="Y7" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>14.828703703703704</v>
       </c>
       <c r="Z7" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17.329499999999999</v>
       </c>
       <c r="AA7" s="13">
-        <f t="shared" si="18"/>
+        <f>AA9/AA6*4</f>
         <v>15.141025641025641</v>
       </c>
       <c r="AB7" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>16.702479338842974</v>
       </c>
       <c r="AC7" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17.878848063555115</v>
       </c>
       <c r="AD7" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>22.465384615384615</v>
       </c>
       <c r="AE7" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>19.750458715596331</v>
       </c>
       <c r="AF7" s="13">
@@ -1882,27 +1968,27 @@
         <v>22.782300884955752</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" ref="AG7:AL7" si="19">+AC7*1.3</f>
+        <f t="shared" ref="AG7:AL7" si="18">+AC7*1.3</f>
         <v>23.242502482621649</v>
       </c>
       <c r="AH7" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>29.204999999999998</v>
       </c>
       <c r="AI7" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>25.67559633027523</v>
       </c>
       <c r="AJ7" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>29.61699115044248</v>
       </c>
       <c r="AK7" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30.215253227408144</v>
       </c>
       <c r="AL7" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>37.966499999999996</v>
       </c>
       <c r="AX7" s="13">
@@ -1918,63 +2004,63 @@
         <v>29.204999999999998</v>
       </c>
       <c r="BA7" s="16">
-        <f>+AZ7*1.1</f>
-        <v>32.125500000000002</v>
+        <f>+AZ7*1.3</f>
+        <v>37.966499999999996</v>
       </c>
       <c r="BB7" s="16">
         <f>+BA7*1.3</f>
-        <v>41.763150000000003</v>
+        <v>49.356449999999995</v>
       </c>
       <c r="BC7" s="16">
-        <f>+BB7*1.3</f>
-        <v>54.292095000000003</v>
+        <f>+BB7*1.03</f>
+        <v>50.837143499999996</v>
       </c>
       <c r="BD7" s="16">
-        <f>+BC7*1.03</f>
-        <v>55.920857850000004</v>
+        <f t="shared" ref="BD7:BN7" si="19">+BC7*1.03</f>
+        <v>52.362257804999999</v>
       </c>
       <c r="BE7" s="16">
-        <f t="shared" ref="BE7:BN7" si="20">+BD7*1.03</f>
-        <v>57.598483585500006</v>
+        <f t="shared" si="19"/>
+        <v>53.933125539149998</v>
       </c>
       <c r="BF7" s="16">
-        <f t="shared" si="20"/>
-        <v>59.326438093065008</v>
+        <f t="shared" si="19"/>
+        <v>55.551119305324498</v>
       </c>
       <c r="BG7" s="16">
-        <f t="shared" si="20"/>
-        <v>61.10623123585696</v>
+        <f t="shared" si="19"/>
+        <v>57.217652884484231</v>
       </c>
       <c r="BH7" s="16">
-        <f t="shared" si="20"/>
-        <v>62.939418172932669</v>
+        <f t="shared" si="19"/>
+        <v>58.934182471018758</v>
       </c>
       <c r="BI7" s="16">
-        <f t="shared" si="20"/>
-        <v>64.82760071812065</v>
+        <f t="shared" si="19"/>
+        <v>60.702207945149325</v>
       </c>
       <c r="BJ7" s="16">
-        <f t="shared" si="20"/>
-        <v>66.772428739664264</v>
+        <f t="shared" si="19"/>
+        <v>62.523274183503808</v>
       </c>
       <c r="BK7" s="16">
-        <f t="shared" si="20"/>
-        <v>68.775601601854191</v>
+        <f t="shared" si="19"/>
+        <v>64.39897240900892</v>
       </c>
       <c r="BL7" s="16">
-        <f t="shared" si="20"/>
-        <v>70.838869649909824</v>
+        <f t="shared" si="19"/>
+        <v>66.330941581279191</v>
       </c>
       <c r="BM7" s="16">
-        <f t="shared" si="20"/>
-        <v>72.964035739407123</v>
+        <f t="shared" si="19"/>
+        <v>68.320869828717562</v>
       </c>
       <c r="BN7" s="16">
-        <f t="shared" si="20"/>
-        <v>75.152956811589334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66" s="6" customFormat="1">
+        <f t="shared" si="19"/>
+        <v>70.370495923579085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2029,27 +2115,27 @@
         <v>6436</v>
       </c>
       <c r="AG9" s="7">
-        <f t="shared" ref="AG9:AL9" si="21">+AG7*AG6/4</f>
+        <f t="shared" ref="AG9:AL9" si="20">+AG7*AG6/4</f>
         <v>6631.6670208540218</v>
       </c>
       <c r="AH9" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>8416.2457912499995</v>
       </c>
       <c r="AI9" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7473.1399023467884</v>
       </c>
       <c r="AJ9" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>8706.525630868</v>
       </c>
       <c r="AK9" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>8971.2210833510835</v>
       </c>
       <c r="AL9" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>11385.372855376483</v>
       </c>
       <c r="AT9" s="6">
@@ -2075,63 +2161,63 @@
         <v>26865.912812104023</v>
       </c>
       <c r="BA9" s="6">
-        <f t="shared" ref="BA9:BN9" si="22">+BA7*BA6</f>
-        <v>36978.805781032504</v>
+        <f t="shared" ref="BA9:BN9" si="21">+BA7*BA6</f>
+        <v>43702.2250139475</v>
       </c>
       <c r="BB9" s="6">
-        <f t="shared" si="22"/>
-        <v>49033.896465649101</v>
+        <f t="shared" si="21"/>
+        <v>57949.150368494382</v>
       </c>
       <c r="BC9" s="6">
-        <f t="shared" si="22"/>
-        <v>65018.946713450707</v>
+        <f t="shared" si="21"/>
+        <v>60881.377377140205</v>
       </c>
       <c r="BD9" s="6">
-        <f t="shared" si="22"/>
-        <v>66969.515114854235</v>
+        <f t="shared" si="21"/>
+        <v>62707.818698454408</v>
       </c>
       <c r="BE9" s="6">
-        <f t="shared" si="22"/>
-        <v>68978.600568299866</v>
+        <f t="shared" si="21"/>
+        <v>64589.053259408043</v>
       </c>
       <c r="BF9" s="6">
-        <f t="shared" si="22"/>
-        <v>71047.958585348853</v>
+        <f t="shared" si="21"/>
+        <v>66526.724857190289</v>
       </c>
       <c r="BG9" s="6">
-        <f t="shared" si="22"/>
-        <v>73179.397342909331</v>
+        <f t="shared" si="21"/>
+        <v>68522.526602905986</v>
       </c>
       <c r="BH9" s="6">
-        <f t="shared" si="22"/>
-        <v>75374.7792631966</v>
+        <f t="shared" si="21"/>
+        <v>70578.202400993177</v>
       </c>
       <c r="BI9" s="6">
-        <f t="shared" si="22"/>
-        <v>77636.02264109251</v>
+        <f t="shared" si="21"/>
+        <v>72695.548473022965</v>
       </c>
       <c r="BJ9" s="6">
-        <f t="shared" si="22"/>
-        <v>79965.103320325274</v>
+        <f t="shared" si="21"/>
+        <v>74876.414927213671</v>
       </c>
       <c r="BK9" s="6">
-        <f t="shared" si="22"/>
-        <v>82364.056419935034</v>
+        <f t="shared" si="21"/>
+        <v>77122.707375030077</v>
       </c>
       <c r="BL9" s="6">
-        <f t="shared" si="22"/>
-        <v>84834.978112533092</v>
+        <f t="shared" si="21"/>
+        <v>79436.388596280973</v>
       </c>
       <c r="BM9" s="6">
-        <f t="shared" si="22"/>
-        <v>87380.02745590909</v>
+        <f t="shared" si="21"/>
+        <v>81819.480254169408</v>
       </c>
       <c r="BN9" s="6">
-        <f t="shared" si="22"/>
-        <v>90001.428279586355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:66" s="2" customFormat="1">
+        <f t="shared" si="21"/>
+        <v>84274.064661794473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2191,27 +2277,27 @@
         <v>916</v>
       </c>
       <c r="AG10" s="5">
-        <f t="shared" ref="AG10:AL10" si="23">+AG9-AG11</f>
+        <f t="shared" ref="AG10:AL10" si="22">+AG9-AG11</f>
         <v>928.43338291956297</v>
       </c>
       <c r="AH10" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1178.2744107750004</v>
       </c>
       <c r="AI10" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1046.2395863285501</v>
       </c>
       <c r="AJ10" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1218.9135883215204</v>
       </c>
       <c r="AK10" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1255.9709516691519</v>
       </c>
       <c r="AL10" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1593.9521997527081</v>
       </c>
       <c r="AT10" s="2">
@@ -2238,62 +2324,62 @@
       </c>
       <c r="BA10" s="2">
         <f>BA9-BA11</f>
-        <v>5546.8208671548782</v>
+        <v>6555.3337520921268</v>
       </c>
       <c r="BB10" s="2">
-        <f t="shared" ref="BB10:BC10" si="24">BB9-BB11</f>
-        <v>7355.0844698473666</v>
+        <f t="shared" ref="BB10:BC10" si="23">BB9-BB11</f>
+        <v>8692.3725552741598</v>
       </c>
       <c r="BC10" s="2">
-        <f t="shared" si="24"/>
-        <v>9752.8420070176071</v>
+        <f t="shared" si="23"/>
+        <v>9132.2066065710314</v>
       </c>
       <c r="BD10" s="2">
-        <f t="shared" ref="BD10" si="25">BD9-BD11</f>
-        <v>10045.427267228137</v>
+        <f t="shared" ref="BD10" si="24">BD9-BD11</f>
+        <v>9406.1728047681609</v>
       </c>
       <c r="BE10" s="2">
-        <f t="shared" ref="BE10" si="26">BE9-BE11</f>
-        <v>10346.790085244982</v>
+        <f t="shared" ref="BE10" si="25">BE9-BE11</f>
+        <v>9688.3579889112079</v>
       </c>
       <c r="BF10" s="2">
-        <f t="shared" ref="BF10" si="27">BF9-BF11</f>
-        <v>10657.193787802331</v>
+        <f t="shared" ref="BF10" si="26">BF9-BF11</f>
+        <v>9979.0087285785485</v>
       </c>
       <c r="BG10" s="2">
-        <f t="shared" ref="BG10" si="28">BG9-BG11</f>
-        <v>10976.909601436404</v>
+        <f t="shared" ref="BG10" si="27">BG9-BG11</f>
+        <v>10278.3789904359</v>
       </c>
       <c r="BH10" s="2">
-        <f t="shared" ref="BH10" si="29">BH9-BH11</f>
-        <v>11306.216889479489</v>
+        <f t="shared" ref="BH10" si="28">BH9-BH11</f>
+        <v>10586.730360148977</v>
       </c>
       <c r="BI10" s="2">
-        <f t="shared" ref="BI10" si="30">BI9-BI11</f>
-        <v>11645.403396163878</v>
+        <f t="shared" ref="BI10" si="29">BI9-BI11</f>
+        <v>10904.332270953448</v>
       </c>
       <c r="BJ10" s="2">
-        <f t="shared" ref="BJ10" si="31">BJ9-BJ11</f>
-        <v>11994.765498048786</v>
+        <f t="shared" ref="BJ10" si="30">BJ9-BJ11</f>
+        <v>11231.462239082051</v>
       </c>
       <c r="BK10" s="2">
-        <f t="shared" ref="BK10" si="32">BK9-BK11</f>
-        <v>12354.608462990262</v>
+        <f t="shared" ref="BK10" si="31">BK9-BK11</f>
+        <v>11568.406106254508</v>
       </c>
       <c r="BL10" s="2">
-        <f t="shared" ref="BL10" si="33">BL9-BL11</f>
-        <v>12725.246716879963</v>
+        <f t="shared" ref="BL10" si="32">BL9-BL11</f>
+        <v>11915.458289442147</v>
       </c>
       <c r="BM10" s="2">
-        <f t="shared" ref="BM10" si="34">BM9-BM11</f>
-        <v>13107.004118386365</v>
+        <f t="shared" ref="BM10" si="33">BM9-BM11</f>
+        <v>12272.922038125413</v>
       </c>
       <c r="BN10" s="2">
-        <f t="shared" ref="BN10" si="35">BN9-BN11</f>
-        <v>13500.214241937952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:66" s="2" customFormat="1">
+        <f t="shared" ref="BN10:BX10" si="34">BN9-BN11</f>
+        <v>12641.109699269175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2318,35 +2404,35 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5">
-        <f t="shared" ref="W11:AD11" si="36">+W9-W10</f>
+        <f t="shared" ref="W11:AD11" si="35">+W9-W10</f>
         <v>2040</v>
       </c>
       <c r="X11" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2453</v>
       </c>
       <c r="Y11" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2638</v>
       </c>
       <c r="Z11" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3216</v>
       </c>
       <c r="AA11" s="5">
-        <f t="shared" si="36"/>
+        <f>+AA9-AA10</f>
         <v>2889</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3395</v>
       </c>
       <c r="AC11" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3802</v>
       </c>
       <c r="AD11" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5039</v>
       </c>
       <c r="AE11" s="5">
@@ -2358,51 +2444,51 @@
         <v>5520</v>
       </c>
       <c r="AG11" s="5">
-        <f t="shared" ref="AG11:AL11" si="37">+AG9*0.86</f>
+        <f t="shared" ref="AG11:AL11" si="36">+AG9*0.86</f>
         <v>5703.2336379344588</v>
       </c>
       <c r="AH11" s="5">
+        <f t="shared" si="36"/>
+        <v>7237.971380474999</v>
+      </c>
+      <c r="AI11" s="5">
+        <f t="shared" si="36"/>
+        <v>6426.9003160182383</v>
+      </c>
+      <c r="AJ11" s="5">
+        <f t="shared" si="36"/>
+        <v>7487.6120425464796</v>
+      </c>
+      <c r="AK11" s="5">
+        <f t="shared" si="36"/>
+        <v>7715.2501316819316</v>
+      </c>
+      <c r="AL11" s="5">
+        <f t="shared" si="36"/>
+        <v>9791.420655623775</v>
+      </c>
+      <c r="AT11" s="2">
+        <f t="shared" ref="AT11:AY11" si="37">+AT9-AT10</f>
+        <v>1481</v>
+      </c>
+      <c r="AU11" s="2">
         <f t="shared" si="37"/>
-        <v>7237.971380474999</v>
-      </c>
-      <c r="AI11" s="5">
+        <v>2851</v>
+      </c>
+      <c r="AV11" s="2">
         <f t="shared" si="37"/>
-        <v>6426.9003160182383</v>
-      </c>
-      <c r="AJ11" s="5">
+        <v>3725</v>
+      </c>
+      <c r="AW11" s="2">
         <f t="shared" si="37"/>
-        <v>7487.6120425464796</v>
-      </c>
-      <c r="AK11" s="5">
+        <v>5997</v>
+      </c>
+      <c r="AX11" s="2">
         <f t="shared" si="37"/>
-        <v>7715.2501316819316</v>
-      </c>
-      <c r="AL11" s="5">
+        <v>10313</v>
+      </c>
+      <c r="AY11" s="2">
         <f t="shared" si="37"/>
-        <v>9791.420655623775</v>
-      </c>
-      <c r="AT11" s="2">
-        <f t="shared" ref="AT11:AY11" si="38">+AT9-AT10</f>
-        <v>1481</v>
-      </c>
-      <c r="AU11" s="2">
-        <f t="shared" si="38"/>
-        <v>2851</v>
-      </c>
-      <c r="AV11" s="2">
-        <f t="shared" si="38"/>
-        <v>3725</v>
-      </c>
-      <c r="AW11" s="2">
-        <f t="shared" si="38"/>
-        <v>5997</v>
-      </c>
-      <c r="AX11" s="2">
-        <f t="shared" si="38"/>
-        <v>10313</v>
-      </c>
-      <c r="AY11" s="2">
-        <f t="shared" si="38"/>
         <v>15061</v>
       </c>
       <c r="AZ11" s="2">
@@ -2411,62 +2497,62 @@
       </c>
       <c r="BA11" s="2">
         <f>BA9*0.85</f>
-        <v>31431.984913877626</v>
+        <v>37146.891261855373</v>
       </c>
       <c r="BB11" s="2">
-        <f t="shared" ref="BB11:BC11" si="39">BB9*0.85</f>
-        <v>41678.811995801734</v>
+        <f t="shared" ref="BB11:BC11" si="38">BB9*0.85</f>
+        <v>49256.777813220222</v>
       </c>
       <c r="BC11" s="2">
+        <f t="shared" si="38"/>
+        <v>51749.170770569173</v>
+      </c>
+      <c r="BD11" s="2">
+        <f t="shared" ref="BD11:BN11" si="39">BD9*0.85</f>
+        <v>53301.645893686247</v>
+      </c>
+      <c r="BE11" s="2">
         <f t="shared" si="39"/>
-        <v>55266.1047064331</v>
-      </c>
-      <c r="BD11" s="2">
-        <f t="shared" ref="BD11:BN11" si="40">BD9*0.85</f>
-        <v>56924.087847626099</v>
-      </c>
-      <c r="BE11" s="2">
-        <f t="shared" si="40"/>
-        <v>58631.810483054884</v>
+        <v>54900.695270496835</v>
       </c>
       <c r="BF11" s="2">
-        <f t="shared" si="40"/>
-        <v>60390.764797546522</v>
+        <f t="shared" si="39"/>
+        <v>56547.716128611741</v>
       </c>
       <c r="BG11" s="2">
-        <f t="shared" si="40"/>
-        <v>62202.487741472927</v>
+        <f t="shared" si="39"/>
+        <v>58244.147612470086</v>
       </c>
       <c r="BH11" s="2">
-        <f t="shared" si="40"/>
-        <v>64068.562373717112</v>
+        <f t="shared" si="39"/>
+        <v>59991.472040844201</v>
       </c>
       <c r="BI11" s="2">
-        <f t="shared" si="40"/>
-        <v>65990.619244928632</v>
+        <f t="shared" si="39"/>
+        <v>61791.216202069518</v>
       </c>
       <c r="BJ11" s="2">
-        <f t="shared" si="40"/>
-        <v>67970.337822276488</v>
+        <f t="shared" si="39"/>
+        <v>63644.95268813162</v>
       </c>
       <c r="BK11" s="2">
-        <f t="shared" si="40"/>
-        <v>70009.447956944772</v>
+        <f t="shared" si="39"/>
+        <v>65554.301268775569</v>
       </c>
       <c r="BL11" s="2">
-        <f t="shared" si="40"/>
-        <v>72109.731395653129</v>
+        <f t="shared" si="39"/>
+        <v>67520.930306838825</v>
       </c>
       <c r="BM11" s="2">
-        <f t="shared" si="40"/>
-        <v>74273.023337522725</v>
+        <f t="shared" si="39"/>
+        <v>69546.558216043995</v>
       </c>
       <c r="BN11" s="2">
-        <f t="shared" si="40"/>
-        <v>76501.214037648402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" s="2" customFormat="1">
+        <f t="shared" si="39"/>
+        <v>71632.954962525298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2527,27 +2613,27 @@
         <v>1463</v>
       </c>
       <c r="AG12" s="5">
-        <f t="shared" ref="AG12:AG14" si="41">+AC12*1.35</f>
+        <f t="shared" ref="AG12:AG14" si="40">+AC12*1.35</f>
         <v>908.55000000000007</v>
       </c>
       <c r="AH12" s="5">
-        <f t="shared" ref="AH12:AH14" si="42">+AD12*1.35</f>
+        <f t="shared" ref="AH12:AH14" si="41">+AD12*1.35</f>
         <v>986.85</v>
       </c>
       <c r="AI12" s="5">
-        <f t="shared" ref="AI12:AI14" si="43">+AE12*1.35</f>
+        <f t="shared" ref="AI12:AI14" si="42">+AE12*1.35</f>
         <v>1813.0500000000002</v>
       </c>
       <c r="AJ12" s="5">
-        <f t="shared" ref="AJ12:AJ14" si="44">+AF12*1.35</f>
+        <f t="shared" ref="AJ12:AJ14" si="43">+AF12*1.35</f>
         <v>1975.0500000000002</v>
       </c>
       <c r="AK12" s="5">
-        <f t="shared" ref="AK12:AK14" si="45">+AG12*1.35</f>
+        <f t="shared" ref="AK12:AK14" si="44">+AG12*1.35</f>
         <v>1226.5425000000002</v>
       </c>
       <c r="AL12" s="5">
-        <f t="shared" ref="AL12:AL14" si="46">+AH12*1.35</f>
+        <f t="shared" ref="AL12:AL14" si="45">+AH12*1.35</f>
         <v>1332.2475000000002</v>
       </c>
       <c r="AT12" s="2">
@@ -2577,11 +2663,11 @@
         <v>5876.7500000000009</v>
       </c>
       <c r="BB12" s="2">
-        <f t="shared" ref="BB12:BC12" si="47">+BA12*1.25</f>
+        <f t="shared" ref="BB12:BC12" si="46">+BA12*1.25</f>
         <v>7345.9375000000009</v>
       </c>
       <c r="BC12" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>9182.4218750000018</v>
       </c>
       <c r="BD12" s="2">
@@ -2589,47 +2675,47 @@
         <v>8723.3007812500018</v>
       </c>
       <c r="BE12" s="2">
-        <f t="shared" ref="BE12:BN12" si="48">BD12*0.95</f>
+        <f t="shared" ref="BE12:BN12" si="47">BD12*0.95</f>
         <v>8287.1357421875018</v>
       </c>
       <c r="BF12" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>7872.7789550781263</v>
       </c>
       <c r="BG12" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>7479.1400073242194</v>
       </c>
       <c r="BH12" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>7105.1830069580083</v>
       </c>
       <c r="BI12" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>6749.9238566101076</v>
       </c>
       <c r="BJ12" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>6412.427663779602</v>
       </c>
       <c r="BK12" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>6091.806280590622</v>
       </c>
       <c r="BL12" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>5787.2159665610907</v>
       </c>
       <c r="BM12" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>5497.8551682330362</v>
       </c>
       <c r="BN12" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>5222.9624098213844</v>
       </c>
     </row>
-    <row r="13" spans="1:66" s="2" customFormat="1">
+    <row r="13" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
@@ -2689,27 +2775,27 @@
         <v>899</v>
       </c>
       <c r="AG13" s="5">
+        <f t="shared" si="40"/>
+        <v>842.40000000000009</v>
+      </c>
+      <c r="AH13" s="5">
         <f t="shared" si="41"/>
-        <v>842.40000000000009</v>
-      </c>
-      <c r="AH13" s="5">
+        <v>928.80000000000007</v>
+      </c>
+      <c r="AI13" s="5">
         <f t="shared" si="42"/>
-        <v>928.80000000000007</v>
-      </c>
-      <c r="AI13" s="5">
+        <v>1115.1000000000001</v>
+      </c>
+      <c r="AJ13" s="5">
         <f t="shared" si="43"/>
-        <v>1115.1000000000001</v>
-      </c>
-      <c r="AJ13" s="5">
+        <v>1213.6500000000001</v>
+      </c>
+      <c r="AK13" s="5">
         <f t="shared" si="44"/>
-        <v>1213.6500000000001</v>
-      </c>
-      <c r="AK13" s="5">
+        <v>1137.2400000000002</v>
+      </c>
+      <c r="AL13" s="5">
         <f t="shared" si="45"/>
-        <v>1137.2400000000002</v>
-      </c>
-      <c r="AL13" s="5">
-        <f t="shared" si="46"/>
         <v>1253.8800000000001</v>
       </c>
       <c r="AT13" s="2">
@@ -2735,11 +2821,11 @@
         <v>3496.2000000000003</v>
       </c>
       <c r="BA13" s="2">
-        <f t="shared" ref="BA13:BB13" si="49">+AZ13*1.25</f>
+        <f t="shared" ref="BA13:BB13" si="48">+AZ13*1.25</f>
         <v>4370.25</v>
       </c>
       <c r="BB13" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>5462.8125</v>
       </c>
       <c r="BC13" s="2">
@@ -2751,47 +2837,47 @@
         <v>6487.08984375</v>
       </c>
       <c r="BE13" s="2">
-        <f t="shared" ref="BE13:BN13" si="50">BD13*0.95</f>
+        <f t="shared" ref="BE13:BN13" si="49">BD13*0.95</f>
         <v>6162.7353515625</v>
       </c>
       <c r="BF13" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>5854.5985839843743</v>
       </c>
       <c r="BG13" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>5561.8686547851557</v>
       </c>
       <c r="BH13" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>5283.7752220458979</v>
       </c>
       <c r="BI13" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>5019.586460943603</v>
       </c>
       <c r="BJ13" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>4768.6071378964225</v>
       </c>
       <c r="BK13" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>4530.1767810016008</v>
       </c>
       <c r="BL13" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>4303.6679419515203</v>
       </c>
       <c r="BM13" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>4088.484544853944</v>
       </c>
       <c r="BN13" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>3884.0603176112468</v>
       </c>
     </row>
-    <row r="14" spans="1:66" s="2" customFormat="1">
+    <row r="14" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2851,27 +2937,27 @@
         <v>412</v>
       </c>
       <c r="AG14" s="5">
+        <f t="shared" si="40"/>
+        <v>390.15000000000003</v>
+      </c>
+      <c r="AH14" s="5">
         <f t="shared" si="41"/>
-        <v>390.15000000000003</v>
-      </c>
-      <c r="AH14" s="5">
+        <v>423.90000000000003</v>
+      </c>
+      <c r="AI14" s="5">
         <f t="shared" si="42"/>
-        <v>423.90000000000003</v>
-      </c>
-      <c r="AI14" s="5">
+        <v>494.1</v>
+      </c>
+      <c r="AJ14" s="5">
         <f t="shared" si="43"/>
-        <v>494.1</v>
-      </c>
-      <c r="AJ14" s="5">
+        <v>556.20000000000005</v>
+      </c>
+      <c r="AK14" s="5">
         <f t="shared" si="44"/>
-        <v>556.20000000000005</v>
-      </c>
-      <c r="AK14" s="5">
+        <v>526.7025000000001</v>
+      </c>
+      <c r="AL14" s="5">
         <f t="shared" si="45"/>
-        <v>526.7025000000001</v>
-      </c>
-      <c r="AL14" s="5">
-        <f t="shared" si="46"/>
         <v>572.2650000000001</v>
       </c>
       <c r="AT14" s="2">
@@ -2897,15 +2983,15 @@
         <v>1592.0500000000002</v>
       </c>
       <c r="BA14" s="2">
-        <f t="shared" ref="BA14:BC14" si="51">+AZ14*1.25</f>
+        <f t="shared" ref="BA14:BC14" si="50">+AZ14*1.25</f>
         <v>1990.0625000000002</v>
       </c>
       <c r="BB14" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>2487.5781250000005</v>
       </c>
       <c r="BC14" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>3109.4726562500005</v>
       </c>
       <c r="BD14" s="2">
@@ -2913,49 +2999,49 @@
         <v>2953.9990234375005</v>
       </c>
       <c r="BE14" s="2">
-        <f t="shared" ref="BE14:BN14" si="52">BD14*0.95</f>
+        <f t="shared" ref="BE14:BN14" si="51">BD14*0.95</f>
         <v>2806.2990722656255</v>
       </c>
       <c r="BF14" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>2665.984118652344</v>
       </c>
       <c r="BG14" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>2532.6849127197265</v>
       </c>
       <c r="BH14" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>2406.0506670837399</v>
       </c>
       <c r="BI14" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>2285.7481337295526</v>
       </c>
       <c r="BJ14" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>2171.4607270430747</v>
       </c>
       <c r="BK14" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>2062.8876906909209</v>
       </c>
       <c r="BL14" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1959.7433061563747</v>
       </c>
       <c r="BM14" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1861.756140848556</v>
       </c>
       <c r="BN14" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1768.6683338061282</v>
       </c>
     </row>
-    <row r="15" spans="1:66" s="2" customFormat="1">
+    <row r="15" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2978,35 +3064,35 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5">
-        <f t="shared" ref="W15:AD15" si="53">SUM(W12:W14)</f>
+        <f t="shared" ref="W15:AD15" si="52">SUM(W12:W14)</f>
         <v>965</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>749</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1241</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1380</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1270</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1359</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1586</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1733</v>
       </c>
       <c r="AE15" s="5">
@@ -3018,117 +3104,117 @@
         <v>2774</v>
       </c>
       <c r="AG15" s="5">
-        <f t="shared" ref="AG15:AH15" si="54">SUM(AG12:AG14)</f>
+        <f t="shared" ref="AG15:AH15" si="53">SUM(AG12:AG14)</f>
         <v>2141.1000000000004</v>
       </c>
       <c r="AH15" s="5">
+        <f t="shared" si="53"/>
+        <v>2339.5500000000002</v>
+      </c>
+      <c r="AI15" s="5">
+        <f t="shared" ref="AI15:AL15" si="54">SUM(AI12:AI14)</f>
+        <v>3422.2500000000005</v>
+      </c>
+      <c r="AJ15" s="5">
         <f t="shared" si="54"/>
-        <v>2339.5500000000002</v>
-      </c>
-      <c r="AI15" s="5">
-        <f t="shared" ref="AI15:AL15" si="55">SUM(AI12:AI14)</f>
-        <v>3422.2500000000005</v>
-      </c>
-      <c r="AJ15" s="5">
-        <f t="shared" si="55"/>
         <v>3744.9000000000005</v>
       </c>
       <c r="AK15" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>2890.4850000000006</v>
       </c>
       <c r="AL15" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>3158.3925000000008</v>
       </c>
       <c r="AT15" s="5">
-        <f t="shared" ref="AT15" si="56">SUM(AT12:AT14)</f>
+        <f t="shared" ref="AT15" si="55">SUM(AT12:AT14)</f>
         <v>449</v>
       </c>
       <c r="AU15" s="5">
-        <f t="shared" ref="AU15:AV15" si="57">SUM(AU12:AU14)</f>
+        <f t="shared" ref="AU15:AV15" si="56">SUM(AU12:AU14)</f>
         <v>1095</v>
       </c>
       <c r="AV15" s="5">
+        <f t="shared" si="56"/>
+        <v>3187</v>
+      </c>
+      <c r="AW15" s="5">
+        <f t="shared" ref="AW15:AX15" si="57">SUM(AW12:AW14)</f>
+        <v>3193</v>
+      </c>
+      <c r="AX15" s="5">
         <f t="shared" si="57"/>
-        <v>3187</v>
-      </c>
-      <c r="AW15" s="5">
-        <f t="shared" ref="AW15:AX15" si="58">SUM(AW12:AW14)</f>
-        <v>3193</v>
-      </c>
-      <c r="AX15" s="5">
+        <v>5319</v>
+      </c>
+      <c r="AY15" s="5">
+        <f t="shared" ref="AY15:AZ15" si="58">SUM(AY12:AY14)</f>
+        <v>8836</v>
+      </c>
+      <c r="AZ15" s="5">
         <f t="shared" si="58"/>
-        <v>5319</v>
-      </c>
-      <c r="AY15" s="5">
-        <f t="shared" ref="AY15:AZ15" si="59">SUM(AY12:AY14)</f>
-        <v>8836</v>
-      </c>
-      <c r="AZ15" s="5">
-        <f t="shared" si="59"/>
         <v>9789.6500000000015</v>
       </c>
       <c r="BA15" s="5">
-        <f t="shared" ref="BA15" si="60">SUM(BA12:BA14)</f>
+        <f t="shared" ref="BA15" si="59">SUM(BA12:BA14)</f>
         <v>12237.0625</v>
       </c>
       <c r="BB15" s="5">
-        <f t="shared" ref="BB15" si="61">SUM(BB12:BB14)</f>
+        <f t="shared" ref="BB15" si="60">SUM(BB12:BB14)</f>
         <v>15296.328125</v>
       </c>
       <c r="BC15" s="5">
-        <f t="shared" ref="BC15" si="62">SUM(BC12:BC14)</f>
+        <f t="shared" ref="BC15" si="61">SUM(BC12:BC14)</f>
         <v>19120.410156250004</v>
       </c>
       <c r="BD15" s="5">
-        <f t="shared" ref="BD15" si="63">SUM(BD12:BD14)</f>
+        <f t="shared" ref="BD15" si="62">SUM(BD12:BD14)</f>
         <v>18164.389648437504</v>
       </c>
       <c r="BE15" s="5">
-        <f t="shared" ref="BE15" si="64">SUM(BE12:BE14)</f>
+        <f t="shared" ref="BE15" si="63">SUM(BE12:BE14)</f>
         <v>17256.170166015629</v>
       </c>
       <c r="BF15" s="5">
-        <f t="shared" ref="BF15" si="65">SUM(BF12:BF14)</f>
+        <f t="shared" ref="BF15" si="64">SUM(BF12:BF14)</f>
         <v>16393.361657714846</v>
       </c>
       <c r="BG15" s="5">
-        <f t="shared" ref="BG15" si="66">SUM(BG12:BG14)</f>
+        <f t="shared" ref="BG15" si="65">SUM(BG12:BG14)</f>
         <v>15573.693574829103</v>
       </c>
       <c r="BH15" s="5">
-        <f t="shared" ref="BH15" si="67">SUM(BH12:BH14)</f>
+        <f t="shared" ref="BH15" si="66">SUM(BH12:BH14)</f>
         <v>14795.008896087647</v>
       </c>
       <c r="BI15" s="5">
-        <f t="shared" ref="BI15" si="68">SUM(BI12:BI14)</f>
+        <f t="shared" ref="BI15" si="67">SUM(BI12:BI14)</f>
         <v>14055.258451283264</v>
       </c>
       <c r="BJ15" s="5">
-        <f t="shared" ref="BJ15" si="69">SUM(BJ12:BJ14)</f>
+        <f t="shared" ref="BJ15" si="68">SUM(BJ12:BJ14)</f>
         <v>13352.495528719101</v>
       </c>
       <c r="BK15" s="5">
-        <f t="shared" ref="BK15" si="70">SUM(BK12:BK14)</f>
+        <f t="shared" ref="BK15" si="69">SUM(BK12:BK14)</f>
         <v>12684.870752283143</v>
       </c>
       <c r="BL15" s="5">
-        <f t="shared" ref="BL15" si="71">SUM(BL12:BL14)</f>
+        <f t="shared" ref="BL15" si="70">SUM(BL12:BL14)</f>
         <v>12050.627214668986</v>
       </c>
       <c r="BM15" s="5">
-        <f t="shared" ref="BM15" si="72">SUM(BM12:BM14)</f>
+        <f t="shared" ref="BM15" si="71">SUM(BM12:BM14)</f>
         <v>11448.095853935536</v>
       </c>
       <c r="BN15" s="5">
-        <f t="shared" ref="BN15" si="73">SUM(BN12:BN14)</f>
+        <f t="shared" ref="BN15:BX15" si="72">SUM(BN12:BN14)</f>
         <v>10875.69106123876</v>
       </c>
     </row>
-    <row r="16" spans="1:66" s="2" customFormat="1">
+    <row r="16" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3151,35 +3237,35 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5">
-        <f t="shared" ref="W16:AD16" si="74">W11-W15</f>
+        <f t="shared" ref="W16:AD16" si="73">W11-W15</f>
         <v>1075</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1704</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1397</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1836</v>
       </c>
       <c r="AA16" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1619</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>2036</v>
       </c>
       <c r="AC16" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>2216</v>
       </c>
       <c r="AD16" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>3306</v>
       </c>
       <c r="AE16" s="5">
@@ -3191,117 +3277,117 @@
         <v>2746</v>
       </c>
       <c r="AG16" s="5">
-        <f t="shared" ref="AG16:AH16" si="75">AG11-AG15</f>
+        <f t="shared" ref="AG16:AH16" si="74">AG11-AG15</f>
         <v>3562.1336379344584</v>
       </c>
       <c r="AH16" s="5">
+        <f t="shared" si="74"/>
+        <v>4898.4213804749988</v>
+      </c>
+      <c r="AI16" s="5">
+        <f t="shared" ref="AI16:AL16" si="75">AI11-AI15</f>
+        <v>3004.6503160182378</v>
+      </c>
+      <c r="AJ16" s="5">
         <f t="shared" si="75"/>
-        <v>4898.4213804749988</v>
-      </c>
-      <c r="AI16" s="5">
-        <f t="shared" ref="AI16:AL16" si="76">AI11-AI15</f>
-        <v>3004.6503160182378</v>
-      </c>
-      <c r="AJ16" s="5">
-        <f t="shared" si="76"/>
         <v>3742.7120425464791</v>
       </c>
       <c r="AK16" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>4824.7651316819311</v>
       </c>
       <c r="AL16" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>6633.0281556237742</v>
       </c>
       <c r="AT16" s="5">
-        <f t="shared" ref="AT16" si="77">AT11-AT15</f>
+        <f t="shared" ref="AT16" si="76">AT11-AT15</f>
         <v>1032</v>
       </c>
       <c r="AU16" s="5">
-        <f t="shared" ref="AU16:AV16" si="78">AU11-AU15</f>
+        <f t="shared" ref="AU16:AV16" si="77">AU11-AU15</f>
         <v>1756</v>
       </c>
       <c r="AV16" s="5">
+        <f t="shared" si="77"/>
+        <v>538</v>
+      </c>
+      <c r="AW16" s="5">
+        <f t="shared" ref="AW16:AX16" si="78">AW11-AW15</f>
+        <v>2804</v>
+      </c>
+      <c r="AX16" s="5">
         <f t="shared" si="78"/>
-        <v>538</v>
-      </c>
-      <c r="AW16" s="5">
-        <f t="shared" ref="AW16:AX16" si="79">AW11-AW15</f>
-        <v>2804</v>
-      </c>
-      <c r="AX16" s="5">
+        <v>4994</v>
+      </c>
+      <c r="AY16" s="5">
+        <f t="shared" ref="AY16:AZ16" si="79">AY11-AY15</f>
+        <v>6225</v>
+      </c>
+      <c r="AZ16" s="5">
         <f t="shared" si="79"/>
-        <v>4994</v>
-      </c>
-      <c r="AY16" s="5">
-        <f t="shared" ref="AY16:AZ16" si="80">AY11-AY15</f>
-        <v>6225</v>
-      </c>
-      <c r="AZ16" s="5">
-        <f t="shared" si="80"/>
         <v>13215.555018409457</v>
       </c>
       <c r="BA16" s="5">
-        <f t="shared" ref="BA16" si="81">BA11-BA15</f>
-        <v>19194.922413877626</v>
+        <f t="shared" ref="BA16" si="80">BA11-BA15</f>
+        <v>24909.828761855373</v>
       </c>
       <c r="BB16" s="5">
-        <f t="shared" ref="BB16" si="82">BB11-BB15</f>
-        <v>26382.483870801734</v>
+        <f t="shared" ref="BB16" si="81">BB11-BB15</f>
+        <v>33960.449688220222</v>
       </c>
       <c r="BC16" s="5">
-        <f t="shared" ref="BC16" si="83">BC11-BC15</f>
-        <v>36145.694550183092</v>
+        <f t="shared" ref="BC16" si="82">BC11-BC15</f>
+        <v>32628.76061431917</v>
       </c>
       <c r="BD16" s="5">
-        <f t="shared" ref="BD16" si="84">BD11-BD15</f>
-        <v>38759.698199188599</v>
+        <f t="shared" ref="BD16" si="83">BD11-BD15</f>
+        <v>35137.256245248747</v>
       </c>
       <c r="BE16" s="5">
-        <f t="shared" ref="BE16" si="85">BE11-BE15</f>
-        <v>41375.640317039259</v>
+        <f t="shared" ref="BE16" si="84">BE11-BE15</f>
+        <v>37644.525104481203</v>
       </c>
       <c r="BF16" s="5">
-        <f t="shared" ref="BF16" si="86">BF11-BF15</f>
-        <v>43997.403139831673</v>
+        <f t="shared" ref="BF16" si="85">BF11-BF15</f>
+        <v>40154.354470896898</v>
       </c>
       <c r="BG16" s="5">
-        <f t="shared" ref="BG16" si="87">BG11-BG15</f>
-        <v>46628.794166643827</v>
+        <f t="shared" ref="BG16" si="86">BG11-BG15</f>
+        <v>42670.454037640986</v>
       </c>
       <c r="BH16" s="5">
-        <f t="shared" ref="BH16" si="88">BH11-BH15</f>
-        <v>49273.553477629466</v>
+        <f t="shared" ref="BH16" si="87">BH11-BH15</f>
+        <v>45196.463144756555</v>
       </c>
       <c r="BI16" s="5">
-        <f t="shared" ref="BI16" si="89">BI11-BI15</f>
-        <v>51935.36079364537</v>
+        <f t="shared" ref="BI16" si="88">BI11-BI15</f>
+        <v>47735.957750786256</v>
       </c>
       <c r="BJ16" s="5">
-        <f t="shared" ref="BJ16" si="90">BJ11-BJ15</f>
-        <v>54617.842293557391</v>
+        <f t="shared" ref="BJ16" si="89">BJ11-BJ15</f>
+        <v>50292.457159412515</v>
       </c>
       <c r="BK16" s="5">
-        <f t="shared" ref="BK16" si="91">BK11-BK15</f>
-        <v>57324.577204661633</v>
+        <f t="shared" ref="BK16" si="90">BK11-BK15</f>
+        <v>52869.43051649243</v>
       </c>
       <c r="BL16" s="5">
-        <f t="shared" ref="BL16" si="92">BL11-BL15</f>
-        <v>60059.104180984141</v>
+        <f t="shared" ref="BL16" si="91">BL11-BL15</f>
+        <v>55470.303092169837</v>
       </c>
       <c r="BM16" s="5">
-        <f t="shared" ref="BM16" si="93">BM11-BM15</f>
-        <v>62824.927483587191</v>
+        <f t="shared" ref="BM16" si="92">BM11-BM15</f>
+        <v>58098.462362108461</v>
       </c>
       <c r="BN16" s="5">
-        <f t="shared" ref="BN16" si="94">BN11-BN15</f>
-        <v>65625.522976409644</v>
-      </c>
-    </row>
-    <row r="17" spans="2:130" s="2" customFormat="1">
+        <f t="shared" ref="BN16:BX16" si="93">BN11-BN15</f>
+        <v>60757.26390128654</v>
+      </c>
+    </row>
+    <row r="17" spans="2:188" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3404,56 +3490,56 @@
       </c>
       <c r="BC17" s="2">
         <f>+BB38*$BQ$25</f>
-        <v>1276.7294195463323</v>
+        <v>1476.1225020272757</v>
       </c>
       <c r="BD17" s="2">
-        <f t="shared" ref="BD17:BN17" si="95">+BC38*$BQ$25</f>
-        <v>1838.0657790922735</v>
+        <f t="shared" ref="BD17:BN17" si="94">+BC38*$BQ$25</f>
+        <v>1987.6957487724721</v>
       </c>
       <c r="BE17" s="2">
-        <f t="shared" si="95"/>
-        <v>2447.0322387664864</v>
+        <f t="shared" si="94"/>
+        <v>2544.5700286827905</v>
       </c>
       <c r="BF17" s="2">
-        <f t="shared" si="95"/>
-        <v>3104.3723271035728</v>
+        <f t="shared" si="94"/>
+        <v>3147.4064556802509</v>
       </c>
       <c r="BG17" s="2">
-        <f t="shared" si="95"/>
-        <v>3810.8989591076015</v>
+        <f t="shared" si="94"/>
+        <v>3796.9328695789081</v>
       </c>
       <c r="BH17" s="2">
-        <f t="shared" si="95"/>
-        <v>4567.4943559938729</v>
+        <f t="shared" si="94"/>
+        <v>4493.9436731872065</v>
       </c>
       <c r="BI17" s="2">
-        <f t="shared" si="95"/>
-        <v>5375.1100734982238</v>
+        <f t="shared" si="94"/>
+        <v>5239.2997754563621</v>
       </c>
       <c r="BJ17" s="2">
-        <f t="shared" si="95"/>
-        <v>6234.7671365053766</v>
+        <f t="shared" si="94"/>
+        <v>6033.9286383500021</v>
       </c>
       <c r="BK17" s="2">
-        <f t="shared" si="95"/>
-        <v>7147.5562779563179</v>
+        <f t="shared" si="94"/>
+        <v>6878.8244253164403</v>
       </c>
       <c r="BL17" s="2">
-        <f t="shared" si="95"/>
-        <v>8114.638280195587</v>
+        <f t="shared" si="94"/>
+        <v>7775.0482494435728</v>
       </c>
       <c r="BM17" s="2">
-        <f t="shared" si="95"/>
-        <v>9137.2444171132829</v>
+        <f t="shared" si="94"/>
+        <v>8723.7285195677741</v>
       </c>
       <c r="BN17" s="2">
-        <f t="shared" si="95"/>
-        <v>10216.676995623789</v>
-      </c>
-    </row>
-    <row r="18" spans="2:130" s="2" customFormat="1">
+        <f t="shared" si="94"/>
+        <v>9726.0613827929174</v>
+      </c>
+    </row>
+    <row r="18" spans="2:188" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3476,157 +3562,157 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5">
-        <f t="shared" ref="W18:AD18" si="96">W16+W17</f>
+        <f t="shared" ref="W18:AD18" si="95">W16+W17</f>
         <v>1075</v>
       </c>
       <c r="X18" s="5">
+        <f t="shared" si="95"/>
+        <v>1700</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" si="95"/>
+        <v>1336</v>
+      </c>
+      <c r="Z18" s="5">
+        <f t="shared" si="95"/>
+        <v>1817</v>
+      </c>
+      <c r="AA18" s="5">
+        <f t="shared" si="95"/>
+        <v>1618</v>
+      </c>
+      <c r="AB18" s="5">
+        <f t="shared" si="95"/>
+        <v>2036</v>
+      </c>
+      <c r="AC18" s="5">
+        <f t="shared" si="95"/>
+        <v>2189</v>
+      </c>
+      <c r="AD18" s="5">
+        <f t="shared" si="95"/>
+        <v>3303</v>
+      </c>
+      <c r="AE18" s="5">
+        <f t="shared" ref="AE18:AH18" si="96">AE16+AE17</f>
+        <v>2065</v>
+      </c>
+      <c r="AF18" s="5">
+        <f t="shared" ref="AF18" si="97">AF16+AF17</f>
+        <v>2766</v>
+      </c>
+      <c r="AG18" s="5">
         <f t="shared" si="96"/>
-        <v>1700</v>
-      </c>
-      <c r="Y18" s="5">
+        <v>3562.1336379344584</v>
+      </c>
+      <c r="AH18" s="5">
         <f t="shared" si="96"/>
-        <v>1336</v>
-      </c>
-      <c r="Z18" s="5">
-        <f t="shared" si="96"/>
-        <v>1817</v>
-      </c>
-      <c r="AA18" s="5">
-        <f t="shared" si="96"/>
-        <v>1618</v>
-      </c>
-      <c r="AB18" s="5">
-        <f t="shared" si="96"/>
-        <v>2036</v>
-      </c>
-      <c r="AC18" s="5">
-        <f t="shared" si="96"/>
-        <v>2189</v>
-      </c>
-      <c r="AD18" s="5">
-        <f t="shared" si="96"/>
-        <v>3303</v>
-      </c>
-      <c r="AE18" s="5">
-        <f t="shared" ref="AE18:AH18" si="97">AE16+AE17</f>
-        <v>2065</v>
-      </c>
-      <c r="AF18" s="5">
-        <f t="shared" ref="AF18" si="98">AF16+AF17</f>
-        <v>2766</v>
-      </c>
-      <c r="AG18" s="5">
-        <f t="shared" si="97"/>
-        <v>3562.1336379344584</v>
-      </c>
-      <c r="AH18" s="5">
-        <f t="shared" si="97"/>
         <v>4898.4213804749988</v>
       </c>
       <c r="AI18" s="5">
-        <f t="shared" ref="AI18:AL18" si="99">AI16+AI17</f>
+        <f t="shared" ref="AI18:AL18" si="98">AI16+AI17</f>
         <v>3004.6503160182378</v>
       </c>
       <c r="AJ18" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>3742.7120425464791</v>
       </c>
       <c r="AK18" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>4824.7651316819311</v>
       </c>
       <c r="AL18" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>6633.0281556237742</v>
       </c>
       <c r="AT18" s="5">
-        <f t="shared" ref="AT18" si="100">AT16+AT17</f>
+        <f t="shared" ref="AT18" si="99">AT16+AT17</f>
         <v>1008</v>
       </c>
       <c r="AU18" s="5">
-        <f t="shared" ref="AU18:AV18" si="101">AU16+AU17</f>
+        <f t="shared" ref="AU18:AV18" si="100">AU16+AU17</f>
         <v>1695</v>
       </c>
       <c r="AV18" s="5">
+        <f t="shared" si="100"/>
+        <v>494</v>
+      </c>
+      <c r="AW18" s="5">
+        <f t="shared" ref="AW18:AX18" si="101">AW16+AW17</f>
+        <v>2754</v>
+      </c>
+      <c r="AX18" s="5">
         <f t="shared" si="101"/>
-        <v>494</v>
-      </c>
-      <c r="AW18" s="5">
-        <f t="shared" ref="AW18:AX18" si="102">AW16+AW17</f>
-        <v>2754</v>
-      </c>
-      <c r="AX18" s="5">
+        <v>4910</v>
+      </c>
+      <c r="AY18" s="5">
+        <f t="shared" ref="AY18:AZ18" si="102">AY16+AY17</f>
+        <v>6194</v>
+      </c>
+      <c r="AZ18" s="5">
         <f t="shared" si="102"/>
-        <v>4910</v>
-      </c>
-      <c r="AY18" s="5">
-        <f t="shared" ref="AY18:AZ18" si="103">AY16+AY17</f>
-        <v>6194</v>
-      </c>
-      <c r="AZ18" s="5">
-        <f t="shared" si="103"/>
         <v>13291.555018409457</v>
       </c>
       <c r="BA18" s="5">
-        <f t="shared" ref="BA18" si="104">BA16+BA17</f>
-        <v>19214.922413877626</v>
+        <f t="shared" ref="BA18" si="103">BA16+BA17</f>
+        <v>24929.828761855373</v>
       </c>
       <c r="BB18" s="5">
-        <f t="shared" ref="BB18" si="105">BB16+BB17</f>
-        <v>26382.483870801734</v>
+        <f t="shared" ref="BB18" si="104">BB16+BB17</f>
+        <v>33960.449688220222</v>
       </c>
       <c r="BC18" s="5">
-        <f t="shared" ref="BC18" si="106">BC16+BC17</f>
-        <v>37422.423969729425</v>
+        <f t="shared" ref="BC18" si="105">BC16+BC17</f>
+        <v>34104.883116346442</v>
       </c>
       <c r="BD18" s="5">
-        <f t="shared" ref="BD18" si="107">BD16+BD17</f>
-        <v>40597.763978280869</v>
+        <f t="shared" ref="BD18" si="106">BD16+BD17</f>
+        <v>37124.951994021219</v>
       </c>
       <c r="BE18" s="5">
-        <f t="shared" ref="BE18" si="108">BE16+BE17</f>
-        <v>43822.672555805744</v>
+        <f t="shared" ref="BE18" si="107">BE16+BE17</f>
+        <v>40189.095133163995</v>
       </c>
       <c r="BF18" s="5">
-        <f t="shared" ref="BF18" si="109">BF16+BF17</f>
-        <v>47101.775466935243</v>
+        <f t="shared" ref="BF18" si="108">BF16+BF17</f>
+        <v>43301.760926577146</v>
       </c>
       <c r="BG18" s="5">
-        <f t="shared" ref="BG18" si="110">BG16+BG17</f>
-        <v>50439.69312575143</v>
+        <f t="shared" ref="BG18" si="109">BG16+BG17</f>
+        <v>46467.386907219894</v>
       </c>
       <c r="BH18" s="5">
-        <f t="shared" ref="BH18" si="111">BH16+BH17</f>
-        <v>53841.047833623335</v>
+        <f t="shared" ref="BH18" si="110">BH16+BH17</f>
+        <v>49690.40681794376</v>
       </c>
       <c r="BI18" s="5">
-        <f t="shared" ref="BI18" si="112">BI16+BI17</f>
-        <v>57310.470867143595</v>
+        <f t="shared" ref="BI18" si="111">BI16+BI17</f>
+        <v>52975.257526242618</v>
       </c>
       <c r="BJ18" s="5">
-        <f t="shared" ref="BJ18" si="113">BJ16+BJ17</f>
-        <v>60852.609430062766</v>
+        <f t="shared" ref="BJ18" si="112">BJ16+BJ17</f>
+        <v>56326.385797762516</v>
       </c>
       <c r="BK18" s="5">
-        <f t="shared" ref="BK18" si="114">BK16+BK17</f>
-        <v>64472.133482617952</v>
+        <f t="shared" ref="BK18" si="113">BK16+BK17</f>
+        <v>59748.254941808867</v>
       </c>
       <c r="BL18" s="5">
-        <f t="shared" ref="BL18" si="115">BL16+BL17</f>
-        <v>68173.742461179732</v>
+        <f t="shared" ref="BL18" si="114">BL16+BL17</f>
+        <v>63245.351341613408</v>
       </c>
       <c r="BM18" s="5">
-        <f t="shared" ref="BM18" si="116">BM16+BM17</f>
-        <v>71962.171900700472</v>
+        <f t="shared" ref="BM18" si="115">BM16+BM17</f>
+        <v>66822.19088167623</v>
       </c>
       <c r="BN18" s="5">
-        <f t="shared" ref="BN18" si="117">BN16+BN17</f>
-        <v>75842.199972033428</v>
-      </c>
-    </row>
-    <row r="19" spans="2:130" s="2" customFormat="1">
+        <f t="shared" ref="BN18:BX18" si="116">BN16+BN17</f>
+        <v>70483.325284079459</v>
+      </c>
+    </row>
+    <row r="19" spans="2:188" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3679,27 +3765,27 @@
         <v>711</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" ref="AG19:AH19" si="118">+AG18*0.25</f>
+        <f t="shared" ref="AG19:AH19" si="117">+AG18*0.25</f>
         <v>890.53340948361461</v>
       </c>
       <c r="AH19" s="5">
+        <f t="shared" si="117"/>
+        <v>1224.6053451187497</v>
+      </c>
+      <c r="AI19" s="5">
+        <f t="shared" ref="AI19:AL19" si="118">+AI18*0.25</f>
+        <v>751.16257900455946</v>
+      </c>
+      <c r="AJ19" s="5">
         <f t="shared" si="118"/>
-        <v>1224.6053451187497</v>
-      </c>
-      <c r="AI19" s="5">
-        <f t="shared" ref="AI19:AL19" si="119">+AI18*0.25</f>
-        <v>751.16257900455946</v>
-      </c>
-      <c r="AJ19" s="5">
-        <f t="shared" si="119"/>
         <v>935.67801063661977</v>
       </c>
       <c r="AK19" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>1206.1912829204828</v>
       </c>
       <c r="AL19" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>1658.2570389059435</v>
       </c>
       <c r="AT19" s="2">
@@ -3731,65 +3817,65 @@
         <v>3322.8887546023643</v>
       </c>
       <c r="BA19" s="5">
-        <f t="shared" ref="BA19:BC19" si="120">BA18*0.25</f>
-        <v>4803.7306034694066</v>
+        <f t="shared" ref="BA19:BC19" si="119">BA18*0.25</f>
+        <v>6232.4571904638433</v>
       </c>
       <c r="BB19" s="5">
-        <f t="shared" si="120"/>
-        <v>6595.6209677004335</v>
+        <f t="shared" si="119"/>
+        <v>8490.1124220550555</v>
       </c>
       <c r="BC19" s="5">
-        <f t="shared" si="120"/>
-        <v>9355.6059924323563</v>
+        <f t="shared" si="119"/>
+        <v>8526.2207790866105</v>
       </c>
       <c r="BD19" s="5">
-        <f t="shared" ref="BD19" si="121">BD18*0.25</f>
-        <v>10149.440994570217</v>
+        <f t="shared" ref="BD19" si="120">BD18*0.25</f>
+        <v>9281.2379985053049</v>
       </c>
       <c r="BE19" s="5">
-        <f t="shared" ref="BE19" si="122">BE18*0.25</f>
-        <v>10955.668138951436</v>
+        <f t="shared" ref="BE19" si="121">BE18*0.25</f>
+        <v>10047.273783290999</v>
       </c>
       <c r="BF19" s="5">
-        <f t="shared" ref="BF19" si="123">BF18*0.25</f>
-        <v>11775.443866733811</v>
+        <f t="shared" ref="BF19" si="122">BF18*0.25</f>
+        <v>10825.440231644287</v>
       </c>
       <c r="BG19" s="5">
-        <f t="shared" ref="BG19" si="124">BG18*0.25</f>
-        <v>12609.923281437857</v>
+        <f t="shared" ref="BG19" si="123">BG18*0.25</f>
+        <v>11616.846726804974</v>
       </c>
       <c r="BH19" s="5">
-        <f t="shared" ref="BH19" si="125">BH18*0.25</f>
-        <v>13460.261958405834</v>
+        <f t="shared" ref="BH19" si="124">BH18*0.25</f>
+        <v>12422.60170448594</v>
       </c>
       <c r="BI19" s="5">
-        <f t="shared" ref="BI19" si="126">BI18*0.25</f>
-        <v>14327.617716785899</v>
+        <f t="shared" ref="BI19" si="125">BI18*0.25</f>
+        <v>13243.814381560655</v>
       </c>
       <c r="BJ19" s="5">
-        <f t="shared" ref="BJ19" si="127">BJ18*0.25</f>
-        <v>15213.152357515692</v>
+        <f t="shared" ref="BJ19" si="126">BJ18*0.25</f>
+        <v>14081.596449440629</v>
       </c>
       <c r="BK19" s="5">
-        <f t="shared" ref="BK19" si="128">BK18*0.25</f>
-        <v>16118.033370654488</v>
+        <f t="shared" ref="BK19" si="127">BK18*0.25</f>
+        <v>14937.063735452217</v>
       </c>
       <c r="BL19" s="5">
-        <f t="shared" ref="BL19" si="129">BL18*0.25</f>
-        <v>17043.435615294933</v>
+        <f t="shared" ref="BL19" si="128">BL18*0.25</f>
+        <v>15811.337835403352</v>
       </c>
       <c r="BM19" s="5">
-        <f t="shared" ref="BM19" si="130">BM18*0.25</f>
-        <v>17990.542975175118</v>
+        <f t="shared" ref="BM19" si="129">BM18*0.25</f>
+        <v>16705.547720419057</v>
       </c>
       <c r="BN19" s="5">
-        <f t="shared" ref="BN19" si="131">BN18*0.25</f>
-        <v>18960.549993008357</v>
-      </c>
-    </row>
-    <row r="20" spans="2:130" s="6" customFormat="1">
+        <f t="shared" ref="BN19:BX19" si="130">BN18*0.25</f>
+        <v>17620.831321019865</v>
+      </c>
+    </row>
+    <row r="20" spans="2:188" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3812,35 +3898,35 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7">
-        <f t="shared" ref="W20:AD20" si="132">+W18-W19</f>
+        <f t="shared" ref="W20:AD20" si="131">+W18-W19</f>
         <v>642</v>
       </c>
       <c r="X20" s="7">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>1105</v>
       </c>
       <c r="Y20" s="7">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>806</v>
       </c>
       <c r="Z20" s="7">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>1404</v>
       </c>
       <c r="AA20" s="7">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>1198</v>
       </c>
       <c r="AB20" s="7">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>1482</v>
       </c>
       <c r="AC20" s="7">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>1653</v>
       </c>
       <c r="AD20" s="7">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>2308</v>
       </c>
       <c r="AE20" s="7">
@@ -3852,27 +3938,27 @@
         <v>2055</v>
       </c>
       <c r="AG20" s="7">
-        <f t="shared" ref="AG20" si="133">+AG18-AG19</f>
+        <f t="shared" ref="AG20" si="132">+AG18-AG19</f>
         <v>2671.600228450844</v>
       </c>
       <c r="AH20" s="7">
-        <f t="shared" ref="AH20:AL20" si="134">+AH18-AH19</f>
+        <f t="shared" ref="AH20:AL20" si="133">+AH18-AH19</f>
         <v>3673.8160353562489</v>
       </c>
       <c r="AI20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>2253.4877370136783</v>
       </c>
       <c r="AJ20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>2807.0340319098596</v>
       </c>
       <c r="AK20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>3618.5738487614481</v>
       </c>
       <c r="AL20" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>4974.7711167178304</v>
       </c>
       <c r="AM20" s="7"/>
@@ -3880,349 +3966,581 @@
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AT20" s="6">
-        <f t="shared" ref="AT20:AY20" si="135">+AT18-AT19</f>
+        <f t="shared" ref="AT20:AY20" si="134">+AT18-AT19</f>
         <v>372</v>
       </c>
       <c r="AU20" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>668</v>
       </c>
       <c r="AV20" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>32</v>
       </c>
       <c r="AW20" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1491</v>
       </c>
       <c r="AX20" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>2925</v>
       </c>
       <c r="AY20" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>3669</v>
       </c>
       <c r="AZ20" s="7">
-        <f t="shared" ref="AZ20" si="136">+AZ18-AZ19</f>
+        <f t="shared" ref="AZ20" si="135">+AZ18-AZ19</f>
         <v>9968.666263807092</v>
       </c>
       <c r="BA20" s="7">
-        <f t="shared" ref="BA20" si="137">+BA18-BA19</f>
-        <v>14411.19181040822</v>
+        <f t="shared" ref="BA20" si="136">+BA18-BA19</f>
+        <v>18697.37157139153</v>
       </c>
       <c r="BB20" s="7">
-        <f t="shared" ref="BB20" si="138">+BB18-BB19</f>
-        <v>19786.862903101301</v>
+        <f t="shared" ref="BB20" si="137">+BB18-BB19</f>
+        <v>25470.337266165167</v>
       </c>
       <c r="BC20" s="7">
         <f>+BC18-BC19</f>
-        <v>28066.817977297069</v>
+        <v>25578.662337259833</v>
       </c>
       <c r="BD20" s="7">
-        <f t="shared" ref="BD20:BN20" si="139">+BD18-BD19</f>
-        <v>30448.322983710652</v>
+        <f t="shared" ref="BD20:BN20" si="138">+BD18-BD19</f>
+        <v>27843.713995515915</v>
       </c>
       <c r="BE20" s="7">
-        <f t="shared" si="139"/>
-        <v>32867.00441685431</v>
+        <f t="shared" si="138"/>
+        <v>30141.821349872997</v>
       </c>
       <c r="BF20" s="7">
-        <f t="shared" si="139"/>
-        <v>35326.331600201433</v>
+        <f t="shared" si="138"/>
+        <v>32476.32069493286</v>
       </c>
       <c r="BG20" s="7">
-        <f t="shared" si="139"/>
-        <v>37829.769844313574</v>
+        <f t="shared" si="138"/>
+        <v>34850.540180414922</v>
       </c>
       <c r="BH20" s="7">
-        <f t="shared" si="139"/>
-        <v>40380.785875217502</v>
+        <f t="shared" si="138"/>
+        <v>37267.80511345782</v>
       </c>
       <c r="BI20" s="7">
-        <f t="shared" si="139"/>
-        <v>42982.853150357696</v>
+        <f t="shared" si="138"/>
+        <v>39731.443144681965</v>
       </c>
       <c r="BJ20" s="7">
-        <f t="shared" si="139"/>
-        <v>45639.457072547077</v>
+        <f t="shared" si="138"/>
+        <v>42244.789348321887</v>
       </c>
       <c r="BK20" s="7">
-        <f t="shared" si="139"/>
-        <v>48354.10011196346</v>
+        <f t="shared" si="138"/>
+        <v>44811.191206356649</v>
       </c>
       <c r="BL20" s="7">
-        <f t="shared" si="139"/>
-        <v>51130.306845884799</v>
+        <f t="shared" si="138"/>
+        <v>47434.01350621006</v>
       </c>
       <c r="BM20" s="7">
-        <f t="shared" si="139"/>
-        <v>53971.62892552535</v>
+        <f t="shared" si="138"/>
+        <v>50116.643161257176</v>
       </c>
       <c r="BN20" s="7">
-        <f t="shared" si="139"/>
-        <v>56881.649979025067</v>
+        <f t="shared" si="138"/>
+        <v>52862.493963059591</v>
       </c>
       <c r="BO20" s="6">
         <f>+BN20*(1+$BQ$23)</f>
-        <v>56312.833479234818</v>
+        <v>52333.869023428997</v>
       </c>
       <c r="BP20" s="6">
-        <f t="shared" ref="BP20:DZ20" si="140">+BO20*(1+$BQ$23)</f>
-        <v>55749.705144442472</v>
+        <f t="shared" ref="BP20:DZ20" si="139">+BO20*(1+$BQ$23)</f>
+        <v>51810.530333194707</v>
       </c>
       <c r="BQ20" s="6">
-        <f t="shared" si="140"/>
-        <v>55192.208092998044</v>
+        <f t="shared" si="139"/>
+        <v>51292.425029862759</v>
       </c>
       <c r="BR20" s="6">
-        <f t="shared" si="140"/>
-        <v>54640.286012068063</v>
+        <f t="shared" si="139"/>
+        <v>50779.500779564129</v>
       </c>
       <c r="BS20" s="6">
-        <f t="shared" si="140"/>
-        <v>54093.883151947382</v>
+        <f t="shared" si="139"/>
+        <v>50271.705771768487</v>
       </c>
       <c r="BT20" s="6">
-        <f t="shared" si="140"/>
-        <v>53552.944320427909</v>
+        <f t="shared" si="139"/>
+        <v>49768.9887140508</v>
       </c>
       <c r="BU20" s="6">
-        <f t="shared" si="140"/>
-        <v>53017.414877223629</v>
+        <f t="shared" si="139"/>
+        <v>49271.298826910293</v>
       </c>
       <c r="BV20" s="6">
-        <f t="shared" si="140"/>
-        <v>52487.24072845139</v>
+        <f t="shared" si="139"/>
+        <v>48778.585838641193</v>
       </c>
       <c r="BW20" s="6">
-        <f t="shared" si="140"/>
-        <v>51962.368321166876</v>
+        <f t="shared" si="139"/>
+        <v>48290.799980254778</v>
       </c>
       <c r="BX20" s="6">
-        <f t="shared" si="140"/>
-        <v>51442.744637955206</v>
+        <f t="shared" si="139"/>
+        <v>47807.89198045223</v>
       </c>
       <c r="BY20" s="6">
-        <f t="shared" si="140"/>
-        <v>50928.317191575654</v>
+        <f t="shared" si="139"/>
+        <v>47329.813060647706</v>
       </c>
       <c r="BZ20" s="6">
-        <f t="shared" si="140"/>
-        <v>50419.034019659899</v>
+        <f t="shared" si="139"/>
+        <v>46856.51493004123</v>
       </c>
       <c r="CA20" s="6">
-        <f t="shared" si="140"/>
-        <v>49914.843679463302</v>
+        <f t="shared" si="139"/>
+        <v>46387.949780740819</v>
       </c>
       <c r="CB20" s="6">
-        <f t="shared" si="140"/>
-        <v>49415.695242668669</v>
+        <f t="shared" si="139"/>
+        <v>45924.070282933411</v>
       </c>
       <c r="CC20" s="6">
-        <f t="shared" si="140"/>
-        <v>48921.538290241981</v>
+        <f t="shared" si="139"/>
+        <v>45464.82958010408</v>
       </c>
       <c r="CD20" s="6">
-        <f t="shared" si="140"/>
-        <v>48432.322907339563</v>
+        <f t="shared" si="139"/>
+        <v>45010.181284303042</v>
       </c>
       <c r="CE20" s="6">
-        <f t="shared" si="140"/>
-        <v>47947.999678266169</v>
+        <f t="shared" si="139"/>
+        <v>44560.079471460012</v>
       </c>
       <c r="CF20" s="6">
-        <f t="shared" si="140"/>
-        <v>47468.519681483507</v>
+        <f t="shared" si="139"/>
+        <v>44114.478676745413</v>
       </c>
       <c r="CG20" s="6">
-        <f t="shared" si="140"/>
-        <v>46993.834484668674</v>
+        <f t="shared" si="139"/>
+        <v>43673.333889977956</v>
       </c>
       <c r="CH20" s="6">
-        <f t="shared" si="140"/>
-        <v>46523.896139821984</v>
+        <f t="shared" si="139"/>
+        <v>43236.600551078176</v>
       </c>
       <c r="CI20" s="6">
-        <f t="shared" si="140"/>
-        <v>46058.65717842376</v>
+        <f t="shared" si="139"/>
+        <v>42804.234545567393</v>
       </c>
       <c r="CJ20" s="6">
-        <f t="shared" si="140"/>
-        <v>45598.070606639521</v>
+        <f t="shared" si="139"/>
+        <v>42376.19220011172</v>
       </c>
       <c r="CK20" s="6">
-        <f t="shared" si="140"/>
-        <v>45142.089900573126</v>
+        <f t="shared" si="139"/>
+        <v>41952.430278110602</v>
       </c>
       <c r="CL20" s="6">
-        <f t="shared" si="140"/>
-        <v>44690.669001567396</v>
+        <f t="shared" si="139"/>
+        <v>41532.905975329493</v>
       </c>
       <c r="CM20" s="6">
-        <f t="shared" si="140"/>
-        <v>44243.76231155172</v>
+        <f t="shared" si="139"/>
+        <v>41117.576915576195</v>
       </c>
       <c r="CN20" s="6">
-        <f t="shared" si="140"/>
-        <v>43801.324688436202</v>
+        <f t="shared" si="139"/>
+        <v>40706.40114642043</v>
       </c>
       <c r="CO20" s="6">
-        <f t="shared" si="140"/>
-        <v>43363.311441551836</v>
+        <f t="shared" si="139"/>
+        <v>40299.337134956229</v>
       </c>
       <c r="CP20" s="6">
-        <f t="shared" si="140"/>
-        <v>42929.678327136317</v>
+        <f t="shared" si="139"/>
+        <v>39896.343763606666</v>
       </c>
       <c r="CQ20" s="6">
-        <f t="shared" si="140"/>
-        <v>42500.381543864954</v>
+        <f t="shared" si="139"/>
+        <v>39497.380325970596</v>
       </c>
       <c r="CR20" s="6">
-        <f t="shared" si="140"/>
-        <v>42075.377728426305</v>
+        <f t="shared" si="139"/>
+        <v>39102.406522710888</v>
       </c>
       <c r="CS20" s="6">
-        <f t="shared" si="140"/>
-        <v>41654.623951142043</v>
+        <f t="shared" si="139"/>
+        <v>38711.382457483778</v>
       </c>
       <c r="CT20" s="6">
-        <f t="shared" si="140"/>
-        <v>41238.07771163062</v>
+        <f t="shared" si="139"/>
+        <v>38324.268632908941</v>
       </c>
       <c r="CU20" s="6">
-        <f t="shared" si="140"/>
-        <v>40825.696934514315</v>
+        <f t="shared" si="139"/>
+        <v>37941.025946579852</v>
       </c>
       <c r="CV20" s="6">
-        <f t="shared" si="140"/>
-        <v>40417.439965169171</v>
+        <f t="shared" si="139"/>
+        <v>37561.615687114056</v>
       </c>
       <c r="CW20" s="6">
-        <f t="shared" si="140"/>
-        <v>40013.265565517482</v>
+        <f t="shared" si="139"/>
+        <v>37185.999530242916</v>
       </c>
       <c r="CX20" s="6">
-        <f t="shared" si="140"/>
-        <v>39613.13290986231</v>
+        <f t="shared" si="139"/>
+        <v>36814.139534940485</v>
       </c>
       <c r="CY20" s="6">
-        <f t="shared" si="140"/>
-        <v>39217.001580763688</v>
+        <f t="shared" si="139"/>
+        <v>36445.99813959108</v>
       </c>
       <c r="CZ20" s="6">
-        <f t="shared" si="140"/>
-        <v>38824.831564956054</v>
+        <f t="shared" si="139"/>
+        <v>36081.538158195166</v>
       </c>
       <c r="DA20" s="6">
-        <f t="shared" si="140"/>
-        <v>38436.583249306495</v>
+        <f t="shared" si="139"/>
+        <v>35720.722776613213</v>
       </c>
       <c r="DB20" s="6">
-        <f t="shared" si="140"/>
-        <v>38052.21741681343</v>
+        <f t="shared" si="139"/>
+        <v>35363.515548847077</v>
       </c>
       <c r="DC20" s="6">
-        <f t="shared" si="140"/>
-        <v>37671.695242645292</v>
+        <f t="shared" si="139"/>
+        <v>35009.88039335861</v>
       </c>
       <c r="DD20" s="6">
-        <f t="shared" si="140"/>
-        <v>37294.978290218838</v>
+        <f t="shared" si="139"/>
+        <v>34659.781589425023</v>
       </c>
       <c r="DE20" s="6">
-        <f t="shared" si="140"/>
-        <v>36922.028507316652</v>
+        <f t="shared" si="139"/>
+        <v>34313.183773530771</v>
       </c>
       <c r="DF20" s="6">
-        <f t="shared" si="140"/>
-        <v>36552.808222243482</v>
+        <f t="shared" si="139"/>
+        <v>33970.051935795462</v>
       </c>
       <c r="DG20" s="6">
-        <f t="shared" si="140"/>
-        <v>36187.280140021045</v>
+        <f t="shared" si="139"/>
+        <v>33630.351416437508</v>
       </c>
       <c r="DH20" s="6">
-        <f t="shared" si="140"/>
-        <v>35825.407338620833</v>
+        <f t="shared" si="139"/>
+        <v>33294.047902273131</v>
       </c>
       <c r="DI20" s="6">
-        <f t="shared" si="140"/>
-        <v>35467.153265234621</v>
+        <f t="shared" si="139"/>
+        <v>32961.107423250396</v>
       </c>
       <c r="DJ20" s="6">
-        <f t="shared" si="140"/>
-        <v>35112.481732582273</v>
+        <f t="shared" si="139"/>
+        <v>32631.496349017892</v>
       </c>
       <c r="DK20" s="6">
-        <f t="shared" si="140"/>
-        <v>34761.356915256452</v>
+        <f t="shared" si="139"/>
+        <v>32305.181385527714</v>
       </c>
       <c r="DL20" s="6">
-        <f t="shared" si="140"/>
-        <v>34413.743346103889</v>
+        <f t="shared" si="139"/>
+        <v>31982.129571672438</v>
       </c>
       <c r="DM20" s="6">
-        <f t="shared" si="140"/>
-        <v>34069.605912642852</v>
+        <f t="shared" si="139"/>
+        <v>31662.308275955715</v>
       </c>
       <c r="DN20" s="6">
-        <f t="shared" si="140"/>
-        <v>33728.909853516423</v>
+        <f t="shared" si="139"/>
+        <v>31345.685193196157</v>
       </c>
       <c r="DO20" s="6">
-        <f t="shared" si="140"/>
-        <v>33391.620754981261</v>
+        <f t="shared" si="139"/>
+        <v>31032.228341264195</v>
       </c>
       <c r="DP20" s="6">
-        <f t="shared" si="140"/>
-        <v>33057.704547431451</v>
+        <f t="shared" si="139"/>
+        <v>30721.906057851553</v>
       </c>
       <c r="DQ20" s="6">
-        <f t="shared" si="140"/>
-        <v>32727.127501957137</v>
+        <f t="shared" si="139"/>
+        <v>30414.686997273038</v>
       </c>
       <c r="DR20" s="6">
-        <f t="shared" si="140"/>
-        <v>32399.856226937565</v>
+        <f t="shared" si="139"/>
+        <v>30110.540127300308</v>
       </c>
       <c r="DS20" s="6">
-        <f t="shared" si="140"/>
-        <v>32075.85766466819</v>
+        <f t="shared" si="139"/>
+        <v>29809.434726027306</v>
       </c>
       <c r="DT20" s="6">
-        <f t="shared" si="140"/>
-        <v>31755.099088021507</v>
+        <f t="shared" si="139"/>
+        <v>29511.340378767032</v>
       </c>
       <c r="DU20" s="6">
-        <f t="shared" si="140"/>
-        <v>31437.548097141291</v>
+        <f t="shared" si="139"/>
+        <v>29216.226974979363</v>
       </c>
       <c r="DV20" s="6">
-        <f t="shared" si="140"/>
-        <v>31123.172616169879</v>
+        <f t="shared" si="139"/>
+        <v>28924.064705229568</v>
       </c>
       <c r="DW20" s="6">
-        <f t="shared" si="140"/>
-        <v>30811.94089000818</v>
+        <f t="shared" si="139"/>
+        <v>28634.824058177273</v>
       </c>
       <c r="DX20" s="6">
-        <f t="shared" si="140"/>
-        <v>30503.821481108098</v>
+        <f t="shared" si="139"/>
+        <v>28348.475817595499</v>
       </c>
       <c r="DY20" s="6">
-        <f t="shared" si="140"/>
-        <v>30198.783266297018</v>
+        <f t="shared" si="139"/>
+        <v>28064.991059419543</v>
       </c>
       <c r="DZ20" s="6">
-        <f t="shared" si="140"/>
-        <v>29896.795433634048</v>
-      </c>
-    </row>
-    <row r="21" spans="2:130" s="2" customFormat="1">
+        <f t="shared" si="139"/>
+        <v>27784.341148825348</v>
+      </c>
+      <c r="EA20" s="6">
+        <f t="shared" ref="EA20" si="140">+DZ20*(1+$BQ$23)</f>
+        <v>27506.497737337093</v>
+      </c>
+      <c r="EB20" s="6">
+        <f t="shared" ref="EB20" si="141">+EA20*(1+$BQ$23)</f>
+        <v>27231.432759963722</v>
+      </c>
+      <c r="EC20" s="6">
+        <f t="shared" ref="EC20" si="142">+EB20*(1+$BQ$23)</f>
+        <v>26959.118432364085</v>
+      </c>
+      <c r="ED20" s="6">
+        <f t="shared" ref="ED20" si="143">+EC20*(1+$BQ$23)</f>
+        <v>26689.527248040442</v>
+      </c>
+      <c r="EE20" s="6">
+        <f t="shared" ref="EE20" si="144">+ED20*(1+$BQ$23)</f>
+        <v>26422.631975560038</v>
+      </c>
+      <c r="EF20" s="6">
+        <f t="shared" ref="EF20" si="145">+EE20*(1+$BQ$23)</f>
+        <v>26158.405655804436</v>
+      </c>
+      <c r="EG20" s="6">
+        <f t="shared" ref="EG20" si="146">+EF20*(1+$BQ$23)</f>
+        <v>25896.821599246392</v>
+      </c>
+      <c r="EH20" s="6">
+        <f t="shared" ref="EH20" si="147">+EG20*(1+$BQ$23)</f>
+        <v>25637.853383253929</v>
+      </c>
+      <c r="EI20" s="6">
+        <f t="shared" ref="EI20" si="148">+EH20*(1+$BQ$23)</f>
+        <v>25381.474849421389</v>
+      </c>
+      <c r="EJ20" s="6">
+        <f t="shared" ref="EJ20" si="149">+EI20*(1+$BQ$23)</f>
+        <v>25127.660100927176</v>
+      </c>
+      <c r="EK20" s="6">
+        <f t="shared" ref="EK20" si="150">+EJ20*(1+$BQ$23)</f>
+        <v>24876.383499917905</v>
+      </c>
+      <c r="EL20" s="6">
+        <f t="shared" ref="EL20" si="151">+EK20*(1+$BQ$23)</f>
+        <v>24627.619664918726</v>
+      </c>
+      <c r="EM20" s="6">
+        <f t="shared" ref="EM20" si="152">+EL20*(1+$BQ$23)</f>
+        <v>24381.343468269537</v>
+      </c>
+      <c r="EN20" s="6">
+        <f t="shared" ref="EN20" si="153">+EM20*(1+$BQ$23)</f>
+        <v>24137.530033586841</v>
+      </c>
+      <c r="EO20" s="6">
+        <f t="shared" ref="EO20" si="154">+EN20*(1+$BQ$23)</f>
+        <v>23896.154733250973</v>
+      </c>
+      <c r="EP20" s="6">
+        <f t="shared" ref="EP20" si="155">+EO20*(1+$BQ$23)</f>
+        <v>23657.193185918462</v>
+      </c>
+      <c r="EQ20" s="6">
+        <f t="shared" ref="EQ20" si="156">+EP20*(1+$BQ$23)</f>
+        <v>23420.621254059279</v>
+      </c>
+      <c r="ER20" s="6">
+        <f t="shared" ref="ER20" si="157">+EQ20*(1+$BQ$23)</f>
+        <v>23186.415041518685</v>
+      </c>
+      <c r="ES20" s="6">
+        <f t="shared" ref="ES20" si="158">+ER20*(1+$BQ$23)</f>
+        <v>22954.550891103499</v>
+      </c>
+      <c r="ET20" s="6">
+        <f t="shared" ref="ET20" si="159">+ES20*(1+$BQ$23)</f>
+        <v>22725.005382192463</v>
+      </c>
+      <c r="EU20" s="6">
+        <f t="shared" ref="EU20" si="160">+ET20*(1+$BQ$23)</f>
+        <v>22497.755328370538</v>
+      </c>
+      <c r="EV20" s="6">
+        <f t="shared" ref="EV20" si="161">+EU20*(1+$BQ$23)</f>
+        <v>22272.777775086834</v>
+      </c>
+      <c r="EW20" s="6">
+        <f t="shared" ref="EW20" si="162">+EV20*(1+$BQ$23)</f>
+        <v>22050.049997335966</v>
+      </c>
+      <c r="EX20" s="6">
+        <f t="shared" ref="EX20" si="163">+EW20*(1+$BQ$23)</f>
+        <v>21829.549497362605</v>
+      </c>
+      <c r="EY20" s="6">
+        <f t="shared" ref="EY20" si="164">+EX20*(1+$BQ$23)</f>
+        <v>21611.254002388978</v>
+      </c>
+      <c r="EZ20" s="6">
+        <f t="shared" ref="EZ20" si="165">+EY20*(1+$BQ$23)</f>
+        <v>21395.141462365089</v>
+      </c>
+      <c r="FA20" s="6">
+        <f t="shared" ref="FA20" si="166">+EZ20*(1+$BQ$23)</f>
+        <v>21181.190047741438</v>
+      </c>
+      <c r="FB20" s="6">
+        <f t="shared" ref="FB20" si="167">+FA20*(1+$BQ$23)</f>
+        <v>20969.378147264022</v>
+      </c>
+      <c r="FC20" s="6">
+        <f t="shared" ref="FC20" si="168">+FB20*(1+$BQ$23)</f>
+        <v>20759.684365791381</v>
+      </c>
+      <c r="FD20" s="6">
+        <f t="shared" ref="FD20" si="169">+FC20*(1+$BQ$23)</f>
+        <v>20552.087522133468</v>
+      </c>
+      <c r="FE20" s="6">
+        <f t="shared" ref="FE20" si="170">+FD20*(1+$BQ$23)</f>
+        <v>20346.566646912132</v>
+      </c>
+      <c r="FF20" s="6">
+        <f t="shared" ref="FF20" si="171">+FE20*(1+$BQ$23)</f>
+        <v>20143.10098044301</v>
+      </c>
+      <c r="FG20" s="6">
+        <f t="shared" ref="FG20" si="172">+FF20*(1+$BQ$23)</f>
+        <v>19941.669970638581</v>
+      </c>
+      <c r="FH20" s="6">
+        <f t="shared" ref="FH20" si="173">+FG20*(1+$BQ$23)</f>
+        <v>19742.253270932193</v>
+      </c>
+      <c r="FI20" s="6">
+        <f t="shared" ref="FI20" si="174">+FH20*(1+$BQ$23)</f>
+        <v>19544.83073822287</v>
+      </c>
+      <c r="FJ20" s="6">
+        <f t="shared" ref="FJ20" si="175">+FI20*(1+$BQ$23)</f>
+        <v>19349.38243084064</v>
+      </c>
+      <c r="FK20" s="6">
+        <f t="shared" ref="FK20" si="176">+FJ20*(1+$BQ$23)</f>
+        <v>19155.888606532233</v>
+      </c>
+      <c r="FL20" s="6">
+        <f t="shared" ref="FL20" si="177">+FK20*(1+$BQ$23)</f>
+        <v>18964.329720466911</v>
+      </c>
+      <c r="FM20" s="6">
+        <f t="shared" ref="FM20" si="178">+FL20*(1+$BQ$23)</f>
+        <v>18774.686423262243</v>
+      </c>
+      <c r="FN20" s="6">
+        <f t="shared" ref="FN20" si="179">+FM20*(1+$BQ$23)</f>
+        <v>18586.939559029619</v>
+      </c>
+      <c r="FO20" s="6">
+        <f t="shared" ref="FO20" si="180">+FN20*(1+$BQ$23)</f>
+        <v>18401.070163439323</v>
+      </c>
+      <c r="FP20" s="6">
+        <f t="shared" ref="FP20" si="181">+FO20*(1+$BQ$23)</f>
+        <v>18217.059461804929</v>
+      </c>
+      <c r="FQ20" s="6">
+        <f t="shared" ref="FQ20" si="182">+FP20*(1+$BQ$23)</f>
+        <v>18034.888867186881</v>
+      </c>
+      <c r="FR20" s="6">
+        <f t="shared" ref="FR20" si="183">+FQ20*(1+$BQ$23)</f>
+        <v>17854.539978515011</v>
+      </c>
+      <c r="FS20" s="6">
+        <f t="shared" ref="FS20" si="184">+FR20*(1+$BQ$23)</f>
+        <v>17675.99457872986</v>
+      </c>
+      <c r="FT20" s="6">
+        <f t="shared" ref="FT20" si="185">+FS20*(1+$BQ$23)</f>
+        <v>17499.23463294256</v>
+      </c>
+      <c r="FU20" s="6">
+        <f t="shared" ref="FU20" si="186">+FT20*(1+$BQ$23)</f>
+        <v>17324.242286613135</v>
+      </c>
+      <c r="FV20" s="6">
+        <f t="shared" ref="FV20" si="187">+FU20*(1+$BQ$23)</f>
+        <v>17150.999863747002</v>
+      </c>
+      <c r="FW20" s="6">
+        <f t="shared" ref="FW20" si="188">+FV20*(1+$BQ$23)</f>
+        <v>16979.489865109532</v>
+      </c>
+      <c r="FX20" s="6">
+        <f t="shared" ref="FX20" si="189">+FW20*(1+$BQ$23)</f>
+        <v>16809.694966458435</v>
+      </c>
+      <c r="FY20" s="6">
+        <f t="shared" ref="FY20" si="190">+FX20*(1+$BQ$23)</f>
+        <v>16641.598016793851</v>
+      </c>
+      <c r="FZ20" s="6">
+        <f t="shared" ref="FZ20" si="191">+FY20*(1+$BQ$23)</f>
+        <v>16475.182036625913</v>
+      </c>
+      <c r="GA20" s="6">
+        <f t="shared" ref="GA20" si="192">+FZ20*(1+$BQ$23)</f>
+        <v>16310.430216259654</v>
+      </c>
+      <c r="GB20" s="6">
+        <f t="shared" ref="GB20" si="193">+GA20*(1+$BQ$23)</f>
+        <v>16147.325914097057</v>
+      </c>
+      <c r="GC20" s="6">
+        <f t="shared" ref="GC20" si="194">+GB20*(1+$BQ$23)</f>
+        <v>15985.852654956087</v>
+      </c>
+      <c r="GD20" s="6">
+        <f t="shared" ref="GD20" si="195">+GC20*(1+$BQ$23)</f>
+        <v>15825.994128406526</v>
+      </c>
+      <c r="GE20" s="6">
+        <f t="shared" ref="GE20" si="196">+GD20*(1+$BQ$23)</f>
+        <v>15667.734187122462</v>
+      </c>
+      <c r="GF20" s="6">
+        <f t="shared" ref="GF20" si="197">+GE20*(1+$BQ$23)</f>
+        <v>15511.056845251236</v>
+      </c>
+    </row>
+    <row r="21" spans="2:188" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -4267,31 +4585,31 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AT21" s="1">
-        <f t="shared" ref="AT21:AY21" si="141">AT20/AT22</f>
+        <f t="shared" ref="AT21:AY21" si="198">AT20/AT22</f>
         <v>0.26308345120226306</v>
       </c>
       <c r="AU21" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="198"/>
         <v>0.44297082228116713</v>
       </c>
       <c r="AV21" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="198"/>
         <v>1.4773776546629732E-2</v>
       </c>
       <c r="AW21" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="198"/>
         <v>0.59237187127532775</v>
       </c>
       <c r="AX21" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="198"/>
         <v>1.097972972972973</v>
       </c>
       <c r="AY21" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="198"/>
         <v>1.2860147213459516</v>
       </c>
     </row>
-    <row r="22" spans="2:130" s="2" customFormat="1">
+    <row r="22" spans="2:188" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -4354,7 +4672,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="23" spans="2:130" s="2" customFormat="1">
+    <row r="23" spans="2:188" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -4392,15 +4710,15 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
       <c r="BP23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BQ23" s="15">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="24" spans="2:130" s="2" customFormat="1">
+    <row r="24" spans="2:188" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4423,163 +4741,163 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4">
-        <f t="shared" ref="W24:AD24" si="142">W11/W9</f>
+        <f>W11/W9</f>
         <v>0.815347721822542</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" si="142"/>
+        <f t="shared" ref="X24:AD24" si="199">X11/X9</f>
         <v>0.8429553264604811</v>
       </c>
       <c r="Y24" s="4">
-        <f t="shared" si="142"/>
+        <f t="shared" si="199"/>
         <v>0.82360287230721196</v>
       </c>
       <c r="Z24" s="4">
-        <f t="shared" si="142"/>
+        <f t="shared" si="199"/>
         <v>0.83510776421708643</v>
       </c>
       <c r="AA24" s="4">
-        <f t="shared" si="142"/>
+        <f>AA11/AA9</f>
         <v>0.81541066892464009</v>
       </c>
       <c r="AB24" s="4">
-        <f t="shared" si="142"/>
+        <f t="shared" si="199"/>
         <v>0.8399307273626917</v>
       </c>
       <c r="AC24" s="4">
-        <f t="shared" si="142"/>
+        <f t="shared" si="199"/>
         <v>0.84470117751610752</v>
       </c>
       <c r="AD24" s="4">
-        <f t="shared" si="142"/>
+        <f t="shared" si="199"/>
         <v>0.86269474405067625</v>
       </c>
       <c r="AE24" s="4">
-        <f t="shared" ref="AE24:AH24" si="143">AE11/AE9</f>
+        <f t="shared" ref="AE24:AH24" si="200">AE11/AE9</f>
         <v>0.84429580081753997</v>
       </c>
       <c r="AF24" s="4">
-        <f t="shared" si="143"/>
+        <f t="shared" si="200"/>
         <v>0.8576755748912368</v>
       </c>
       <c r="AG24" s="4">
-        <f t="shared" si="143"/>
+        <f t="shared" si="200"/>
         <v>0.86</v>
       </c>
       <c r="AH24" s="4">
-        <f t="shared" si="143"/>
+        <f t="shared" si="200"/>
         <v>0.86</v>
       </c>
       <c r="AI24" s="4">
-        <f t="shared" ref="AI24:AL24" si="144">AI11/AI9</f>
+        <f t="shared" ref="AI24:AL24" si="201">AI11/AI9</f>
         <v>0.86</v>
       </c>
       <c r="AJ24" s="4">
-        <f t="shared" si="144"/>
+        <f t="shared" si="201"/>
         <v>0.86</v>
       </c>
       <c r="AK24" s="4">
-        <f t="shared" si="144"/>
+        <f t="shared" si="201"/>
         <v>0.86</v>
       </c>
       <c r="AL24" s="4">
-        <f t="shared" si="144"/>
+        <f t="shared" si="201"/>
         <v>0.86</v>
       </c>
       <c r="AT24" s="4">
-        <f t="shared" ref="AT24:AU24" si="145">AT11/AT9</f>
+        <f t="shared" ref="AT24:AU24" si="202">AT11/AT9</f>
         <v>0.75025329280648434</v>
       </c>
       <c r="AU24" s="4">
-        <f t="shared" si="145"/>
+        <f t="shared" si="202"/>
         <v>0.76825653462678523</v>
       </c>
       <c r="AV24" s="4">
-        <f t="shared" ref="AV24:AW24" si="146">AV11/AV9</f>
+        <f t="shared" ref="AV24:AW24" si="203">AV11/AV9</f>
         <v>0.73197091766555311</v>
       </c>
       <c r="AW24" s="4">
-        <f t="shared" si="146"/>
+        <f t="shared" si="203"/>
         <v>0.76181402439024393</v>
       </c>
       <c r="AX24" s="4">
-        <f t="shared" ref="AX24:AY24" si="147">AX11/AX9</f>
+        <f t="shared" ref="AX24:AY24" si="204">AX11/AX9</f>
         <v>0.82729022942403341</v>
       </c>
       <c r="AY24" s="4">
-        <f t="shared" si="147"/>
+        <f t="shared" si="204"/>
         <v>0.84008255243195007</v>
       </c>
       <c r="AZ24" s="4">
-        <f t="shared" ref="AZ24:BC24" si="148">AZ11/AZ9</f>
+        <f t="shared" ref="AZ24:BC24" si="205">AZ11/AZ9</f>
         <v>0.85629716657328014</v>
       </c>
       <c r="BA24" s="4">
-        <f t="shared" si="148"/>
+        <f t="shared" si="205"/>
         <v>0.85</v>
       </c>
       <c r="BB24" s="4">
-        <f t="shared" si="148"/>
+        <f t="shared" si="205"/>
         <v>0.85</v>
       </c>
       <c r="BC24" s="4">
-        <f t="shared" si="148"/>
+        <f t="shared" si="205"/>
         <v>0.85</v>
       </c>
       <c r="BD24" s="4">
-        <f t="shared" ref="BD24:BN24" si="149">BD11/BD9</f>
+        <f t="shared" ref="BD24:BN24" si="206">BD11/BD9</f>
         <v>0.85</v>
       </c>
       <c r="BE24" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="206"/>
         <v>0.85</v>
       </c>
       <c r="BF24" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="206"/>
         <v>0.85</v>
       </c>
       <c r="BG24" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="206"/>
         <v>0.85</v>
       </c>
       <c r="BH24" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="206"/>
         <v>0.85</v>
       </c>
       <c r="BI24" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="206"/>
         <v>0.85</v>
       </c>
       <c r="BJ24" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="206"/>
+        <v>0.85</v>
+      </c>
+      <c r="BK24" s="4">
+        <f t="shared" si="206"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="BK24" s="4">
-        <f t="shared" si="149"/>
-        <v>0.84999999999999987</v>
-      </c>
       <c r="BL24" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="206"/>
         <v>0.85</v>
       </c>
       <c r="BM24" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="206"/>
         <v>0.85</v>
       </c>
       <c r="BN24" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="206"/>
         <v>0.85</v>
       </c>
       <c r="BP24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BQ24" s="15">
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="2:130" s="2" customFormat="1">
+    <row r="25" spans="2:188" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4606,144 +4924,159 @@
         <v>0.42965627498001596</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" ref="X25:AH25" si="150">X16/X9</f>
+        <f t="shared" ref="X25:AH25" si="207">X16/X9</f>
         <v>0.58556701030927838</v>
       </c>
       <c r="Y25" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="207"/>
         <v>0.43615360599438024</v>
       </c>
       <c r="Z25" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="207"/>
         <v>0.47675928330303818</v>
       </c>
       <c r="AA25" s="4">
-        <f t="shared" si="150"/>
+        <f>AA16/AA9</f>
         <v>0.45695738075077619</v>
       </c>
       <c r="AB25" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="207"/>
         <v>0.50371103414151408</v>
       </c>
       <c r="AC25" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="207"/>
         <v>0.49233503665852035</v>
       </c>
       <c r="AD25" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="207"/>
         <v>0.56599897277863376</v>
       </c>
       <c r="AE25" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="207"/>
         <v>0.37328130806391674</v>
       </c>
       <c r="AF25" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="207"/>
         <v>0.42666252330640148</v>
       </c>
       <c r="AG25" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="207"/>
         <v>0.5371400021643018</v>
       </c>
       <c r="AH25" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="207"/>
         <v>0.58201976296458358</v>
       </c>
       <c r="AI25" s="4">
-        <f t="shared" ref="AI25:AL25" si="151">AI16/AI9</f>
+        <f t="shared" ref="AI25:AL25" si="208">AI16/AI9</f>
         <v>0.4020599581007025</v>
       </c>
       <c r="AJ25" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="208"/>
         <v>0.4298743495657002</v>
       </c>
       <c r="AK25" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="208"/>
         <v>0.53780472990859596</v>
       </c>
       <c r="AL25" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="208"/>
         <v>0.58259208897945558</v>
       </c>
       <c r="AT25" s="4">
-        <f t="shared" ref="AT25:AU25" si="152">AT16/AT9</f>
+        <f t="shared" ref="AT25:AU25" si="209">AT16/AT9</f>
         <v>0.52279635258358659</v>
       </c>
       <c r="AU25" s="4">
-        <f t="shared" si="152"/>
+        <f t="shared" si="209"/>
         <v>0.47318781999461063</v>
       </c>
       <c r="AV25" s="4">
-        <f t="shared" ref="AV25:AW25" si="153">AV16/AV9</f>
+        <f t="shared" ref="AV25:AW25" si="210">AV16/AV9</f>
         <v>0.10571821575948123</v>
       </c>
       <c r="AW25" s="4">
-        <f t="shared" si="153"/>
+        <f t="shared" si="210"/>
         <v>0.35619918699186992</v>
       </c>
       <c r="AX25" s="4">
-        <f t="shared" ref="AX25:AY25" si="154">AX16/AX9</f>
+        <f t="shared" ref="AX25:AY25" si="211">AX16/AX9</f>
         <v>0.40060965827049577</v>
       </c>
       <c r="AY25" s="4">
-        <f t="shared" si="154"/>
+        <f t="shared" si="211"/>
         <v>0.34722222222222221</v>
       </c>
       <c r="AZ25" s="4">
-        <f t="shared" ref="AZ25:BI25" si="155">AZ16/AZ9</f>
+        <f t="shared" ref="AZ25:BN25" si="212">AZ16/AZ9</f>
         <v>0.4919079098795926</v>
       </c>
       <c r="BA25" s="4">
-        <f t="shared" si="155"/>
-        <v>0.51907902401010619</v>
+        <f t="shared" si="212"/>
+        <v>0.56998994339316678</v>
       </c>
       <c r="BB25" s="4">
-        <f t="shared" si="155"/>
-        <v>0.53804583711359943</v>
+        <f t="shared" si="212"/>
+        <v>0.58603878524996866</v>
       </c>
       <c r="BC25" s="4">
-        <f t="shared" si="155"/>
-        <v>0.55592556288989381</v>
+        <f t="shared" si="212"/>
+        <v>0.53593992153289627</v>
       </c>
       <c r="BD25" s="4">
-        <f t="shared" si="155"/>
-        <v>0.5787662958693196</v>
+        <f t="shared" si="212"/>
+        <v>0.56033293733616651</v>
       </c>
       <c r="BE25" s="4">
-        <f t="shared" si="155"/>
-        <v>0.59983299133578027</v>
+        <f t="shared" si="212"/>
+        <v>0.58283134997025055</v>
       </c>
       <c r="BF25" s="4">
-        <f t="shared" si="155"/>
-        <v>0.61926343861067101</v>
+        <f t="shared" si="212"/>
+        <v>0.60358231307935739</v>
       </c>
       <c r="BG25" s="4">
-        <f t="shared" si="155"/>
-        <v>0.63718472493217237</v>
+        <f t="shared" si="212"/>
+        <v>0.6227215508984365</v>
       </c>
       <c r="BH25" s="4">
-        <f t="shared" si="155"/>
-        <v>0.65371406668501342</v>
+        <f t="shared" si="212"/>
+        <v>0.64037424597428616</v>
       </c>
       <c r="BI25" s="4">
-        <f t="shared" si="155"/>
-        <v>0.66895957606870171</v>
-      </c>
-      <c r="BJ25" s="4"/>
-      <c r="BK25" s="4"/>
-      <c r="BL25" s="4"/>
-      <c r="BM25" s="4"/>
-      <c r="BN25" s="4"/>
+        <f t="shared" si="212"/>
+        <v>0.6566558579374483</v>
+      </c>
+      <c r="BJ25" s="4">
+        <f t="shared" si="212"/>
+        <v>0.67167287868017078</v>
+      </c>
+      <c r="BK25" s="4">
+        <f t="shared" si="212"/>
+        <v>0.68552352887976931</v>
+      </c>
+      <c r="BL25" s="4">
+        <f t="shared" si="212"/>
+        <v>0.69829840042308811</v>
+      </c>
+      <c r="BM25" s="4">
+        <f t="shared" si="212"/>
+        <v>0.71008104893391621</v>
+      </c>
+      <c r="BN25" s="4">
+        <f t="shared" si="212"/>
+        <v>0.72094854027885469</v>
+      </c>
       <c r="BP25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BQ25" s="15">
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:130" s="2" customFormat="1">
+    <row r="26" spans="2:188" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4770,154 +5103,154 @@
         <v>0.25659472422062352</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" ref="X26:AL26" si="156">X20/X9</f>
+        <f t="shared" ref="X26:AL26" si="213">X20/X9</f>
         <v>0.3797250859106529</v>
       </c>
       <c r="Y26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.25163908835466747</v>
       </c>
       <c r="Z26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.36458062840820565</v>
       </c>
       <c r="AA26" s="4">
-        <f t="shared" si="156"/>
+        <f>AA20/AA9</f>
         <v>0.33813152695455828</v>
       </c>
       <c r="AB26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.36665017318159326</v>
       </c>
       <c r="AC26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.36725172183959121</v>
       </c>
       <c r="AD26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.39513781886663241</v>
       </c>
       <c r="AE26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.28056484578223706</v>
       </c>
       <c r="AF26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.31929770043505284</v>
       </c>
       <c r="AG26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.40285500162322641</v>
       </c>
       <c r="AH26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.43651482222343768</v>
       </c>
       <c r="AI26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.30154496857552687</v>
       </c>
       <c r="AJ26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.32240576217427519</v>
       </c>
       <c r="AK26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.40335354743144691</v>
       </c>
       <c r="AL26" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="213"/>
         <v>0.43694406673459163</v>
       </c>
       <c r="AT26" s="4">
-        <f t="shared" ref="AT26:BN26" si="157">AT20/AT9</f>
+        <f t="shared" ref="AT26:BN26" si="214">AT20/AT9</f>
         <v>0.18844984802431611</v>
       </c>
       <c r="AU26" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="214"/>
         <v>0.18000538938291566</v>
       </c>
       <c r="AV26" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="214"/>
         <v>6.2880723128315979E-3</v>
       </c>
       <c r="AW26" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="214"/>
         <v>0.18940548780487804</v>
       </c>
       <c r="AX26" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="214"/>
         <v>0.23463821594737685</v>
       </c>
       <c r="AY26" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="214"/>
         <v>0.20465194109772422</v>
       </c>
       <c r="AZ26" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="214"/>
         <v>0.37105258003055319</v>
       </c>
       <c r="BA26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.38971490576908069</v>
+        <f t="shared" si="214"/>
+        <v>0.42783568949691442</v>
       </c>
       <c r="BB26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.40353437783519958</v>
+        <f t="shared" si="214"/>
+        <v>0.4395290889374765</v>
       </c>
       <c r="BC26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.43167137266914207</v>
+        <f t="shared" si="214"/>
+        <v>0.42013935031082483</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.45465945111728956</v>
+        <f t="shared" si="214"/>
+        <v>0.44402300340582879</v>
       </c>
       <c r="BE26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.47648117163975673</v>
+        <f t="shared" si="214"/>
+        <v>0.46667074107457268</v>
       </c>
       <c r="BF26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.49721810877598177</v>
+        <f t="shared" si="214"/>
+        <v>0.4881695403561232</v>
       </c>
       <c r="BG26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.51694563248516645</v>
+        <f t="shared" si="214"/>
+        <v>0.50859975409804781</v>
       </c>
       <c r="BH26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.53573338814319171</v>
+        <f t="shared" si="214"/>
+        <v>0.52803562354449241</v>
       </c>
       <c r="BI26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.55364573928606953</v>
+        <f t="shared" si="214"/>
+        <v>0.54654575113944082</v>
       </c>
       <c r="BJ26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.57074217599299448</v>
+        <f t="shared" si="214"/>
+        <v>0.56419353663483307</v>
       </c>
       <c r="BK26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.58707769157736678</v>
+        <f t="shared" si="214"/>
+        <v>0.58103757935325173</v>
       </c>
       <c r="BL26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.60270313004691001</v>
+        <f t="shared" si="214"/>
+        <v>0.59713204923355256</v>
       </c>
       <c r="BM26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.61766550660285369</v>
+        <f t="shared" si="214"/>
+        <v>0.61252702908367962</v>
       </c>
       <c r="BN26" s="4">
-        <f t="shared" si="157"/>
-        <v>0.63200830327185664</v>
+        <f t="shared" si="214"/>
+        <v>0.62726883027661451</v>
       </c>
       <c r="BQ26" s="15"/>
     </row>
-    <row r="27" spans="2:130">
+    <row r="27" spans="2:188" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -4940,241 +5273,241 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4">
-        <f t="shared" ref="W27:AD27" si="158">W19/W18</f>
+        <f t="shared" ref="W27:AD27" si="215">W19/W18</f>
         <v>0.40279069767441861</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" si="158"/>
+        <f t="shared" si="215"/>
         <v>0.35</v>
       </c>
       <c r="Y27" s="4">
-        <f t="shared" si="158"/>
+        <f t="shared" si="215"/>
         <v>0.3967065868263473</v>
       </c>
       <c r="Z27" s="4">
-        <f t="shared" si="158"/>
+        <f t="shared" si="215"/>
         <v>0.22729774353329665</v>
       </c>
       <c r="AA27" s="4">
-        <f t="shared" si="158"/>
+        <f t="shared" si="215"/>
         <v>0.25957972805933249</v>
       </c>
       <c r="AB27" s="4">
-        <f t="shared" si="158"/>
+        <f t="shared" si="215"/>
         <v>0.27210216110019647</v>
       </c>
       <c r="AC27" s="4">
-        <f t="shared" si="158"/>
+        <f t="shared" si="215"/>
         <v>0.24486066697121975</v>
       </c>
       <c r="AD27" s="4">
-        <f t="shared" si="158"/>
+        <f t="shared" si="215"/>
         <v>0.3012412957917045</v>
       </c>
       <c r="AE27" s="4">
-        <f t="shared" ref="AE27:AH27" si="159">AE19/AE18</f>
+        <f t="shared" ref="AE27:AH27" si="216">AE19/AE18</f>
         <v>0.26876513317191281</v>
       </c>
       <c r="AF27" s="4">
-        <f t="shared" si="159"/>
+        <f t="shared" si="216"/>
         <v>0.25704989154013014</v>
       </c>
       <c r="AG27" s="4">
-        <f t="shared" si="159"/>
+        <f t="shared" si="216"/>
         <v>0.25</v>
       </c>
       <c r="AH27" s="4">
-        <f t="shared" si="159"/>
+        <f t="shared" si="216"/>
         <v>0.25</v>
       </c>
       <c r="AI27" s="4">
-        <f t="shared" ref="AI27:AL27" si="160">AI19/AI18</f>
+        <f t="shared" ref="AI27:AL27" si="217">AI19/AI18</f>
         <v>0.25</v>
       </c>
       <c r="AJ27" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="217"/>
         <v>0.25</v>
       </c>
       <c r="AK27" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="217"/>
         <v>0.25</v>
       </c>
       <c r="AL27" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="217"/>
         <v>0.25</v>
       </c>
       <c r="AT27" s="4">
-        <f t="shared" ref="AT27:AU27" si="161">AT19/AT18</f>
+        <f t="shared" ref="AT27:AU27" si="218">AT19/AT18</f>
         <v>0.63095238095238093</v>
       </c>
       <c r="AU27" s="4">
-        <f t="shared" si="161"/>
+        <f t="shared" si="218"/>
         <v>0.60589970501474921</v>
       </c>
       <c r="AV27" s="4">
-        <f t="shared" ref="AV27:AW27" si="162">AV19/AV18</f>
+        <f t="shared" ref="AV27:AW27" si="219">AV19/AV18</f>
         <v>0.93522267206477738</v>
       </c>
       <c r="AW27" s="4">
-        <f t="shared" si="162"/>
+        <f t="shared" si="219"/>
         <v>0.45860566448801743</v>
       </c>
       <c r="AX27" s="4">
-        <f t="shared" ref="AX27:AY27" si="163">AX19/AX18</f>
+        <f t="shared" ref="AX27:AY27" si="220">AX19/AX18</f>
         <v>0.40427698574338083</v>
       </c>
       <c r="AY27" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="220"/>
         <v>0.40765256700032287</v>
       </c>
       <c r="AZ27" s="4">
-        <f t="shared" ref="AZ27:BC27" si="164">AZ19/AZ18</f>
+        <f t="shared" ref="AZ27:BC27" si="221">AZ19/AZ18</f>
         <v>0.25</v>
       </c>
       <c r="BA27" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="221"/>
         <v>0.25</v>
       </c>
       <c r="BB27" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="221"/>
         <v>0.25</v>
       </c>
       <c r="BC27" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="221"/>
         <v>0.25</v>
       </c>
       <c r="BD27" s="4">
-        <f t="shared" ref="BD27:BN27" si="165">BD19/BD18</f>
+        <f t="shared" ref="BD27:BN27" si="222">BD19/BD18</f>
         <v>0.25</v>
       </c>
       <c r="BE27" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="222"/>
         <v>0.25</v>
       </c>
       <c r="BF27" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="222"/>
         <v>0.25</v>
       </c>
       <c r="BG27" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="222"/>
         <v>0.25</v>
       </c>
       <c r="BH27" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="222"/>
         <v>0.25</v>
       </c>
       <c r="BI27" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="222"/>
         <v>0.25</v>
       </c>
       <c r="BJ27" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="222"/>
         <v>0.25</v>
       </c>
       <c r="BK27" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="222"/>
         <v>0.25</v>
       </c>
       <c r="BL27" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="222"/>
         <v>0.25</v>
       </c>
       <c r="BM27" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="222"/>
         <v>0.25</v>
       </c>
       <c r="BN27" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="222"/>
         <v>0.25</v>
       </c>
       <c r="BP27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BQ27" s="2">
         <f>NPV(BQ24,BA20:FC20)</f>
-        <v>498597.75659575296</v>
-      </c>
-    </row>
-    <row r="28" spans="2:130">
+        <v>473206.64341357688</v>
+      </c>
+    </row>
+    <row r="28" spans="2:188" x14ac:dyDescent="0.2">
       <c r="BP28" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="BQ28" s="1">
         <f>Main!L2</f>
         <v>128.69</v>
       </c>
     </row>
-    <row r="29" spans="2:130">
+    <row r="29" spans="2:188" x14ac:dyDescent="0.2">
       <c r="BP29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BQ29" s="1">
         <f>BQ27/Main!L3</f>
-        <v>174.57904642708436</v>
-      </c>
-    </row>
-    <row r="30" spans="2:130">
+        <v>165.68860063500591</v>
+      </c>
+    </row>
+    <row r="30" spans="2:188" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4">
-        <f t="shared" ref="AA30:AL30" si="166">AA7/W7-1</f>
+        <f t="shared" ref="AA30:AL30" si="223">AA7/W7-1</f>
         <v>0.2133395847424624</v>
       </c>
       <c r="AB30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.1895494305756722</v>
       </c>
       <c r="AC30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.20569190812610194</v>
       </c>
       <c r="AD30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.2963665781115794</v>
       </c>
       <c r="AE30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.30443334446783554</v>
       </c>
       <c r="AF30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.36400712868859286</v>
       </c>
       <c r="AG30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AH30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AI30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AK30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL30" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="223"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BQ30" s="15">
         <f>BQ29/BQ28-1</f>
-        <v>0.3565859540530294</v>
-      </c>
-    </row>
-    <row r="31" spans="2:130" s="8" customFormat="1">
+        <v>0.28750175332198236</v>
+      </c>
+    </row>
+    <row r="31" spans="2:188" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -5190,244 +5523,244 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="10">
-        <f t="shared" ref="P31:AL31" si="167">P6/L6-1</f>
+        <f t="shared" ref="P31:AL31" si="224">P6/L6-1</f>
         <v>0.32374100719424459</v>
       </c>
       <c r="Q31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.27789934354485779</v>
       </c>
       <c r="R31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.27950310559006208</v>
       </c>
       <c r="S31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.26425855513307983</v>
       </c>
       <c r="T31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.26630434782608692</v>
       </c>
       <c r="U31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.24657534246575352</v>
       </c>
       <c r="V31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.22491909385113273</v>
       </c>
       <c r="W31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.20601503759398487</v>
       </c>
       <c r="X31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.18597997138769662</v>
       </c>
       <c r="Y31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.18681318681318682</v>
       </c>
       <c r="Z31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.17422574489945686</v>
       </c>
       <c r="AA31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.16708229426433907</v>
       </c>
       <c r="AB31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.16767189384800973</v>
       </c>
       <c r="AC31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.1655092592592593</v>
       </c>
       <c r="AD31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="AE31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.16452991452991461</v>
       </c>
       <c r="AF31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.1673553719008265</v>
       </c>
       <c r="AG31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.13336643495531275</v>
       </c>
       <c r="AH31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>0.10837788461538467</v>
       </c>
       <c r="AI31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>6.8110211009174249E-2</v>
       </c>
       <c r="AJ31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>4.0604010000000024E-2</v>
       </c>
       <c r="AK31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>4.0604010000000024E-2</v>
       </c>
       <c r="AL31" s="10">
-        <f t="shared" si="167"/>
+        <f t="shared" si="224"/>
         <v>4.0604010000000024E-2</v>
       </c>
       <c r="AY31" s="12">
-        <f t="shared" ref="AX31:BN31" si="168">AY6/AX6-1</f>
+        <f t="shared" ref="AY31:BN31" si="225">AY6/AX6-1</f>
         <v>0.16985376827896514</v>
       </c>
       <c r="AZ31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>8.5099278846153759E-2</v>
       </c>
       <c r="BA31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BB31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BC31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BD31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="BE31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="BF31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="BG31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="BH31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="BI31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="BJ31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="BK31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="BL31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="BM31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="BN31" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:130">
+    <row r="32" spans="2:188" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" ref="M32:AF32" si="169">M6/L6-1</f>
+        <f t="shared" ref="M32:AF32" si="226">M6/L6-1</f>
         <v>9.592326139088736E-2</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>5.6892778993435478E-2</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>8.9026915113871619E-2</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>4.9429657794676896E-2</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>5.7971014492753659E-2</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>5.821917808219168E-2</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>7.6051779935275121E-2</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>5.1127819548872244E-2</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>4.1487839771101598E-2</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>3.9835164835164916E-2</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>5.9445178335534976E-2</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>3.366583541147139E-2</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>4.2219541616405287E-2</v>
       </c>
       <c r="Z32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>2.8806584362139898E-2</v>
       </c>
       <c r="AA32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>5.2999999999999936E-2</v>
       </c>
       <c r="AB32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>3.4188034188034289E-2</v>
       </c>
       <c r="AC32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>4.0289256198347001E-2</v>
       </c>
       <c r="AD32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>3.2770605759682159E-2</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>4.8076923076923128E-2</v>
       </c>
       <c r="AF32" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="226"/>
         <v>3.669724770642202E-2</v>
       </c>
       <c r="AZ32" s="15"/>
@@ -5446,9 +5779,9 @@
       <c r="BM32" s="15"/>
       <c r="BN32" s="15"/>
     </row>
-    <row r="33" spans="2:66" s="8" customFormat="1">
+    <row r="33" spans="2:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -5464,63 +5797,63 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="10">
-        <f>P4/L4-1</f>
+        <f t="shared" ref="P33:AD33" si="227">P4/L4-1</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="Q33" s="10">
-        <f>Q4/M4-1</f>
+        <f t="shared" si="227"/>
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="R33" s="10">
-        <f>R4/N4-1</f>
+        <f t="shared" si="227"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="S33" s="10">
-        <f>S4/O4-1</f>
+        <f t="shared" si="227"/>
         <v>7.7519379844961156E-2</v>
       </c>
       <c r="T33" s="10">
-        <f>T4/P4-1</f>
+        <f t="shared" si="227"/>
         <v>9.2307692307692202E-2</v>
       </c>
       <c r="U33" s="10">
-        <f>U4/Q4-1</f>
+        <f t="shared" si="227"/>
         <v>9.0909090909090828E-2</v>
       </c>
       <c r="V33" s="10">
-        <f>V4/R4-1</f>
+        <f t="shared" si="227"/>
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="W33" s="10">
-        <f>W4/S4-1</f>
+        <f t="shared" si="227"/>
         <v>7.9136690647481966E-2</v>
       </c>
       <c r="X33" s="10">
-        <f>X4/T4-1</f>
+        <f t="shared" si="227"/>
         <v>7.0422535211267512E-2</v>
       </c>
       <c r="Y33" s="10">
-        <f>Y4/U4-1</f>
+        <f t="shared" si="227"/>
         <v>7.638888888888884E-2</v>
       </c>
       <c r="Z33" s="10">
-        <f>Z4/V4-1</f>
+        <f t="shared" si="227"/>
         <v>6.8027210884353817E-2</v>
       </c>
       <c r="AA33" s="10">
-        <f>AA4/W4-1</f>
+        <f t="shared" si="227"/>
         <v>7.333333333333325E-2</v>
       </c>
       <c r="AB33" s="10">
-        <f>AB4/X4-1</f>
+        <f t="shared" si="227"/>
         <v>7.8947368421052655E-2</v>
       </c>
       <c r="AC33" s="10">
-        <f>AC4/Y4-1</f>
+        <f t="shared" si="227"/>
         <v>7.7419354838709653E-2</v>
       </c>
       <c r="AD33" s="10">
-        <f>AD4/Z4-1</f>
+        <f t="shared" si="227"/>
         <v>7.6433121019108263E-2</v>
       </c>
       <c r="AE33" s="9"/>
@@ -5532,27 +5865,27 @@
       <c r="AK33" s="9"/>
       <c r="AL33" s="9"/>
       <c r="AT33" s="12">
-        <f t="shared" ref="AT33:AY33" si="170">AT4/AS4-1</f>
+        <f t="shared" ref="AT33:AY33" si="228">AT4/AS4-1</f>
         <v>0.86458333333333326</v>
       </c>
       <c r="AU33" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="228"/>
         <v>0.31843575418994408</v>
       </c>
       <c r="AV33" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="228"/>
         <v>0.11440677966101687</v>
       </c>
       <c r="AW33" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="228"/>
         <v>8.7452471482889704E-2</v>
       </c>
       <c r="AX33" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="228"/>
         <v>7.3426573426573327E-2</v>
       </c>
       <c r="AY33" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="228"/>
         <v>7.654723127035834E-2</v>
       </c>
       <c r="AZ33" s="12"/>
@@ -5571,80 +5904,80 @@
       <c r="BM33" s="12"/>
       <c r="BN33" s="12"/>
     </row>
-    <row r="34" spans="2:66">
+    <row r="34" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M34" s="4">
-        <f>M4/L4-1</f>
+        <f t="shared" ref="M34:AD34" si="229">M4/L4-1</f>
         <v>5.9829059829059839E-2</v>
       </c>
       <c r="N34" s="4">
-        <f>N4/M4-1</f>
+        <f t="shared" si="229"/>
         <v>1.6129032258064502E-2</v>
       </c>
       <c r="O34" s="4">
-        <f>O4/N4-1</f>
+        <f t="shared" si="229"/>
         <v>2.3809523809523725E-2</v>
       </c>
       <c r="P34" s="4">
-        <f>P4/O4-1</f>
+        <f t="shared" si="229"/>
         <v>7.7519379844961378E-3</v>
       </c>
       <c r="Q34" s="4">
-        <f>Q4/P4-1</f>
+        <f t="shared" si="229"/>
         <v>1.538461538461533E-2</v>
       </c>
       <c r="R34" s="4">
-        <f>R4/Q4-1</f>
+        <f t="shared" si="229"/>
         <v>2.2727272727272707E-2</v>
       </c>
       <c r="S34" s="4">
-        <f>S4/R4-1</f>
+        <f t="shared" si="229"/>
         <v>2.9629629629629672E-2</v>
       </c>
       <c r="T34" s="4">
-        <f>T4/S4-1</f>
+        <f t="shared" si="229"/>
         <v>2.1582733812949728E-2</v>
       </c>
       <c r="U34" s="4">
-        <f>U4/T4-1</f>
+        <f t="shared" si="229"/>
         <v>1.4084507042253502E-2</v>
       </c>
       <c r="V34" s="4">
-        <f>V4/U4-1</f>
+        <f t="shared" si="229"/>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="W34" s="4">
-        <f>W4/V4-1</f>
+        <f t="shared" si="229"/>
         <v>2.0408163265306145E-2</v>
       </c>
       <c r="X34" s="4">
-        <f>X4/W4-1</f>
+        <f t="shared" si="229"/>
         <v>1.3333333333333419E-2</v>
       </c>
       <c r="Y34" s="4">
-        <f>Y4/X4-1</f>
+        <f t="shared" si="229"/>
         <v>1.9736842105263053E-2</v>
       </c>
       <c r="Z34" s="4">
-        <f>Z4/Y4-1</f>
+        <f t="shared" si="229"/>
         <v>1.2903225806451646E-2</v>
       </c>
       <c r="AA34" s="4">
-        <f>AA4/Z4-1</f>
+        <f t="shared" si="229"/>
         <v>2.5477707006369421E-2</v>
       </c>
       <c r="AB34" s="4">
-        <f>AB4/AA4-1</f>
+        <f t="shared" si="229"/>
         <v>1.8633540372670732E-2</v>
       </c>
       <c r="AC34" s="4">
-        <f>AC4/AB4-1</f>
+        <f t="shared" si="229"/>
         <v>1.8292682926829285E-2</v>
       </c>
       <c r="AD34" s="4">
-        <f>AD4/AC4-1</f>
+        <f t="shared" si="229"/>
         <v>1.1976047904191711E-2</v>
       </c>
       <c r="AF34" s="4"/>
@@ -5664,7 +5997,7 @@
       <c r="BM34" s="15"/>
       <c r="BN34" s="15"/>
     </row>
-    <row r="35" spans="2:66" s="8" customFormat="1">
+    <row r="35" spans="2:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>19</v>
       </c>
@@ -5713,115 +6046,115 @@
         <v>0.51905165114309915</v>
       </c>
       <c r="AF35" s="10">
-        <f t="shared" ref="AF35:AL35" si="171">AF9/AB9-1</f>
+        <f t="shared" ref="AF35:AL35" si="230">AF9/AB9-1</f>
         <v>0.5922810489856507</v>
       </c>
       <c r="AG35" s="10">
-        <f t="shared" si="171"/>
+        <f t="shared" si="230"/>
         <v>0.47337636544190653</v>
       </c>
       <c r="AH35" s="10">
-        <f t="shared" si="171"/>
+        <f t="shared" si="230"/>
         <v>0.44089124999999996</v>
       </c>
       <c r="AI35" s="10">
-        <f t="shared" si="171"/>
+        <f t="shared" si="230"/>
         <v>0.38854327431192659</v>
       </c>
       <c r="AJ35" s="10">
-        <f t="shared" si="171"/>
+        <f t="shared" si="230"/>
         <v>0.35278521299999999</v>
       </c>
       <c r="AK35" s="10">
-        <f t="shared" si="171"/>
+        <f t="shared" si="230"/>
         <v>0.35278521299999999</v>
       </c>
       <c r="AL35" s="10">
-        <f t="shared" si="171"/>
+        <f t="shared" si="230"/>
         <v>0.35278521299999999</v>
       </c>
       <c r="AU35" s="12">
-        <f t="shared" ref="AU35:BB35" si="172">AU9/AT9-1</f>
+        <f t="shared" ref="AU35:BB35" si="231">AU9/AT9-1</f>
         <v>0.87993920972644379</v>
       </c>
       <c r="AV35" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" si="231"/>
         <v>0.37132848288870934</v>
       </c>
       <c r="AW35" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" si="231"/>
         <v>0.5468657889565729</v>
       </c>
       <c r="AX35" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" si="231"/>
         <v>0.58358739837398366</v>
       </c>
       <c r="AY35" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" si="231"/>
         <v>0.43815177282207607</v>
       </c>
       <c r="AZ35" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" si="231"/>
         <v>0.49854489134895275</v>
       </c>
       <c r="BA35" s="12">
-        <f t="shared" si="172"/>
-        <v>0.37642097030748478</v>
+        <f t="shared" si="231"/>
+        <v>0.62667932854520902</v>
       </c>
       <c r="BB35" s="12">
-        <f t="shared" si="172"/>
-        <v>0.32600000000000007</v>
+        <f t="shared" si="231"/>
+        <v>0.32599999999999985</v>
       </c>
       <c r="BC35" s="12">
-        <f t="shared" ref="BC35" si="173">BC9/BB9-1</f>
-        <v>0.32600000000000007</v>
+        <f t="shared" ref="BC35" si="232">BC9/BB9-1</f>
+        <v>5.06000000000002E-2</v>
       </c>
       <c r="BD35" s="12">
-        <f t="shared" ref="BD35:BN35" si="174">BD9/BC9-1</f>
+        <f t="shared" ref="BD35:BN35" si="233">BD9/BC9-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BE35" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="233"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BF35" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="233"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="BG35" s="12">
+        <f t="shared" si="233"/>
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="BG35" s="12">
-        <f t="shared" si="174"/>
+      <c r="BH35" s="12">
+        <f t="shared" si="233"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="BH35" s="12">
-        <f t="shared" si="174"/>
+      <c r="BI35" s="12">
+        <f t="shared" si="233"/>
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="BI35" s="12">
-        <f t="shared" si="174"/>
+      <c r="BJ35" s="12">
+        <f t="shared" si="233"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="BJ35" s="12">
-        <f t="shared" si="174"/>
+      <c r="BK35" s="12">
+        <f t="shared" si="233"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="BL35" s="12">
+        <f t="shared" si="233"/>
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="BK35" s="12">
-        <f t="shared" si="174"/>
+      <c r="BM35" s="12">
+        <f t="shared" si="233"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="BL35" s="12">
-        <f t="shared" si="174"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="BM35" s="12">
-        <f t="shared" si="174"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
       <c r="BN35" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="233"/>
         <v>2.9999999999999805E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:66" s="2" customFormat="1">
+    <row r="38" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
@@ -5865,11 +6198,11 @@
         <v>23293</v>
       </c>
       <c r="AG38" s="5">
-        <f t="shared" ref="AG38:AH38" si="175">+AF38+AG20</f>
+        <f t="shared" ref="AG38:AH38" si="234">+AF38+AG20</f>
         <v>25964.600228450843</v>
       </c>
       <c r="AH38" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="234"/>
         <v>29638.416263807092</v>
       </c>
       <c r="AI38" s="5"/>
@@ -5882,64 +6215,64 @@
       </c>
       <c r="BA38" s="2">
         <f>+AZ38+BA20</f>
-        <v>44049.608074215314</v>
+        <v>48335.787835198622</v>
       </c>
       <c r="BB38" s="2">
-        <f t="shared" ref="BB38:BN38" si="176">+BA38+BB20</f>
-        <v>63836.470977316611</v>
+        <f t="shared" ref="BB38:BN38" si="235">+BA38+BB20</f>
+        <v>73806.125101363781</v>
       </c>
       <c r="BC38" s="2">
-        <f t="shared" si="176"/>
-        <v>91903.288954613672</v>
+        <f t="shared" si="235"/>
+        <v>99384.787438623607</v>
       </c>
       <c r="BD38" s="2">
-        <f t="shared" si="176"/>
-        <v>122351.61193832432</v>
+        <f t="shared" si="235"/>
+        <v>127228.50143413953</v>
       </c>
       <c r="BE38" s="2">
-        <f t="shared" si="176"/>
-        <v>155218.61635517864</v>
+        <f t="shared" si="235"/>
+        <v>157370.32278401253</v>
       </c>
       <c r="BF38" s="2">
-        <f t="shared" si="176"/>
-        <v>190544.94795538008</v>
+        <f t="shared" si="235"/>
+        <v>189846.64347894539</v>
       </c>
       <c r="BG38" s="2">
-        <f t="shared" si="176"/>
-        <v>228374.71779969364</v>
+        <f t="shared" si="235"/>
+        <v>224697.18365936031</v>
       </c>
       <c r="BH38" s="2">
-        <f t="shared" si="176"/>
-        <v>268755.50367491116</v>
+        <f t="shared" si="235"/>
+        <v>261964.98877281812</v>
       </c>
       <c r="BI38" s="2">
-        <f t="shared" si="176"/>
-        <v>311738.35682526883</v>
+        <f t="shared" si="235"/>
+        <v>301696.4319175001</v>
       </c>
       <c r="BJ38" s="2">
-        <f t="shared" si="176"/>
-        <v>357377.81389781588</v>
+        <f t="shared" si="235"/>
+        <v>343941.22126582201</v>
       </c>
       <c r="BK38" s="2">
-        <f t="shared" si="176"/>
-        <v>405731.91400977934</v>
+        <f t="shared" si="235"/>
+        <v>388752.41247217864</v>
       </c>
       <c r="BL38" s="2">
-        <f t="shared" si="176"/>
-        <v>456862.22085566411</v>
+        <f t="shared" si="235"/>
+        <v>436186.4259783887</v>
       </c>
       <c r="BM38" s="2">
-        <f t="shared" si="176"/>
-        <v>510833.84978118946</v>
+        <f t="shared" si="235"/>
+        <v>486303.0691396459</v>
       </c>
       <c r="BN38" s="2">
-        <f t="shared" si="176"/>
-        <v>567715.49976021447</v>
-      </c>
-    </row>
-    <row r="39" spans="2:66" s="2" customFormat="1">
+        <f t="shared" si="235"/>
+        <v>539165.56310270552</v>
+      </c>
+    </row>
+    <row r="39" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -5984,9 +6317,9 @@
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
     </row>
-    <row r="40" spans="2:66" s="2" customFormat="1">
+    <row r="40" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -6031,9 +6364,9 @@
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
     </row>
-    <row r="41" spans="2:66" s="2" customFormat="1">
+    <row r="41" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -6078,9 +6411,9 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42" spans="2:66" s="2" customFormat="1">
+    <row r="42" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -6128,9 +6461,9 @@
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
     </row>
-    <row r="43" spans="2:66" s="2" customFormat="1">
+    <row r="43" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -6175,9 +6508,9 @@
       <c r="AK43" s="5"/>
       <c r="AL43" s="5"/>
     </row>
-    <row r="44" spans="2:66" s="2" customFormat="1">
+    <row r="44" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -6225,7 +6558,7 @@
       <c r="AK44" s="5"/>
       <c r="AL44" s="5"/>
     </row>
-    <row r="45" spans="2:66" s="2" customFormat="1">
+    <row r="45" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -6263,9 +6596,9 @@
       <c r="AK45" s="5"/>
       <c r="AL45" s="5"/>
     </row>
-    <row r="46" spans="2:66" s="2" customFormat="1">
+    <row r="46" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -6310,9 +6643,9 @@
       <c r="AK46" s="5"/>
       <c r="AL46" s="5"/>
     </row>
-    <row r="47" spans="2:66" s="2" customFormat="1">
+    <row r="47" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -6357,9 +6690,9 @@
       <c r="AK47" s="5"/>
       <c r="AL47" s="5"/>
     </row>
-    <row r="48" spans="2:66" s="2" customFormat="1">
+    <row r="48" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -6404,9 +6737,9 @@
       <c r="AK48" s="5"/>
       <c r="AL48" s="5"/>
     </row>
-    <row r="49" spans="2:38" s="2" customFormat="1">
+    <row r="49" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -6451,9 +6784,9 @@
       <c r="AK49" s="5"/>
       <c r="AL49" s="5"/>
     </row>
-    <row r="50" spans="2:38" s="2" customFormat="1">
+    <row r="50" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -6499,9 +6832,9 @@
       <c r="AK50" s="5"/>
       <c r="AL50" s="5"/>
     </row>
-    <row r="51" spans="2:38" s="2" customFormat="1">
+    <row r="51" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -6546,9 +6879,9 @@
       <c r="AK51" s="5"/>
       <c r="AL51" s="5"/>
     </row>
-    <row r="52" spans="2:38" s="2" customFormat="1">
+    <row r="52" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -6593,9 +6926,9 @@
       <c r="AK52" s="5"/>
       <c r="AL52" s="5"/>
     </row>
-    <row r="53" spans="2:38" s="2" customFormat="1">
+    <row r="53" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -6643,9 +6976,12 @@
       <c r="AK53" s="5"/>
       <c r="AL53" s="5"/>
     </row>
-    <row r="56" spans="2:38">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AL54" s="4"/>
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE56" s="5">
         <f>AE20</f>
@@ -6655,10 +6991,11 @@
         <f>AF20</f>
         <v>2055</v>
       </c>
-    </row>
-    <row r="57" spans="2:38">
+      <c r="AL56" s="22"/>
+    </row>
+    <row r="57" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE57" s="5">
         <f>+AE20</f>
@@ -6669,9 +7006,9 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="58" spans="2:38">
+    <row r="58" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE58" s="3">
         <v>552</v>
@@ -6680,9 +7017,9 @@
         <v>585</v>
       </c>
     </row>
-    <row r="59" spans="2:38">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE59" s="3">
         <v>747</v>
@@ -6691,9 +7028,9 @@
         <v>805</v>
       </c>
     </row>
-    <row r="60" spans="2:38">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE60" s="3">
         <v>-65</v>
@@ -6702,9 +7039,9 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="61" spans="2:38">
+    <row r="61" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE61" s="3">
         <v>494</v>
@@ -6713,9 +7050,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="62" spans="2:38">
+    <row r="62" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE62" s="3">
         <v>-494</v>
@@ -6724,9 +7061,9 @@
         <v>-467</v>
       </c>
     </row>
-    <row r="63" spans="2:38">
+    <row r="63" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE63" s="3">
         <v>13</v>
@@ -6735,9 +7072,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:38">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE64" s="3">
         <v>267</v>
@@ -6746,9 +7083,9 @@
         <v>-492</v>
       </c>
     </row>
-    <row r="65" spans="2:38">
+    <row r="65" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE65" s="5">
         <f>SUM(AE57:AE64)</f>
@@ -6759,9 +7096,9 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="67" spans="2:38" s="2" customFormat="1">
+    <row r="67" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -6804,9 +7141,9 @@
       <c r="AK67" s="5"/>
       <c r="AL67" s="5"/>
     </row>
-    <row r="68" spans="2:38" s="2" customFormat="1">
+    <row r="68" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -6851,9 +7188,9 @@
       <c r="AK68" s="5"/>
       <c r="AL68" s="5"/>
     </row>
-    <row r="69" spans="2:38" s="2" customFormat="1">
+    <row r="69" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -6896,9 +7233,9 @@
       <c r="AK69" s="5"/>
       <c r="AL69" s="5"/>
     </row>
-    <row r="70" spans="2:38" s="2" customFormat="1">
+    <row r="70" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -6941,9 +7278,9 @@
       <c r="AK70" s="5"/>
       <c r="AL70" s="5"/>
     </row>
-    <row r="71" spans="2:38" s="2" customFormat="1">
+    <row r="71" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -6988,9 +7325,9 @@
       <c r="AK71" s="5"/>
       <c r="AL71" s="5"/>
     </row>
-    <row r="73" spans="2:38">
+    <row r="73" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE73" s="3">
         <v>-312</v>
@@ -6999,9 +7336,9 @@
         <v>-312</v>
       </c>
     </row>
-    <row r="74" spans="2:38">
+    <row r="74" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE74" s="3">
         <v>494</v>
@@ -7010,9 +7347,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="75" spans="2:38">
+    <row r="75" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE75" s="3">
         <v>2</v>
@@ -7021,9 +7358,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:38">
+    <row r="76" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE76" s="3">
         <f>SUM(AE73:AE75)</f>
@@ -7034,9 +7371,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="2:38">
+    <row r="78" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE78" s="5">
         <f>AE76+AE71+AE65</f>
@@ -7047,9 +7384,9 @@
         <v>-1905</v>
       </c>
     </row>
-    <row r="79" spans="2:38">
+    <row r="79" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE79" s="5">
         <f>AE38-AD38</f>
@@ -7060,9 +7397,9 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="80" spans="2:38">
+    <row r="80" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE80" s="5">
         <f>AE65+AE67</f>
@@ -7073,9 +7410,9 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="81" spans="2:32">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE81" s="5">
         <f>AE80-AE59</f>

--- a/investing spreadsheets/FB.xlsx
+++ b/investing spreadsheets/FB.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1041,7 +1041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,17 +1163,23 @@
   <dimension ref="A1:GF81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL64" sqref="AL64"/>
+      <selection pane="bottomRight" activeCell="AV19" sqref="AV19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="38" width="8.85546875" style="3"/>
+    <col min="3" max="22" width="8.85546875" style="3"/>
+    <col min="23" max="25" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="8.85546875" style="3"/>
     <col min="69" max="69" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2375,7 +2381,7 @@
         <v>12272.922038125413</v>
       </c>
       <c r="BN10" s="2">
-        <f t="shared" ref="BN10:BX10" si="34">BN9-BN11</f>
+        <f t="shared" ref="BN10" si="34">BN9-BN11</f>
         <v>12641.109699269175</v>
       </c>
     </row>
@@ -3208,7 +3214,7 @@
         <v>11448.095853935536</v>
       </c>
       <c r="BN15" s="5">
-        <f t="shared" ref="BN15:BX15" si="72">SUM(BN12:BN14)</f>
+        <f t="shared" ref="BN15" si="72">SUM(BN12:BN14)</f>
         <v>10875.69106123876</v>
       </c>
     </row>
@@ -3381,7 +3387,7 @@
         <v>58098.462362108461</v>
       </c>
       <c r="BN16" s="5">
-        <f t="shared" ref="BN16:BX16" si="93">BN11-BN15</f>
+        <f t="shared" ref="BN16" si="93">BN11-BN15</f>
         <v>60757.26390128654</v>
       </c>
     </row>
@@ -3706,7 +3712,7 @@
         <v>66822.19088167623</v>
       </c>
       <c r="BN18" s="5">
-        <f t="shared" ref="BN18:BX18" si="116">BN16+BN17</f>
+        <f t="shared" ref="BN18" si="116">BN16+BN17</f>
         <v>70483.325284079459</v>
       </c>
     </row>
@@ -3869,7 +3875,7 @@
         <v>16705.547720419057</v>
       </c>
       <c r="BN19" s="5">
-        <f t="shared" ref="BN19:BX19" si="130">BN18*0.25</f>
+        <f t="shared" ref="BN19" si="130">BN18*0.25</f>
         <v>17620.831321019865</v>
       </c>
     </row>
@@ -4585,7 +4591,7 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AT21" s="1">
-        <f t="shared" ref="AT21:AY21" si="198">AT20/AT22</f>
+        <f t="shared" ref="AT21:BN21" si="198">AT20/AT22</f>
         <v>0.26308345120226306</v>
       </c>
       <c r="AU21" s="1">

--- a/investing spreadsheets/FB.xlsx
+++ b/investing spreadsheets/FB.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOOK\Desktop\stock-exchange-berkeley\investing spreadsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="16725" yWindow="-15" windowWidth="16800" windowHeight="20535" activeTab="1"/>
   </bookViews>
@@ -10,13 +15,13 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -29,7 +34,7 @@
     <author>LOOK</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1">
+    <comment ref="B9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -1041,7 +1046,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,10 +1168,10 @@
   <dimension ref="A1:GF81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV19" sqref="AV19"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4591,7 +4596,7 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AT21" s="1">
-        <f t="shared" ref="AT21:BN21" si="198">AT20/AT22</f>
+        <f t="shared" ref="AT21:AY21" si="198">AT20/AT22</f>
         <v>0.26308345120226306</v>
       </c>
       <c r="AU21" s="1">
